--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15315" windowHeight="5955" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15315" windowHeight="5955" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="yudb_outdoor_raw" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="111">
   <si>
     <t>P1020171</t>
   </si>
@@ -3332,6 +3332,707 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean vs X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_charts!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$V$2:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3480428686749899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7891017076450565E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19343399128422614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28897696549200175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38451993969977732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4800629139075529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57560588811532842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.671148862323104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_charts!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean vs x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3480428686749899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7891017076450565E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19343399128422614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28897696549200175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38451993969977732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4800629139075529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57560588811532842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.671148862323104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="121178752"/>
+        <c:axId val="121184640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121178752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121184640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121184640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121178752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean vs Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_charts!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$W$2:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5076894471688303E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10209459388076343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19768149831435805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29326840274795263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38885530718154726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48444221161514189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58002911604873642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67561602048233105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean vs Y</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$W$2:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5076894471688303E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10209459388076343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19768149831435805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29326840274795263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38885530718154726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48444221161514189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58002911604873642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67561602048233105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="121193600"/>
+        <c:axId val="121195136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121193600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121195136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121195136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121193600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean vs Z</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_charts!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.35598949424413E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1688091446884687E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9816287951328067E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12794448445577147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16607268096021485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20420087746465823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24232907396910164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28045727047354502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean vs Z</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.35598949424413E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1688091446884687E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9816287951328067E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12794448445577147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16607268096021485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20420087746465823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24232907396910164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28045727047354502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="121220096"/>
+        <c:axId val="121230080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121220096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121230080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121230080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121220096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3442,15 +4143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3471,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3501,20 +4202,115 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>530681</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>149681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>204110</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>435431</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272145</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>557895</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7225,8 +8021,8 @@
   </sheetPr>
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9544,8 +10340,8 @@
   </sheetPr>
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9563,6 +10359,27 @@
       <c r="E1" t="s">
         <v>62</v>
       </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
       <c r="P1">
         <v>7</v>
       </c>
@@ -9603,6 +10420,34 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$46, V$2:V$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$46, W$2:W$9)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$46, X$2:X$9)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$46, Y$2:Y$9)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f t="array" ref="K2:K10">FREQUENCY($E$2:$E$46, V$2:V$9)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="array" ref="L2:L10">FREQUENCY($E$2:$E$46, W$2:W$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="array" ref="M2:M10">FREQUENCY($E$2:$E$46, X$2:X$9)</f>
+        <v>1</v>
+      </c>
       <c r="Q2">
         <f>MAX(B$2:B$46)</f>
         <v>0.671148862323104</v>
@@ -9656,6 +10501,27 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
       <c r="Q3">
         <f>(Q2 - Q1) /$P$1</f>
         <v>9.5542974207775577E-2</v>
@@ -9709,6 +10575,27 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
       <c r="V4">
         <f>Q$1 +Q$3 * $F4</f>
         <v>0.19343399128422614</v>
@@ -9746,6 +10633,27 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
       <c r="V5">
         <f>Q$1 +Q$3 * $F5</f>
         <v>0.28897696549200175</v>
@@ -9783,6 +10691,27 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
       <c r="V6">
         <f>Q$1 +Q$3 * $F6</f>
         <v>0.38451993969977732</v>
@@ -9820,6 +10749,27 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
       <c r="V7">
         <f>Q$1 +Q$3 * $F7</f>
         <v>0.4800629139075529</v>
@@ -9857,6 +10807,27 @@
       <c r="F8">
         <v>6</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
       <c r="V8">
         <f>Q$1 +Q$3 * $F8</f>
         <v>0.57560588811532842</v>
@@ -9894,6 +10865,27 @@
       <c r="F9">
         <v>7</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
       <c r="V9">
         <f>Q$1 +Q$3 * $F9</f>
         <v>0.671148862323104</v>
@@ -9928,6 +10920,27 @@
         <f t="shared" si="2"/>
         <v>1.079668556533781E-2</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -10579,5 +11592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,6 +14,9 @@
     <sheet name="yudb_indoor_raw" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="yudb_indoor_charts" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">yudb_indoor_charts!$A$2:$E$46</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -1025,22 +1028,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65094784"/>
-        <c:axId val="51879296"/>
+        <c:axId val="66437120"/>
+        <c:axId val="66438656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65094784"/>
+        <c:axId val="66437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51879296"/>
+        <c:crossAx val="66438656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51879296"/>
+        <c:axId val="66438656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1051,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65094784"/>
+        <c:crossAx val="66437120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1061,7 +1064,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2197,23 +2200,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65315200"/>
-        <c:axId val="65292928"/>
+        <c:axId val="74995200"/>
+        <c:axId val="74996736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65315200"/>
+        <c:axId val="74995200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65292928"/>
+        <c:crossAx val="74996736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65292928"/>
+        <c:axId val="74996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2224,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65315200"/>
+        <c:crossAx val="74995200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2234,7 +2237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2588,23 +2591,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="45812352"/>
-        <c:axId val="45810816"/>
+        <c:axId val="75056256"/>
+        <c:axId val="75057792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45812352"/>
+        <c:axId val="75056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45810816"/>
+        <c:crossAx val="75057792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45810816"/>
+        <c:axId val="75057792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,20 +2615,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45812352"/>
+        <c:crossAx val="75056256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2678,28 +2680,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.6814148090813202E-2</c:v>
+                  <c:v>0.96337972171154729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12926834622040889</c:v>
+                  <c:v>7.4065306630653351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24172254435000456</c:v>
+                  <c:v>13.849681604419123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35417674247960029</c:v>
+                  <c:v>20.29283254577291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46663094060919597</c:v>
+                  <c:v>26.735983487126699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57908513873879164</c:v>
+                  <c:v>33.179134428480488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69153933686838731</c:v>
+                  <c:v>39.622285369834273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80399353499798298</c:v>
+                  <c:v>46.065436311188066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,28 +2765,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6814148090813202E-2</c:v>
+                  <c:v>0.96337972171154729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12926834622040889</c:v>
+                  <c:v>7.4065306630653351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24172254435000456</c:v>
+                  <c:v>13.849681604419123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35417674247960029</c:v>
+                  <c:v>20.29283254577291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46663094060919597</c:v>
+                  <c:v>26.735983487126699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57908513873879164</c:v>
+                  <c:v>33.179134428480488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69153933686838731</c:v>
+                  <c:v>39.622285369834273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80399353499798298</c:v>
+                  <c:v>46.065436311188066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,23 +2829,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="100895744"/>
-        <c:axId val="100893056"/>
+        <c:axId val="75156480"/>
+        <c:axId val="75174656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100895744"/>
+        <c:axId val="75156480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100893056"/>
+        <c:crossAx val="75174656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100893056"/>
+        <c:axId val="75174656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2853,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100895744"/>
+        <c:crossAx val="75156480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2864,7 +2866,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2917,28 +2919,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0504633680462798E-2</c:v>
+                  <c:v>1.1748289703523183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12829788000872669</c:v>
+                  <c:v>7.3509270449758972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23609112633699056</c:v>
+                  <c:v>13.527025119599475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34388437266525446</c:v>
+                  <c:v>19.703123194223057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45167761899351833</c:v>
+                  <c:v>25.879221268846635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55947086532178225</c:v>
+                  <c:v>32.05531934347021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66726411165004618</c:v>
+                  <c:v>38.231417418093791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77505735797830999</c:v>
+                  <c:v>44.407515492717366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,28 +2996,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0504633680462798E-2</c:v>
+                  <c:v>1.1748289703523183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12829788000872669</c:v>
+                  <c:v>7.3509270449758972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23609112633699056</c:v>
+                  <c:v>13.527025119599475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34388437266525446</c:v>
+                  <c:v>19.703123194223057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45167761899351833</c:v>
+                  <c:v>25.879221268846635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55947086532178225</c:v>
+                  <c:v>32.05531934347021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66726411165004618</c:v>
+                  <c:v>38.231417418093791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77505735797830999</c:v>
+                  <c:v>44.407515492717366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,23 +3060,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108959232"/>
-        <c:axId val="88816256"/>
+        <c:axId val="75146752"/>
+        <c:axId val="75148288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108959232"/>
+        <c:axId val="75146752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88816256"/>
+        <c:crossAx val="75148288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88816256"/>
+        <c:axId val="75148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3084,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108959232"/>
+        <c:crossAx val="75146752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3095,7 +3097,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3148,28 +3150,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
+                  <c:v>0.39419540124627744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
+                  <c:v>7.0408578466579126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
+                  <c:v>13.687520292069546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
+                  <c:v>20.334182737481182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
+                  <c:v>26.980845182892818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
+                  <c:v>33.62750762830445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
+                  <c:v>40.274170073716085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
+                  <c:v>46.920832519127721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,28 +3227,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
+                  <c:v>0.39419540124627744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
+                  <c:v>7.0408578466579126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
+                  <c:v>13.687520292069546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
+                  <c:v>20.334182737481182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
+                  <c:v>26.980845182892818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
+                  <c:v>33.62750762830445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
+                  <c:v>40.274170073716085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
+                  <c:v>46.920832519127721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,23 +3291,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108964480"/>
-        <c:axId val="108962176"/>
+        <c:axId val="75217920"/>
+        <c:axId val="75232000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108964480"/>
+        <c:axId val="75217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108962176"/>
+        <c:crossAx val="75232000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108962176"/>
+        <c:axId val="75232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3315,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108964480"/>
+        <c:crossAx val="75217920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3326,7 +3328,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3379,28 +3381,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3480428686749899E-3</c:v>
+                  <c:v>0.13453294649086753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7891017076450565E-2</c:v>
+                  <c:v>5.6087421307236882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19343399128422614</c:v>
+                  <c:v>11.08295131495651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28897696549200175</c:v>
+                  <c:v>16.557160499189333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38451993969977732</c:v>
+                  <c:v>22.031369683422152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4800629139075529</c:v>
+                  <c:v>27.505578867654972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57560588811532842</c:v>
+                  <c:v>32.979788051887795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.671148862323104</c:v>
+                  <c:v>38.453997236120614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,28 +3466,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.3480428686749899E-3</c:v>
+                  <c:v>0.13453294649086753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7891017076450565E-2</c:v>
+                  <c:v>5.6087421307236882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19343399128422614</c:v>
+                  <c:v>11.08295131495651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28897696549200175</c:v>
+                  <c:v>16.557160499189333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38451993969977732</c:v>
+                  <c:v>22.031369683422152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4800629139075529</c:v>
+                  <c:v>27.505578867654972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57560588811532842</c:v>
+                  <c:v>32.979788051887795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.671148862323104</c:v>
+                  <c:v>38.453997236120614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,23 +3530,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="121178752"/>
-        <c:axId val="121184640"/>
+        <c:axId val="75351552"/>
+        <c:axId val="75353088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121178752"/>
+        <c:axId val="75351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121184640"/>
+        <c:crossAx val="75353088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121184640"/>
+        <c:axId val="75353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3554,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121178752"/>
+        <c:crossAx val="75351552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3565,7 +3567,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3618,28 +3620,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.5076894471688303E-3</c:v>
+                  <c:v>0.37286313970459789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10209459388076343</c:v>
+                  <c:v>5.8495893404699046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19768149831435805</c:v>
+                  <c:v>11.326315541235212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29326840274795263</c:v>
+                  <c:v>16.80304174200052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38885530718154726</c:v>
+                  <c:v>22.279767942765826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48444221161514189</c:v>
+                  <c:v>27.756494143531132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58002911604873642</c:v>
+                  <c:v>33.233220344296441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67561602048233105</c:v>
+                  <c:v>38.709946545061747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,28 +3697,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.5076894471688303E-3</c:v>
+                  <c:v>0.37286313970459789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10209459388076343</c:v>
+                  <c:v>5.8495893404699046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19768149831435805</c:v>
+                  <c:v>11.326315541235212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29326840274795263</c:v>
+                  <c:v>16.80304174200052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38885530718154726</c:v>
+                  <c:v>22.279767942765826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48444221161514189</c:v>
+                  <c:v>27.756494143531132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58002911604873642</c:v>
+                  <c:v>33.233220344296441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67561602048233105</c:v>
+                  <c:v>38.709946545061747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,23 +3761,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="121193600"/>
-        <c:axId val="121195136"/>
+        <c:axId val="75365760"/>
+        <c:axId val="75388032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121193600"/>
+        <c:axId val="75365760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121195136"/>
+        <c:crossAx val="75388032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121195136"/>
+        <c:axId val="75388032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3785,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121193600"/>
+        <c:crossAx val="75365760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3796,7 +3798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3849,28 +3851,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.35598949424413E-2</c:v>
+                  <c:v>0.77692475084267687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1688091446884687E-2</c:v>
+                  <c:v>2.9615094909927411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9816287951328067E-2</c:v>
+                  <c:v>5.146094231142806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12794448445577147</c:v>
+                  <c:v>7.3306789712928699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16607268096021485</c:v>
+                  <c:v>9.5152637114429339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20420087746465823</c:v>
+                  <c:v>11.699848451592999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24232907396910164</c:v>
+                  <c:v>13.884433191743062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28045727047354502</c:v>
+                  <c:v>16.069017931893129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,28 +3928,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.35598949424413E-2</c:v>
+                  <c:v>0.77692475084267687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1688091446884687E-2</c:v>
+                  <c:v>2.9615094909927411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9816287951328067E-2</c:v>
+                  <c:v>5.146094231142806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12794448445577147</c:v>
+                  <c:v>7.3306789712928699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16607268096021485</c:v>
+                  <c:v>9.5152637114429339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20420087746465823</c:v>
+                  <c:v>11.699848451592999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24232907396910164</c:v>
+                  <c:v>13.884433191743062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28045727047354502</c:v>
+                  <c:v>16.069017931893129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,23 +3992,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="121220096"/>
-        <c:axId val="121230080"/>
+        <c:axId val="75421184"/>
+        <c:axId val="75422720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121220096"/>
+        <c:axId val="75421184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121230080"/>
+        <c:crossAx val="75422720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121230080"/>
+        <c:axId val="75422720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4014,7 +4016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121220096"/>
+        <c:crossAx val="75421184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4027,7 +4029,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4038,14 +4040,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>40820</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>503463</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4616,15 +4618,15 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K58" sqref="G2:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1">
         <v>1</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4649,11 +4651,31 @@
         <v>0.56293994201440001</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2) / 3</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(B2:D2) / 3</f>
         <v>0.49269192540941004</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="str">
+        <f>A2</f>
+        <v>P1020171</v>
+      </c>
+      <c r="H2">
+        <f>DEGREES(B2)</f>
+        <v>32.168508333286567</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:K2" si="1">DEGREES(C2)</f>
+        <v>20.264912648349696</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>32.254082796764408</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>28.22916792613356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4667,11 +4689,31 @@
         <v>0.395353600443624</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.35320601848775662</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G60" si="2">A3</f>
+        <v>P1020177</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H58" si="3">DEGREES(B3)</f>
+        <v>12.240659172921609</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I58" si="4">DEGREES(C3)</f>
+        <v>25.818890580261819</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J58" si="5">DEGREES(D3)</f>
+        <v>22.652092720721125</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K58" si="6">DEGREES(E3)</f>
+        <v>20.237214157968182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4685,11 +4727,31 @@
         <v>1.44371923784062E-2</v>
       </c>
       <c r="E4">
-        <f>SUM(B4:D4) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.858669398275144E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020819</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>5.5099976957494752</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>5.4519964008503399</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.82719019130111426</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>3.9297280959669765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4703,11 +4765,31 @@
         <v>0.111345291278063</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.140548860989816</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020822</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>8.5165413180333793</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>9.2624130733408592</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>6.3796152588878261</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>8.0528565500873555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4721,11 +4803,31 @@
         <v>8.8365524456744005E-2</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.7231520911704243E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020845</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.7285709581554884</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>4.7647046314715906</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>5.0629716058314882</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>3.8520823984861896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4739,11 +4841,31 @@
         <v>3.9390816672038698E-2</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.6642050410241793E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020847</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>4.3363615628585528</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>4.8616355700748644</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>2.2569275468813763</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>3.8183082266049313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4757,11 +4879,31 @@
         <v>0.205591313462125</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.31773206167763401</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020848</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>19.80994444936011</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>23.024659435065356</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>11.779514565930908</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>18.204706150118792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4775,11 +4917,31 @@
         <v>6.8800076479676999E-3</v>
       </c>
       <c r="E9">
-        <f>SUM(B9:D9) / 3</f>
+        <f t="shared" si="0"/>
         <v>1.5649957830934199E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020854</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.1210052282121303</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1.1748289703523183</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.39419540124627744</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.89667653327024199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4793,11 +4955,31 @@
         <v>0.72934353653198802</v>
       </c>
       <c r="E10">
-        <f>SUM(B10:D10) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.50553259735944567</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020856</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>41.71912361145607</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>3.3872226350632992</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>41.788306458428487</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>28.964884234982623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4811,11 +4993,31 @@
         <v>8.2641929238977202E-2</v>
       </c>
       <c r="E11">
-        <f>SUM(B11:D11) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.005300735213923E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020861</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>5.3641911835091944</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>3.6608734361005997</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>4.7350337562121894</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>4.5866994586073275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4829,11 +5031,31 @@
         <v>7.19410610097099E-2</v>
       </c>
       <c r="E12">
-        <f>SUM(B12:D12) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5472580284168599E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020867</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1.2755053553705593</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>4.1376096620303437</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>4.1219191695495416</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>3.1783447289834816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4847,11 +5069,31 @@
         <v>0.81892301523560396</v>
       </c>
       <c r="E13">
-        <f>SUM(B13:D13) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.64706139647491467</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020871</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>42.679859030739671</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>21.620969761694166</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>46.920832519127721</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>37.073887103853856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4865,11 +5107,31 @@
         <v>0.22329857609460799</v>
       </c>
       <c r="E14">
-        <f>SUM(B14:D14) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.25004111079645636</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>P1030001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>12.378167121113828</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>17.806667957584128</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>12.794065981501895</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>14.326300353399951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4883,11 +5145,31 @@
         <v>0.20035461640205399</v>
       </c>
       <c r="E15">
-        <f>SUM(B15:D15) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.22419653804336834</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>P1030004</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>11.078038541052035</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>15.979033767135309</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>11.479473925800272</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>12.845515411329206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4901,11 +5183,31 @@
         <v>0.40471685175412803</v>
       </c>
       <c r="E16">
-        <f>SUM(B16:D16) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.66125591491014035</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040779</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>46.065436311188066</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>44.407515492717366</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>23.188567503333346</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>37.88717310241293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4919,11 +5221,31 @@
         <v>0.13595621083047099</v>
       </c>
       <c r="E17">
-        <f>SUM(B17:D17) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.141374387468227</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040783</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>6.5934198735099114</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>9.9173302468430968</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>7.7897170791768007</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>8.100155733176603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4937,11 +5259,31 @@
         <v>9.4333494032757495E-2</v>
       </c>
       <c r="E18">
-        <f>SUM(B18:D18) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.5625076167947544E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040815</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.8761934071966893</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>5.7178885873401057</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>5.4049110747995401</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>4.3329976897787787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4955,11 +5297,31 @@
         <v>3.7996491509359097E-2</v>
       </c>
       <c r="E19">
-        <f>SUM(B19:D19) / 3</f>
+        <f t="shared" si="0"/>
         <v>9.4052526673579037E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040817</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>7.0305490294546251</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>6.9588508635674664</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>2.1770385997909432</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>5.3888128309376784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4973,11 +5335,31 @@
         <v>0.33582661427002503</v>
       </c>
       <c r="E20">
-        <f>SUM(B20:D20) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.26194183539597832</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040818</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>18.004960829677767</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>7.7780764627821668</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>19.241447645840299</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>15.008161646100076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4991,11 +5373,31 @@
         <v>0.147846183179939</v>
       </c>
       <c r="E21">
-        <f>SUM(B21:D21) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.22748971551606167</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040819</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>14.145678320224427</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>16.485961111553284</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>8.470962313328565</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>13.034200581702093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5009,11 +5411,31 @@
         <v>7.8877329818613007E-2</v>
       </c>
       <c r="E22">
-        <f>SUM(B22:D22) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.8657831699778375E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040822</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.96337972171154729</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>4.5998207557785058</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>4.5193380978679247</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>3.3608461917859929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5027,11 +5449,31 @@
         <v>0.60068362841715806</v>
       </c>
       <c r="E23">
-        <f>SUM(B23:D23) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.47212310662621232</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040823</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>35.271217986065018</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>11.464129543887978</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>34.416636730907761</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>27.050661420286918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5045,11 +5487,31 @@
         <v>0.15608016346148901</v>
       </c>
       <c r="E24">
-        <f>SUM(B24:D24) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12471621400925714</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040825</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>7.2314968651662213</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>5.2629066015208137</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>8.9427346320553216</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>7.1457126995807858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5063,11 +5525,31 @@
         <v>8.8969693113070999E-2</v>
       </c>
       <c r="E25">
-        <f>SUM(B25:D25) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.4360042655975275E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040854</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>2.3252607664693432</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>5.3587011393780077</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>5.0975879199531144</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>4.260516608600156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5081,11 +5563,31 @@
         <v>7.0493720169324106E-2</v>
       </c>
       <c r="E26">
-        <f>SUM(B26:D26) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5784911101886936E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040855</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1.7235720266165993</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>3.826155225456719</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>4.0389926478785183</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>3.1962399666506123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5099,11 +5601,31 @@
         <v>0.29191796211861498</v>
       </c>
       <c r="E27">
-        <f>SUM(B27:D27) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.22371067238134654</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040856</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>4.4262772963501904</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>17.301087588648407</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>16.725667193456481</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>12.817677359485026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5117,11 +5639,31 @@
         <v>0.18549753299198199</v>
       </c>
       <c r="E28">
-        <f>SUM(B28:D28) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.14938450171432718</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040870</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>10.028783315241007</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>5.0202953529169569</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>10.628225750529314</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>8.5591014728957582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5135,11 +5677,31 @@
         <v>0.20756249457879999</v>
       </c>
       <c r="E29">
-        <f>SUM(B29:D29) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.21437752886804798</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080005</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>9.6370484752009684</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>15.319279479976117</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>11.89245492457227</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>12.282927626583117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5153,11 +5715,31 @@
         <v>0.233515143905453</v>
       </c>
       <c r="E30">
-        <f>SUM(B30:D30) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.27890976485962032</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080008</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>14.677976838769347</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>19.883648137385457</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>13.379432198172525</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>15.980352391442443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5171,11 +5753,31 @@
         <v>0.37815204027779797</v>
       </c>
       <c r="E31">
-        <f>SUM(B31:D31) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.37338611714417597</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080011</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>15.71076862710904</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>26.803061374127925</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>21.666515922178938</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>21.393448641138633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5189,11 +5791,31 @@
         <v>3.4580700295362102E-2</v>
       </c>
       <c r="E32">
-        <f>SUM(B32:D32) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.20583605584238837</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080015</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>16.707228703450298</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>16.692054931182607</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>1.9813281795310478</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>11.793537271387985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5207,11 +5829,31 @@
         <v>0.27034538822387</v>
       </c>
       <c r="E33">
-        <f>SUM(B33:D33) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.25134831086352266</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080018</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>9.5759188687234591</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>18.13802357588925</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>15.489649756053497</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>14.401197400222069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5225,11 +5867,31 @@
         <v>0.19455494375698401</v>
       </c>
       <c r="E34">
-        <f>SUM(B34:D34) / 3</f>
+        <f t="shared" ref="E34:E65" si="7">SUM(B34:D34) / 3</f>
         <v>0.16840246294835096</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080020</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>5.4583900072449145</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>12.340683991720994</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>11.147177160680288</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>9.6487503865487323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5243,11 +5905,31 @@
         <v>0.13999091983613099</v>
       </c>
       <c r="E35">
-        <f>SUM(B35:D35) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.12469716550162617</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080021</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>4.3378543036562531</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>9.0751207210417277</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>8.020888876764543</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>7.1446213004875085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5261,11 +5943,31 @@
         <v>0.108127159858925</v>
       </c>
       <c r="E36">
-        <f>SUM(B36:D36) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.25448754378661298</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080023</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>18.37962976269398</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>19.168326919524233</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>6.1952299106527722</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>14.581062197623661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5279,11 +5981,31 @@
         <v>6.8768314811834597E-2</v>
       </c>
       <c r="E37">
-        <f>SUM(B37:D37) / 3</f>
+        <f t="shared" si="7"/>
         <v>8.8792842533116909E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080025</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>4.9956941758216393</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>6.3265370055851644</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>3.9401342029451083</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>5.0874551281173046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5297,11 +6019,31 @@
         <v>0.18893162605986799</v>
       </c>
       <c r="E38">
-        <f>SUM(B38:D38) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.16163880940759578</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080031</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>5.0443877227029041</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>11.914292241247017</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>10.824984789774314</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>9.261221584574745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5315,11 +6057,31 @@
         <v>0.184359307759838</v>
       </c>
       <c r="E39">
-        <f>SUM(B39:D39) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.22753913509676668</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080045</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>12.311872629506134</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>16.236213467207087</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>10.563010248592166</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>13.037032115101795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5333,11 +6095,31 @@
         <v>0.17628096565323001</v>
       </c>
       <c r="E40">
-        <f>SUM(B40:D40) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.287240167044716</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080049</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>18.322629839851043</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>20.950162654613205</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>10.100155340420704</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>16.457649278294983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5351,11 +6133,31 @@
         <v>0.109796555689871</v>
       </c>
       <c r="E41">
-        <f>SUM(B41:D41) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.21461922158426769</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080053</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>14.788621219240047</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>15.810826332141918</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>6.2908792461027128</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>12.29677559916156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5369,11 +6171,31 @@
         <v>0.127361747547523</v>
       </c>
       <c r="E42">
-        <f>SUM(B42:D42) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.14169403620909332</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080055</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>6.9648013350397298</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>10.093318829941282</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>7.297290605883731</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>8.1184702569549145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5387,11 +6209,31 @@
         <v>0.47980279009076598</v>
       </c>
       <c r="E43">
-        <f>SUM(B43:D43) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.38460423212076461</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080056</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>28.909404965031968</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>9.708518014334782</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>27.490674870802248</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>22.036199283389664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5405,11 +6247,31 @@
         <v>9.8985878863429605E-2</v>
       </c>
       <c r="E44">
-        <f>SUM(B44:D44) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.15034875055397087</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080057</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>9.4831370361798495</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>10.688436458975596</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>5.6714730902677388</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>8.6143488618077289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5423,11 +6285,31 @@
         <v>0.24356413354249201</v>
       </c>
       <c r="E45">
-        <f>SUM(B45:D45) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.20166184802565223</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080074</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>5.6470764297059937</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>15.060845019583907</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>13.95519689274556</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>11.554372780678486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5441,11 +6323,31 @@
         <v>6.8330619833880904E-2</v>
       </c>
       <c r="E46">
-        <f>SUM(B46:D46) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.1009850362647763</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080077</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>6.1506356242919242</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>7.2923573635555217</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>3.9150561279942901</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>5.7860163719472455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5459,11 +6361,31 @@
         <v>2.0721057928858901E-2</v>
       </c>
       <c r="E47">
-        <f>SUM(B47:D47) / 3</f>
+        <f t="shared" si="7"/>
         <v>2.3098798451200234E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080079</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>1.3709158548946578</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>1.4122459679669244</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>1.1872291663697059</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>1.323463663077096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5477,11 +6399,31 @@
         <v>0.60164343165351997</v>
       </c>
       <c r="E48">
-        <f>SUM(B48:D48) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.42184690141690934</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080084</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>34.469049994020985</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>3.5694617560453636</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>34.471629405514292</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>24.170047051860212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5495,11 +6437,31 @@
         <v>5.9233054651864403E-2</v>
       </c>
       <c r="E49">
-        <f>SUM(B49:D49) / 3</f>
+        <f t="shared" si="7"/>
         <v>5.118004221255313E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080091</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>2.1023230617739519</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>3.3010741412485411</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>3.3938040392195781</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>2.9324004140806901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -5513,11 +6475,31 @@
         <v>0.151039451347665</v>
       </c>
       <c r="E50">
-        <f>SUM(B50:D50) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.12424668043464214</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080093</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>3.409917950488849</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>9.2925901695653774</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>8.6539231021927385</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>7.1188104074156557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5531,11 +6513,31 @@
         <v>9.30709997573963E-2</v>
       </c>
       <c r="E51">
-        <f>SUM(B51:D51) / 3</f>
+        <f t="shared" si="7"/>
         <v>8.1687252774516467E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080096</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>2.7209123321960678</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>5.9875166586363679</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>5.3325754811619168</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>4.680334823998118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5549,11 +6551,31 @@
         <v>0.188616467666125</v>
       </c>
       <c r="E52">
-        <f>SUM(B52:D52) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.1948346446153347</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080100</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>8.7606114000460096</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>13.922069574189171</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>10.806927543934719</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>11.163202839389969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5567,11 +6589,31 @@
         <v>0.225068956141243</v>
       </c>
       <c r="E53">
-        <f>SUM(B53:D53) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.25838113497341236</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080104</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>13.108524036032962</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>18.408420296988574</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>12.895501286308255</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>14.804148539776598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5585,11 +6627,31 @@
         <v>0.26439120745510603</v>
       </c>
       <c r="E54">
-        <f>SUM(B54:D54) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.22677832122436037</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080106</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>7.0994847008765758</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>16.732337045231784</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>15.148500327545362</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>12.993440691217909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5603,11 +6665,31 @@
         <v>0.33475798981312199</v>
       </c>
       <c r="E55">
-        <f>SUM(B55:D55) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.30310437348526936</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080111</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>18.409141954803317</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>14.510442128610231</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>19.180219974575294</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>17.366601352662951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5621,11 +6703,31 @@
         <v>0.170015739317874</v>
       </c>
       <c r="E56">
-        <f>SUM(B56:D56) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.23560484611874699</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080113</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>13.917973490330478</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>16.838332142259183</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>9.7411843137105905</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>13.499163315433417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5639,11 +6741,31 @@
         <v>0.104229179761008</v>
       </c>
       <c r="E57">
-        <f>SUM(B57:D57) / 3</f>
+        <f t="shared" si="7"/>
         <v>8.7018468693985995E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080116</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>2.6498226538037337</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>6.3356582313501644</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>5.9718921024161364</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>4.9857909958566786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5657,11 +6779,31 @@
         <v>0.209546718062712</v>
       </c>
       <c r="E58">
-        <f>SUM(B58:D58) / 3</f>
+        <f t="shared" si="7"/>
         <v>0.24872407612593564</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080119</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>13.25153215504506</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>17.49484476506391</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>12.006142555811172</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>14.250839825306711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5675,11 +6817,11 @@
         <v>0.20904118039782099</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E3:E60" si="0">SUM(B59:D59) / 3</f>
+        <f t="shared" ref="E59:E60" si="8">SUM(B59:D59) / 3</f>
         <v>0.21038943202655067</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5693,7 +6835,7 @@
         <v>2.3780948141120899E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2.2688606047169237E-2</v>
       </c>
     </row>
@@ -5741,7 +6883,7 @@
         <v>6.8800076479676999E-3</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2) / 3</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(B2:D2) / 3</f>
         <v>1.5649957830934199E-2</v>
       </c>
     </row>
@@ -5759,7 +6901,7 @@
         <v>2.0721057928858901E-2</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3) / 3</f>
+        <f t="shared" si="0"/>
         <v>2.3098798451200234E-2</v>
       </c>
     </row>
@@ -5777,7 +6919,7 @@
         <v>5.9233054651864403E-2</v>
       </c>
       <c r="E4">
-        <f>SUM(B4:D4) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.118004221255313E-2</v>
       </c>
     </row>
@@ -5795,7 +6937,7 @@
         <v>7.19410610097099E-2</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5472580284168599E-2</v>
       </c>
     </row>
@@ -5813,7 +6955,7 @@
         <v>7.0493720169324106E-2</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5784911101886936E-2</v>
       </c>
     </row>
@@ -5831,7 +6973,7 @@
         <v>7.8877329818613007E-2</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.8657831699778375E-2</v>
       </c>
     </row>
@@ -5849,7 +6991,7 @@
         <v>3.9390816672038698E-2</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.6642050410241793E-2</v>
       </c>
     </row>
@@ -5867,7 +7009,7 @@
         <v>8.8365524456744005E-2</v>
       </c>
       <c r="E9">
-        <f>SUM(B9:D9) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.7231520911704243E-2</v>
       </c>
     </row>
@@ -5885,7 +7027,7 @@
         <v>1.44371923784062E-2</v>
       </c>
       <c r="E10">
-        <f>SUM(B10:D10) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.858669398275144E-2</v>
       </c>
     </row>
@@ -5903,7 +7045,7 @@
         <v>8.8969693113070999E-2</v>
       </c>
       <c r="E11">
-        <f>SUM(B11:D11) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.4360042655975275E-2</v>
       </c>
     </row>
@@ -5921,7 +7063,7 @@
         <v>9.4333494032757495E-2</v>
       </c>
       <c r="E12">
-        <f>SUM(B12:D12) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.5625076167947544E-2</v>
       </c>
     </row>
@@ -5939,7 +7081,7 @@
         <v>8.2641929238977202E-2</v>
       </c>
       <c r="E13">
-        <f>SUM(B13:D13) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.005300735213923E-2</v>
       </c>
     </row>
@@ -5957,7 +7099,7 @@
         <v>9.30709997573963E-2</v>
       </c>
       <c r="E14">
-        <f>SUM(B14:D14) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.1687252774516467E-2</v>
       </c>
     </row>
@@ -5975,7 +7117,7 @@
         <v>0.104229179761008</v>
       </c>
       <c r="E15">
-        <f>SUM(B15:D15) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.7018468693985995E-2</v>
       </c>
     </row>
@@ -5993,7 +7135,7 @@
         <v>6.8768314811834597E-2</v>
       </c>
       <c r="E16">
-        <f>SUM(B16:D16) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.8792842533116909E-2</v>
       </c>
     </row>
@@ -6011,7 +7153,7 @@
         <v>3.7996491509359097E-2</v>
       </c>
       <c r="E17">
-        <f>SUM(B17:D17) / 3</f>
+        <f t="shared" si="0"/>
         <v>9.4052526673579037E-2</v>
       </c>
     </row>
@@ -6029,7 +7171,7 @@
         <v>6.8330619833880904E-2</v>
       </c>
       <c r="E18">
-        <f>SUM(B18:D18) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.1009850362647763</v>
       </c>
     </row>
@@ -6047,7 +7189,7 @@
         <v>0.151039451347665</v>
       </c>
       <c r="E19">
-        <f>SUM(B19:D19) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12424668043464214</v>
       </c>
     </row>
@@ -6065,7 +7207,7 @@
         <v>0.13999091983613099</v>
       </c>
       <c r="E20">
-        <f>SUM(B20:D20) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12469716550162617</v>
       </c>
     </row>
@@ -6083,7 +7225,7 @@
         <v>0.15608016346148901</v>
       </c>
       <c r="E21">
-        <f>SUM(B21:D21) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12471621400925714</v>
       </c>
     </row>
@@ -6101,7 +7243,7 @@
         <v>0.111345291278063</v>
       </c>
       <c r="E22">
-        <f>SUM(B22:D22) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.140548860989816</v>
       </c>
     </row>
@@ -6119,7 +7261,7 @@
         <v>0.13595621083047099</v>
       </c>
       <c r="E23">
-        <f>SUM(B23:D23) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.141374387468227</v>
       </c>
     </row>
@@ -6137,7 +7279,7 @@
         <v>0.127361747547523</v>
       </c>
       <c r="E24">
-        <f>SUM(B24:D24) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.14169403620909332</v>
       </c>
     </row>
@@ -6155,7 +7297,7 @@
         <v>0.18549753299198199</v>
       </c>
       <c r="E25">
-        <f>SUM(B25:D25) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.14938450171432718</v>
       </c>
     </row>
@@ -6173,7 +7315,7 @@
         <v>9.8985878863429605E-2</v>
       </c>
       <c r="E26">
-        <f>SUM(B26:D26) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.15034875055397087</v>
       </c>
     </row>
@@ -6191,7 +7333,7 @@
         <v>0.18893162605986799</v>
       </c>
       <c r="E27">
-        <f>SUM(B27:D27) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.16163880940759578</v>
       </c>
     </row>
@@ -6209,7 +7351,7 @@
         <v>0.19455494375698401</v>
       </c>
       <c r="E28">
-        <f>SUM(B28:D28) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.16840246294835096</v>
       </c>
     </row>
@@ -6227,7 +7369,7 @@
         <v>0.188616467666125</v>
       </c>
       <c r="E29">
-        <f>SUM(B29:D29) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.1948346446153347</v>
       </c>
     </row>
@@ -6245,7 +7387,7 @@
         <v>0.24356413354249201</v>
       </c>
       <c r="E30">
-        <f>SUM(B30:D30) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.20166184802565223</v>
       </c>
     </row>
@@ -6263,7 +7405,7 @@
         <v>3.4580700295362102E-2</v>
       </c>
       <c r="E31">
-        <f>SUM(B31:D31) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.20583605584238837</v>
       </c>
     </row>
@@ -6281,7 +7423,7 @@
         <v>0.20756249457879999</v>
       </c>
       <c r="E32">
-        <f>SUM(B32:D32) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.21437752886804798</v>
       </c>
     </row>
@@ -6299,7 +7441,7 @@
         <v>0.109796555689871</v>
       </c>
       <c r="E33">
-        <f>SUM(B33:D33) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.21461922158426769</v>
       </c>
     </row>
@@ -6317,7 +7459,7 @@
         <v>0.29191796211861498</v>
       </c>
       <c r="E34">
-        <f>SUM(B34:D34) / 3</f>
+        <f t="shared" ref="E34:E65" si="1">SUM(B34:D34) / 3</f>
         <v>0.22371067238134654</v>
       </c>
     </row>
@@ -6335,7 +7477,7 @@
         <v>0.20035461640205399</v>
       </c>
       <c r="E35">
-        <f>SUM(B35:D35) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.22419653804336834</v>
       </c>
     </row>
@@ -6353,7 +7495,7 @@
         <v>0.26439120745510603</v>
       </c>
       <c r="E36">
-        <f>SUM(B36:D36) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.22677832122436037</v>
       </c>
     </row>
@@ -6371,7 +7513,7 @@
         <v>0.147846183179939</v>
       </c>
       <c r="E37">
-        <f>SUM(B37:D37) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.22748971551606167</v>
       </c>
     </row>
@@ -6389,7 +7531,7 @@
         <v>0.184359307759838</v>
       </c>
       <c r="E38">
-        <f>SUM(B38:D38) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.22753913509676668</v>
       </c>
     </row>
@@ -6407,7 +7549,7 @@
         <v>0.170015739317874</v>
       </c>
       <c r="E39">
-        <f>SUM(B39:D39) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.23560484611874699</v>
       </c>
     </row>
@@ -6425,7 +7567,7 @@
         <v>0.209546718062712</v>
       </c>
       <c r="E40">
-        <f>SUM(B40:D40) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.24872407612593564</v>
       </c>
     </row>
@@ -6443,7 +7585,7 @@
         <v>0.22329857609460799</v>
       </c>
       <c r="E41">
-        <f>SUM(B41:D41) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.25004111079645636</v>
       </c>
     </row>
@@ -6461,7 +7603,7 @@
         <v>0.27034538822387</v>
       </c>
       <c r="E42">
-        <f>SUM(B42:D42) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.25134831086352266</v>
       </c>
     </row>
@@ -6479,7 +7621,7 @@
         <v>0.108127159858925</v>
       </c>
       <c r="E43">
-        <f>SUM(B43:D43) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.25448754378661298</v>
       </c>
     </row>
@@ -6497,7 +7639,7 @@
         <v>0.225068956141243</v>
       </c>
       <c r="E44">
-        <f>SUM(B44:D44) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.25838113497341236</v>
       </c>
     </row>
@@ -6515,7 +7657,7 @@
         <v>0.33582661427002503</v>
       </c>
       <c r="E45">
-        <f>SUM(B45:D45) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.26194183539597832</v>
       </c>
     </row>
@@ -6533,7 +7675,7 @@
         <v>0.233515143905453</v>
       </c>
       <c r="E46">
-        <f>SUM(B46:D46) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.27890976485962032</v>
       </c>
     </row>
@@ -6551,7 +7693,7 @@
         <v>0.17628096565323001</v>
       </c>
       <c r="E47">
-        <f>SUM(B47:D47) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.287240167044716</v>
       </c>
     </row>
@@ -6569,7 +7711,7 @@
         <v>0.33475798981312199</v>
       </c>
       <c r="E48">
-        <f>SUM(B48:D48) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.30310437348526936</v>
       </c>
     </row>
@@ -6587,7 +7729,7 @@
         <v>0.205591313462125</v>
       </c>
       <c r="E49">
-        <f>SUM(B49:D49) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.31773206167763401</v>
       </c>
     </row>
@@ -6605,7 +7747,7 @@
         <v>0.395353600443624</v>
       </c>
       <c r="E50">
-        <f>SUM(B50:D50) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.35320601848775662</v>
       </c>
     </row>
@@ -6623,7 +7765,7 @@
         <v>0.37815204027779797</v>
       </c>
       <c r="E51">
-        <f>SUM(B51:D51) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.37338611714417597</v>
       </c>
     </row>
@@ -6641,7 +7783,7 @@
         <v>0.47980279009076598</v>
       </c>
       <c r="E52">
-        <f>SUM(B52:D52) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.38460423212076461</v>
       </c>
     </row>
@@ -6659,7 +7801,7 @@
         <v>0.60164343165351997</v>
       </c>
       <c r="E53">
-        <f>SUM(B53:D53) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.42184690141690934</v>
       </c>
     </row>
@@ -6677,7 +7819,7 @@
         <v>0.60068362841715806</v>
       </c>
       <c r="E54">
-        <f>SUM(B54:D54) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.47212310662621232</v>
       </c>
     </row>
@@ -6695,7 +7837,7 @@
         <v>0.56293994201440001</v>
       </c>
       <c r="E55">
-        <f>SUM(B55:D55) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.49269192540941004</v>
       </c>
     </row>
@@ -6713,7 +7855,7 @@
         <v>0.72934353653198802</v>
       </c>
       <c r="E56">
-        <f>SUM(B56:D56) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.50553259735944567</v>
       </c>
     </row>
@@ -6731,7 +7873,7 @@
         <v>0.81892301523560396</v>
       </c>
       <c r="E57">
-        <f>SUM(B57:D57) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.64706139647491467</v>
       </c>
     </row>
@@ -6749,7 +7891,7 @@
         <v>0.40471685175412803</v>
       </c>
       <c r="E58">
-        <f>SUM(B58:D58) / 3</f>
+        <f t="shared" si="1"/>
         <v>0.66125591491014035</v>
       </c>
     </row>
@@ -6819,11 +7961,11 @@
         <v>6.8800076479676999E-3</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2) / 3</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(B2:D2) / 3</f>
         <v>1.5649957830934199E-2</v>
       </c>
       <c r="F2">
-        <f>Q$1 +Q$3 * $L2</f>
+        <f t="shared" ref="F2:F9" si="1">Q$1 +Q$3 * $L2</f>
         <v>6.8800076479676999E-3</v>
       </c>
       <c r="G2">
@@ -6864,11 +8006,11 @@
         <v>2.0721057928858901E-2</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3) / 3</f>
+        <f t="shared" si="0"/>
         <v>2.3098798451200234E-2</v>
       </c>
       <c r="F3">
-        <f>Q$1 +Q$3 * $L3</f>
+        <f t="shared" si="1"/>
         <v>0.12288615158905859</v>
       </c>
       <c r="G3">
@@ -6905,11 +8047,11 @@
         <v>5.9233054651864403E-2</v>
       </c>
       <c r="E4">
-        <f>SUM(B4:D4) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.118004221255313E-2</v>
       </c>
       <c r="F4">
-        <f>Q$1 +Q$3 * $L4</f>
+        <f t="shared" si="1"/>
         <v>0.23889229553014948</v>
       </c>
       <c r="G4">
@@ -6942,11 +8084,11 @@
         <v>7.19410610097099E-2</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5472580284168599E-2</v>
       </c>
       <c r="F5">
-        <f>Q$1 +Q$3 * $L5</f>
+        <f t="shared" si="1"/>
         <v>0.35489843947124039</v>
       </c>
       <c r="G5">
@@ -6979,11 +8121,11 @@
         <v>7.0493720169324106E-2</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.5784911101886936E-2</v>
       </c>
       <c r="F6">
-        <f>Q$1 +Q$3 * $L6</f>
+        <f t="shared" si="1"/>
         <v>0.47090458341233127</v>
       </c>
       <c r="G6">
@@ -7016,11 +8158,11 @@
         <v>7.8877329818613007E-2</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7) / 3</f>
+        <f t="shared" si="0"/>
         <v>5.8657831699778375E-2</v>
       </c>
       <c r="F7">
-        <f>Q$1 +Q$3 * $L7</f>
+        <f t="shared" si="1"/>
         <v>0.5869107273534222</v>
       </c>
       <c r="G7">
@@ -7053,11 +8195,11 @@
         <v>3.9390816672038698E-2</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.6642050410241793E-2</v>
       </c>
       <c r="F8">
-        <f>Q$1 +Q$3 * $L8</f>
+        <f t="shared" si="1"/>
         <v>0.70291687129451308</v>
       </c>
       <c r="G8">
@@ -7090,11 +8232,11 @@
         <v>8.8365524456744005E-2</v>
       </c>
       <c r="E9">
-        <f>SUM(B9:D9) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.7231520911704243E-2</v>
       </c>
       <c r="F9">
-        <f>Q$1 +Q$3 * $L9</f>
+        <f t="shared" si="1"/>
         <v>0.81892301523560396</v>
       </c>
       <c r="G9">
@@ -7127,7 +8269,7 @@
         <v>1.44371923784062E-2</v>
       </c>
       <c r="E10">
-        <f>SUM(B10:D10) / 3</f>
+        <f t="shared" si="0"/>
         <v>6.858669398275144E-2</v>
       </c>
       <c r="G10">
@@ -7157,7 +8299,7 @@
         <v>8.8969693113070999E-2</v>
       </c>
       <c r="E11">
-        <f>SUM(B11:D11) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.4360042655975275E-2</v>
       </c>
     </row>
@@ -7175,7 +8317,7 @@
         <v>9.4333494032757495E-2</v>
       </c>
       <c r="E12">
-        <f>SUM(B12:D12) / 3</f>
+        <f t="shared" si="0"/>
         <v>7.5625076167947544E-2</v>
       </c>
     </row>
@@ -7193,7 +8335,7 @@
         <v>8.2641929238977202E-2</v>
       </c>
       <c r="E13">
-        <f>SUM(B13:D13) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.005300735213923E-2</v>
       </c>
     </row>
@@ -7211,7 +8353,7 @@
         <v>9.30709997573963E-2</v>
       </c>
       <c r="E14">
-        <f>SUM(B14:D14) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.1687252774516467E-2</v>
       </c>
     </row>
@@ -7229,7 +8371,7 @@
         <v>0.104229179761008</v>
       </c>
       <c r="E15">
-        <f>SUM(B15:D15) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.7018468693985995E-2</v>
       </c>
     </row>
@@ -7247,7 +8389,7 @@
         <v>6.8768314811834597E-2</v>
       </c>
       <c r="E16">
-        <f>SUM(B16:D16) / 3</f>
+        <f t="shared" si="0"/>
         <v>8.8792842533116909E-2</v>
       </c>
     </row>
@@ -7265,7 +8407,7 @@
         <v>3.7996491509359097E-2</v>
       </c>
       <c r="E17">
-        <f>SUM(B17:D17) / 3</f>
+        <f t="shared" si="0"/>
         <v>9.4052526673579037E-2</v>
       </c>
     </row>
@@ -7283,7 +8425,7 @@
         <v>6.8330619833880904E-2</v>
       </c>
       <c r="E18">
-        <f>SUM(B18:D18) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.1009850362647763</v>
       </c>
     </row>
@@ -7301,7 +8443,7 @@
         <v>0.151039451347665</v>
       </c>
       <c r="E19">
-        <f>SUM(B19:D19) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12424668043464214</v>
       </c>
     </row>
@@ -7319,7 +8461,7 @@
         <v>0.13999091983613099</v>
       </c>
       <c r="E20">
-        <f>SUM(B20:D20) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12469716550162617</v>
       </c>
     </row>
@@ -7337,7 +8479,7 @@
         <v>0.15608016346148901</v>
       </c>
       <c r="E21">
-        <f>SUM(B21:D21) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.12471621400925714</v>
       </c>
     </row>
@@ -7355,7 +8497,7 @@
         <v>0.111345291278063</v>
       </c>
       <c r="E22">
-        <f>SUM(B22:D22) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.140548860989816</v>
       </c>
     </row>
@@ -7373,7 +8515,7 @@
         <v>0.13595621083047099</v>
       </c>
       <c r="E23">
-        <f>SUM(B23:D23) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.141374387468227</v>
       </c>
     </row>
@@ -7391,7 +8533,7 @@
         <v>0.127361747547523</v>
       </c>
       <c r="E24">
-        <f>SUM(B24:D24) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.14169403620909332</v>
       </c>
     </row>
@@ -7409,7 +8551,7 @@
         <v>0.18549753299198199</v>
       </c>
       <c r="E25">
-        <f>SUM(B25:D25) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.14938450171432718</v>
       </c>
     </row>
@@ -7427,7 +8569,7 @@
         <v>9.8985878863429605E-2</v>
       </c>
       <c r="E26">
-        <f>SUM(B26:D26) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.15034875055397087</v>
       </c>
     </row>
@@ -7445,7 +8587,7 @@
         <v>0.18893162605986799</v>
       </c>
       <c r="E27">
-        <f>SUM(B27:D27) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.16163880940759578</v>
       </c>
     </row>
@@ -7463,7 +8605,7 @@
         <v>0.19455494375698401</v>
       </c>
       <c r="E28">
-        <f>SUM(B28:D28) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.16840246294835096</v>
       </c>
     </row>
@@ -7481,7 +8623,7 @@
         <v>0.188616467666125</v>
       </c>
       <c r="E29">
-        <f>SUM(B29:D29) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.1948346446153347</v>
       </c>
     </row>
@@ -7499,7 +8641,7 @@
         <v>0.24356413354249201</v>
       </c>
       <c r="E30">
-        <f>SUM(B30:D30) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.20166184802565223</v>
       </c>
     </row>
@@ -7517,7 +8659,7 @@
         <v>3.4580700295362102E-2</v>
       </c>
       <c r="E31">
-        <f>SUM(B31:D31) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.20583605584238837</v>
       </c>
     </row>
@@ -7535,7 +8677,7 @@
         <v>0.20756249457879999</v>
       </c>
       <c r="E32">
-        <f>SUM(B32:D32) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.21437752886804798</v>
       </c>
     </row>
@@ -7553,7 +8695,7 @@
         <v>0.109796555689871</v>
       </c>
       <c r="E33">
-        <f>SUM(B33:D33) / 3</f>
+        <f t="shared" si="0"/>
         <v>0.21461922158426769</v>
       </c>
     </row>
@@ -7571,7 +8713,7 @@
         <v>0.29191796211861498</v>
       </c>
       <c r="E34">
-        <f>SUM(B34:D34) / 3</f>
+        <f t="shared" ref="E34:E65" si="2">SUM(B34:D34) / 3</f>
         <v>0.22371067238134654</v>
       </c>
     </row>
@@ -7589,7 +8731,7 @@
         <v>0.20035461640205399</v>
       </c>
       <c r="E35">
-        <f>SUM(B35:D35) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.22419653804336834</v>
       </c>
     </row>
@@ -7607,7 +8749,7 @@
         <v>0.26439120745510603</v>
       </c>
       <c r="E36">
-        <f>SUM(B36:D36) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.22677832122436037</v>
       </c>
     </row>
@@ -7625,7 +8767,7 @@
         <v>0.147846183179939</v>
       </c>
       <c r="E37">
-        <f>SUM(B37:D37) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.22748971551606167</v>
       </c>
     </row>
@@ -7643,7 +8785,7 @@
         <v>0.184359307759838</v>
       </c>
       <c r="E38">
-        <f>SUM(B38:D38) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.22753913509676668</v>
       </c>
     </row>
@@ -7661,7 +8803,7 @@
         <v>0.170015739317874</v>
       </c>
       <c r="E39">
-        <f>SUM(B39:D39) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.23560484611874699</v>
       </c>
     </row>
@@ -7679,7 +8821,7 @@
         <v>0.209546718062712</v>
       </c>
       <c r="E40">
-        <f>SUM(B40:D40) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.24872407612593564</v>
       </c>
     </row>
@@ -7697,7 +8839,7 @@
         <v>0.22329857609460799</v>
       </c>
       <c r="E41">
-        <f>SUM(B41:D41) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.25004111079645636</v>
       </c>
     </row>
@@ -7715,7 +8857,7 @@
         <v>0.27034538822387</v>
       </c>
       <c r="E42">
-        <f>SUM(B42:D42) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.25134831086352266</v>
       </c>
     </row>
@@ -7733,7 +8875,7 @@
         <v>0.108127159858925</v>
       </c>
       <c r="E43">
-        <f>SUM(B43:D43) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.25448754378661298</v>
       </c>
     </row>
@@ -7751,7 +8893,7 @@
         <v>0.225068956141243</v>
       </c>
       <c r="E44">
-        <f>SUM(B44:D44) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.25838113497341236</v>
       </c>
     </row>
@@ -7769,7 +8911,7 @@
         <v>0.33582661427002503</v>
       </c>
       <c r="E45">
-        <f>SUM(B45:D45) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.26194183539597832</v>
       </c>
     </row>
@@ -7787,7 +8929,7 @@
         <v>0.233515143905453</v>
       </c>
       <c r="E46">
-        <f>SUM(B46:D46) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.27890976485962032</v>
       </c>
     </row>
@@ -7805,7 +8947,7 @@
         <v>0.17628096565323001</v>
       </c>
       <c r="E47">
-        <f>SUM(B47:D47) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.287240167044716</v>
       </c>
     </row>
@@ -7823,7 +8965,7 @@
         <v>0.33475798981312199</v>
       </c>
       <c r="E48">
-        <f>SUM(B48:D48) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.30310437348526936</v>
       </c>
     </row>
@@ -7841,7 +8983,7 @@
         <v>0.205591313462125</v>
       </c>
       <c r="E49">
-        <f>SUM(B49:D49) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.31773206167763401</v>
       </c>
     </row>
@@ -7859,7 +9001,7 @@
         <v>0.395353600443624</v>
       </c>
       <c r="E50">
-        <f>SUM(B50:D50) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.35320601848775662</v>
       </c>
     </row>
@@ -7877,7 +9019,7 @@
         <v>0.37815204027779797</v>
       </c>
       <c r="E51">
-        <f>SUM(B51:D51) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.37338611714417597</v>
       </c>
     </row>
@@ -7895,7 +9037,7 @@
         <v>0.47980279009076598</v>
       </c>
       <c r="E52">
-        <f>SUM(B52:D52) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.38460423212076461</v>
       </c>
     </row>
@@ -7913,7 +9055,7 @@
         <v>0.60164343165351997</v>
       </c>
       <c r="E53">
-        <f>SUM(B53:D53) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.42184690141690934</v>
       </c>
     </row>
@@ -7931,7 +9073,7 @@
         <v>0.60068362841715806</v>
       </c>
       <c r="E54">
-        <f>SUM(B54:D54) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.47212310662621232</v>
       </c>
     </row>
@@ -7949,7 +9091,7 @@
         <v>0.56293994201440001</v>
       </c>
       <c r="E55">
-        <f>SUM(B55:D55) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.49269192540941004</v>
       </c>
     </row>
@@ -7967,7 +9109,7 @@
         <v>0.72934353653198802</v>
       </c>
       <c r="E56">
-        <f>SUM(B56:D56) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.50553259735944567</v>
       </c>
     </row>
@@ -7985,7 +9127,7 @@
         <v>0.81892301523560396</v>
       </c>
       <c r="E57">
-        <f>SUM(B57:D57) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.64706139647491467</v>
       </c>
     </row>
@@ -8003,7 +9145,7 @@
         <v>0.40471685175412803</v>
       </c>
       <c r="E58">
-        <f>SUM(B58:D58) / 3</f>
+        <f t="shared" si="2"/>
         <v>0.66125591491014035</v>
       </c>
     </row>
@@ -8021,8 +9163,8 @@
   </sheetPr>
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8063,19 +9205,19 @@
       </c>
       <c r="Q1">
         <f>MIN(B$2:B$58)</f>
-        <v>1.6814148090813202E-2</v>
+        <v>0.96337972171154729</v>
       </c>
       <c r="R1">
         <f t="shared" ref="R1:T1" si="0">MIN(C$2:C$58)</f>
-        <v>2.0504633680462798E-2</v>
+        <v>1.1748289703523183</v>
       </c>
       <c r="S1">
         <f t="shared" si="0"/>
-        <v>6.8800076479676999E-3</v>
+        <v>0.39419540124627744</v>
       </c>
       <c r="T1">
         <f t="shared" si="0"/>
-        <v>1.5649957830934199E-2</v>
+        <v>0.89667653327024199</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -8083,17 +9225,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.9565232164372101E-2</v>
+        <v>1.1210052282121303</v>
       </c>
       <c r="C2">
-        <v>2.0504633680462798E-2</v>
+        <v>1.1748289703523183</v>
       </c>
       <c r="D2">
-        <v>6.8800076479676999E-3</v>
+        <v>0.39419540124627744</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2) / 3</f>
-        <v>1.5649957830934199E-2</v>
+        <v>0.89667653327024199</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -8128,35 +9269,35 @@
       </c>
       <c r="Q2">
         <f>MAX(B$2:B$58)</f>
-        <v>0.80399353499798298</v>
+        <v>46.065436311188066</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:T2" si="1">MAX(C$2:C$58)</f>
-        <v>0.77505735797830999</v>
+        <v>44.407515492717366</v>
       </c>
       <c r="S2">
         <f t="shared" si="1"/>
-        <v>0.81892301523560396</v>
+        <v>46.920832519127721</v>
       </c>
       <c r="T2">
         <f t="shared" si="1"/>
-        <v>0.66125591491014035</v>
+        <v>37.88717310241293</v>
       </c>
       <c r="V2">
-        <f>Q$1 +Q$3 * $F2</f>
-        <v>1.6814148090813202E-2</v>
+        <f t="shared" ref="V2:Y9" si="2">Q$1 +Q$3 * $F2</f>
+        <v>0.96337972171154729</v>
       </c>
       <c r="W2">
-        <f>R$1 +R$3 * $F2</f>
-        <v>2.0504633680462798E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1748289703523183</v>
       </c>
       <c r="X2">
-        <f>S$1 +S$3 * $F2</f>
-        <v>6.8800076479676999E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.39419540124627744</v>
       </c>
       <c r="Y2">
-        <f>T$1 +T$3 * $F2</f>
-        <v>1.5649957830934199E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.89667653327024199</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -8164,17 +9305,16 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>2.39269954357046E-2</v>
+        <v>1.3709158548946578</v>
       </c>
       <c r="C3">
-        <v>2.46483419890372E-2</v>
+        <v>1.4122459679669244</v>
       </c>
       <c r="D3">
-        <v>2.0721057928858901E-2</v>
+        <v>1.1872291663697059</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3) / 3</f>
-        <v>2.3098798451200234E-2</v>
+        <v>1.323463663077096</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -8202,35 +9342,35 @@
       </c>
       <c r="Q3">
         <f>(Q2 - Q1) /$P$1</f>
-        <v>0.11245419812959569</v>
+        <v>6.443150941353788</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:T3" si="2">(R2 - R1) /$P$1</f>
-        <v>0.10779324632826388</v>
+        <f t="shared" ref="R3:T3" si="3">(R2 - R1) /$P$1</f>
+        <v>6.176098074623579</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
-        <v>0.11600614394109089</v>
+        <f t="shared" si="3"/>
+        <v>6.6466624454116348</v>
       </c>
       <c r="T3">
-        <f t="shared" si="2"/>
-        <v>9.2229422439886605E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2843566527346697</v>
       </c>
       <c r="V3">
-        <f>Q$1 +Q$3 * $F3</f>
-        <v>0.12926834622040889</v>
+        <f t="shared" si="2"/>
+        <v>7.4065306630653351</v>
       </c>
       <c r="W3">
-        <f>R$1 +R$3 * $F3</f>
-        <v>0.12829788000872669</v>
+        <f t="shared" si="2"/>
+        <v>7.3509270449758972</v>
       </c>
       <c r="X3">
-        <f>S$1 +S$3 * $F3</f>
-        <v>0.12288615158905859</v>
+        <f t="shared" si="2"/>
+        <v>7.0408578466579126</v>
       </c>
       <c r="Y3">
-        <f>T$1 +T$3 * $F3</f>
-        <v>0.10787938027082081</v>
+        <f t="shared" si="2"/>
+        <v>6.1810331860049121</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -8238,17 +9378,16 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>3.66924593685636E-2</v>
+        <v>2.1023230617739519</v>
       </c>
       <c r="C4">
-        <v>5.76146126172314E-2</v>
+        <v>3.3010741412485411</v>
       </c>
       <c r="D4">
-        <v>5.9233054651864403E-2</v>
+        <v>3.3938040392195781</v>
       </c>
       <c r="E4">
-        <f>SUM(B4:D4) / 3</f>
-        <v>5.118004221255313E-2</v>
+        <v>2.9324004140806901</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -8275,20 +9414,20 @@
         <v>21</v>
       </c>
       <c r="V4">
-        <f>Q$1 +Q$3 * $F4</f>
-        <v>0.24172254435000456</v>
+        <f t="shared" si="2"/>
+        <v>13.849681604419123</v>
       </c>
       <c r="W4">
-        <f>R$1 +R$3 * $F4</f>
-        <v>0.23609112633699056</v>
+        <f t="shared" si="2"/>
+        <v>13.527025119599475</v>
       </c>
       <c r="X4">
-        <f>S$1 +S$3 * $F4</f>
-        <v>0.23889229553014948</v>
+        <f t="shared" si="2"/>
+        <v>13.687520292069546</v>
       </c>
       <c r="Y4">
-        <f>T$1 +T$3 * $F4</f>
-        <v>0.20010880271070741</v>
+        <f t="shared" si="2"/>
+        <v>11.465389838739581</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -8296,17 +9435,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.2261768078036599E-2</v>
+        <v>1.2755053553705593</v>
       </c>
       <c r="C5">
-        <v>7.2214911764759304E-2</v>
+        <v>4.1376096620303437</v>
       </c>
       <c r="D5">
-        <v>7.19410610097099E-2</v>
+        <v>4.1219191695495416</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5) / 3</f>
-        <v>5.5472580284168599E-2</v>
+        <v>3.1783447289834816</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -8333,20 +9471,20 @@
         <v>11</v>
       </c>
       <c r="V5">
-        <f>Q$1 +Q$3 * $F5</f>
-        <v>0.35417674247960029</v>
+        <f t="shared" si="2"/>
+        <v>20.29283254577291</v>
       </c>
       <c r="W5">
-        <f>R$1 +R$3 * $F5</f>
-        <v>0.34388437266525446</v>
+        <f t="shared" si="2"/>
+        <v>19.703123194223057</v>
       </c>
       <c r="X5">
-        <f>S$1 +S$3 * $F5</f>
-        <v>0.35489843947124039</v>
+        <f t="shared" si="2"/>
+        <v>20.334182737481182</v>
       </c>
       <c r="Y5">
-        <f>T$1 +T$3 * $F5</f>
-        <v>0.29233822515059399</v>
+        <f t="shared" si="2"/>
+        <v>16.749746491474252</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -8354,17 +9492,16 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>3.0082006759730998E-2</v>
+        <v>1.7235720266165993</v>
       </c>
       <c r="C6">
-        <v>6.6779006376605707E-2</v>
+        <v>3.826155225456719</v>
       </c>
       <c r="D6">
-        <v>7.0493720169324106E-2</v>
+        <v>4.0389926478785183</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6) / 3</f>
-        <v>5.5784911101886936E-2</v>
+        <v>3.1962399666506123</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -8391,20 +9528,20 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <f>Q$1 +Q$3 * $F6</f>
-        <v>0.46663094060919597</v>
+        <f t="shared" si="2"/>
+        <v>26.735983487126699</v>
       </c>
       <c r="W6">
-        <f>R$1 +R$3 * $F6</f>
-        <v>0.45167761899351833</v>
+        <f t="shared" si="2"/>
+        <v>25.879221268846635</v>
       </c>
       <c r="X6">
-        <f>S$1 +S$3 * $F6</f>
-        <v>0.47090458341233127</v>
+        <f t="shared" si="2"/>
+        <v>26.980845182892818</v>
       </c>
       <c r="Y6">
-        <f>T$1 +T$3 * $F6</f>
-        <v>0.38456764759048062</v>
+        <f t="shared" si="2"/>
+        <v>22.03410314420892</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -8412,17 +9549,16 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.6814148090813202E-2</v>
+        <v>0.96337972171154729</v>
       </c>
       <c r="C7">
-        <v>8.0282017189908905E-2</v>
+        <v>4.5998207557785058</v>
       </c>
       <c r="D7">
-        <v>7.8877329818613007E-2</v>
+        <v>4.5193380978679247</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7) / 3</f>
-        <v>5.8657831699778375E-2</v>
+        <v>3.3608461917859929</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8449,20 +9585,20 @@
         <v>3</v>
       </c>
       <c r="V7">
-        <f>Q$1 +Q$3 * $F7</f>
-        <v>0.57908513873879164</v>
+        <f t="shared" si="2"/>
+        <v>33.179134428480488</v>
       </c>
       <c r="W7">
-        <f>R$1 +R$3 * $F7</f>
-        <v>0.55947086532178225</v>
+        <f t="shared" si="2"/>
+        <v>32.05531934347021</v>
       </c>
       <c r="X7">
-        <f>S$1 +S$3 * $F7</f>
-        <v>0.5869107273534222</v>
+        <f t="shared" si="2"/>
+        <v>33.62750762830445</v>
       </c>
       <c r="Y7">
-        <f>T$1 +T$3 * $F7</f>
-        <v>0.47679707003036725</v>
+        <f t="shared" si="2"/>
+        <v>27.318459796943589</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -8470,17 +9606,16 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>7.5683786828808802E-2</v>
+        <v>4.3363615628585528</v>
       </c>
       <c r="C8">
-        <v>8.4851547729877894E-2</v>
+        <v>4.8616355700748644</v>
       </c>
       <c r="D8">
-        <v>3.9390816672038698E-2</v>
+        <v>2.2569275468813763</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8) / 3</f>
-        <v>6.6642050410241793E-2</v>
+        <v>3.8183082266049313</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -8507,20 +9642,20 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <f>Q$1 +Q$3 * $F8</f>
-        <v>0.69153933686838731</v>
+        <f t="shared" si="2"/>
+        <v>39.622285369834273</v>
       </c>
       <c r="W8">
-        <f>R$1 +R$3 * $F8</f>
-        <v>0.66726411165004618</v>
+        <f t="shared" si="2"/>
+        <v>38.231417418093791</v>
       </c>
       <c r="X8">
-        <f>S$1 +S$3 * $F8</f>
-        <v>0.70291687129451308</v>
+        <f t="shared" si="2"/>
+        <v>40.274170073716085</v>
       </c>
       <c r="Y8">
-        <f>T$1 +T$3 * $F8</f>
-        <v>0.56902649247025372</v>
+        <f t="shared" si="2"/>
+        <v>32.602816449678265</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -8528,17 +9663,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>3.0169254574166401E-2</v>
+        <v>1.7285709581554884</v>
       </c>
       <c r="C9">
-        <v>8.3159783704202295E-2</v>
+        <v>4.7647046314715906</v>
       </c>
       <c r="D9">
-        <v>8.8365524456744005E-2</v>
+        <v>5.0629716058314882</v>
       </c>
       <c r="E9">
-        <f>SUM(B9:D9) / 3</f>
-        <v>6.7231520911704243E-2</v>
+        <v>3.8520823984861896</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -8565,20 +9699,20 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <f>Q$1 +Q$3 * $F9</f>
-        <v>0.80399353499798298</v>
+        <f t="shared" si="2"/>
+        <v>46.065436311188066</v>
       </c>
       <c r="W9">
-        <f>R$1 +R$3 * $F9</f>
-        <v>0.77505735797830999</v>
+        <f t="shared" si="2"/>
+        <v>44.407515492717366</v>
       </c>
       <c r="X9">
-        <f>S$1 +S$3 * $F9</f>
-        <v>0.81892301523560396</v>
+        <f t="shared" si="2"/>
+        <v>46.920832519127721</v>
       </c>
       <c r="Y9">
-        <f>T$1 +T$3 * $F9</f>
-        <v>0.66125591491014035</v>
+        <f t="shared" si="2"/>
+        <v>37.88717310241293</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -8586,17 +9720,16 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>9.6167601568129105E-2</v>
+        <v>5.5099976957494752</v>
       </c>
       <c r="C10">
-        <v>9.5155288001719004E-2</v>
+        <v>5.4519964008503399</v>
       </c>
       <c r="D10">
-        <v>1.44371923784062E-2</v>
+        <v>0.82719019130111426</v>
       </c>
       <c r="E10">
-        <f>SUM(B10:D10) / 3</f>
-        <v>6.858669398275144E-2</v>
+        <v>3.9297280959669765</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8625,17 +9758,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.0583456342337003E-2</v>
+        <v>2.3252607664693432</v>
       </c>
       <c r="C11">
-        <v>9.3526978512517803E-2</v>
+        <v>5.3587011393780077</v>
       </c>
       <c r="D11">
-        <v>8.8969693113070999E-2</v>
+        <v>5.0975879199531144</v>
       </c>
       <c r="E11">
-        <f>SUM(B11:D11) / 3</f>
-        <v>7.4360042655975275E-2</v>
+        <v>4.260516608600156</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8643,17 +9775,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3.27457523597929E-2</v>
+        <v>1.8761934071966893</v>
       </c>
       <c r="C12">
-        <v>9.9795982111292203E-2</v>
+        <v>5.7178885873401057</v>
       </c>
       <c r="D12">
-        <v>9.4333494032757495E-2</v>
+        <v>5.4049110747995401</v>
       </c>
       <c r="E12">
-        <f>SUM(B12:D12) / 3</f>
-        <v>7.5625076167947544E-2</v>
+        <v>4.3329976897787787</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -8661,17 +9792,16 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>9.3622797858686796E-2</v>
+        <v>5.3641911835091944</v>
       </c>
       <c r="C13">
-        <v>6.3894294958753706E-2</v>
+        <v>3.6608734361005997</v>
       </c>
       <c r="D13">
-        <v>8.2641929238977202E-2</v>
+        <v>4.7350337562121894</v>
       </c>
       <c r="E13">
-        <f>SUM(B13:D13) / 3</f>
-        <v>8.005300735213923E-2</v>
+        <v>4.5866994586073275</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8679,17 +9809,16 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>4.7488878854939097E-2</v>
+        <v>2.7209123321960678</v>
       </c>
       <c r="C14">
-        <v>0.104501879711214</v>
+        <v>5.9875166586363679</v>
       </c>
       <c r="D14">
-        <v>9.30709997573963E-2</v>
+        <v>5.3325754811619168</v>
       </c>
       <c r="E14">
-        <f>SUM(B14:D14) / 3</f>
-        <v>8.1687252774516467E-2</v>
+        <v>4.680334823998118</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -8697,17 +9826,16 @@
         <v>55</v>
       </c>
       <c r="B15">
-        <v>4.6248129902809E-2</v>
+        <v>2.6498226538037337</v>
       </c>
       <c r="C15">
-        <v>0.11057809641814099</v>
+        <v>6.3356582313501644</v>
       </c>
       <c r="D15">
-        <v>0.104229179761008</v>
+        <v>5.9718921024161364</v>
       </c>
       <c r="E15">
-        <f>SUM(B15:D15) / 3</f>
-        <v>8.7018468693985995E-2</v>
+        <v>4.9857909958566786</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -8715,17 +9843,16 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>8.7191311790792106E-2</v>
+        <v>4.9956941758216393</v>
       </c>
       <c r="C16">
-        <v>0.110418900996724</v>
+        <v>6.3265370055851644</v>
       </c>
       <c r="D16">
-        <v>6.8768314811834597E-2</v>
+        <v>3.9401342029451083</v>
       </c>
       <c r="E16">
-        <f>SUM(B16:D16) / 3</f>
-        <v>8.8792842533116909E-2</v>
+        <v>5.0874551281173046</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8733,17 +9860,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.122706228786875</v>
+        <v>7.0305490294546251</v>
       </c>
       <c r="C17">
-        <v>0.121454859724503</v>
+        <v>6.9588508635674664</v>
       </c>
       <c r="D17">
-        <v>3.7996491509359097E-2</v>
+        <v>2.1770385997909432</v>
       </c>
       <c r="E17">
-        <f>SUM(B17:D17) / 3</f>
-        <v>9.4052526673579037E-2</v>
+        <v>5.3888128309376784</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8751,17 +9877,16 @@
         <v>44</v>
       </c>
       <c r="B18">
-        <v>0.107348842734351</v>
+        <v>6.1506356242919242</v>
       </c>
       <c r="C18">
-        <v>0.12727564622609699</v>
+        <v>7.2923573635555217</v>
       </c>
       <c r="D18">
-        <v>6.8330619833880904E-2</v>
+        <v>3.9150561279942901</v>
       </c>
       <c r="E18">
-        <f>SUM(B18:D18) / 3</f>
-        <v>0.1009850362647763</v>
+        <v>5.7860163719472455</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8769,17 +9894,16 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>5.9514295458887402E-2</v>
+        <v>3.409917950488849</v>
       </c>
       <c r="C19">
-        <v>0.16218629449737401</v>
+        <v>9.2925901695653774</v>
       </c>
       <c r="D19">
-        <v>0.151039451347665</v>
+        <v>8.6539231021927385</v>
       </c>
       <c r="E19">
-        <f>SUM(B19:D19) / 3</f>
-        <v>0.12424668043464214</v>
+        <v>7.1188104074156557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8787,17 +9911,16 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>7.5709840070607506E-2</v>
+        <v>4.3378543036562531</v>
       </c>
       <c r="C20">
-        <v>0.15839073659813999</v>
+        <v>9.0751207210417277</v>
       </c>
       <c r="D20">
-        <v>0.13999091983613099</v>
+        <v>8.020888876764543</v>
       </c>
       <c r="E20">
-        <f>SUM(B20:D20) / 3</f>
-        <v>0.12469716550162617</v>
+        <v>7.1446213004875085</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8805,17 +9928,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.12621343014479899</v>
+        <v>7.2314968651662213</v>
       </c>
       <c r="C21">
-        <v>9.1855048421483398E-2</v>
+        <v>5.2629066015208137</v>
       </c>
       <c r="D21">
-        <v>0.15608016346148901</v>
+        <v>8.9427346320553216</v>
       </c>
       <c r="E21">
-        <f>SUM(B21:D21) / 3</f>
-        <v>0.12471621400925714</v>
+        <v>7.1457126995807858</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8823,17 +9945,16 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.14864168688182</v>
+        <v>8.5165413180333793</v>
       </c>
       <c r="C22">
-        <v>0.16165960480956501</v>
+        <v>9.2624130733408592</v>
       </c>
       <c r="D22">
-        <v>0.111345291278063</v>
+        <v>6.3796152588878261</v>
       </c>
       <c r="E22">
-        <f>SUM(B22:D22) / 3</f>
-        <v>0.140548860989816</v>
+        <v>8.0528565500873555</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8841,17 +9962,16 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>0.115076885759176</v>
+        <v>6.5934198735099114</v>
       </c>
       <c r="C23">
-        <v>0.173090065815034</v>
+        <v>9.9173302468430968</v>
       </c>
       <c r="D23">
-        <v>0.13595621083047099</v>
+        <v>7.7897170791768007</v>
       </c>
       <c r="E23">
-        <f>SUM(B23:D23) / 3</f>
-        <v>0.141374387468227</v>
+        <v>8.100155733176603</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8859,17 +9979,16 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>0.12155871504374</v>
+        <v>6.9648013350397298</v>
       </c>
       <c r="C24">
-        <v>0.176161646036017</v>
+        <v>10.093318829941282</v>
       </c>
       <c r="D24">
-        <v>0.127361747547523</v>
+        <v>7.297290605883731</v>
       </c>
       <c r="E24">
-        <f>SUM(B24:D24) / 3</f>
-        <v>0.14169403620909332</v>
+        <v>8.1184702569549145</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8877,17 +9996,16 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.175035288820028</v>
+        <v>10.028783315241007</v>
       </c>
       <c r="C25">
-        <v>8.7620683330971602E-2</v>
+        <v>5.0202953529169569</v>
       </c>
       <c r="D25">
-        <v>0.18549753299198199</v>
+        <v>10.628225750529314</v>
       </c>
       <c r="E25">
-        <f>SUM(B25:D25) / 3</f>
-        <v>0.14938450171432718</v>
+        <v>8.5591014728957582</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8895,17 +10013,16 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>0.165511964699155</v>
+        <v>9.4831370361798495</v>
       </c>
       <c r="C26">
-        <v>0.18654840809932799</v>
+        <v>10.688436458975596</v>
       </c>
       <c r="D26">
-        <v>9.8985878863429605E-2</v>
+        <v>5.6714730902677388</v>
       </c>
       <c r="E26">
-        <f>SUM(B26:D26) / 3</f>
-        <v>0.15034875055397087</v>
+        <v>8.6143488618077289</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8913,17 +10030,16 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>8.8041174508344394E-2</v>
+        <v>5.0443877227029041</v>
       </c>
       <c r="C27">
-        <v>0.207943627654575</v>
+        <v>11.914292241247017</v>
       </c>
       <c r="D27">
-        <v>0.18893162605986799</v>
+        <v>10.824984789774314</v>
       </c>
       <c r="E27">
-        <f>SUM(B27:D27) / 3</f>
-        <v>0.16163880940759578</v>
+        <v>9.261221584574745</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8931,17 +10047,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>9.5266877484380896E-2</v>
+        <v>5.4583900072449145</v>
       </c>
       <c r="C28">
-        <v>0.21538556760368799</v>
+        <v>12.340683991720994</v>
       </c>
       <c r="D28">
-        <v>0.19455494375698401</v>
+        <v>11.147177160680288</v>
       </c>
       <c r="E28">
-        <f>SUM(B28:D28) / 3</f>
-        <v>0.16840246294835096</v>
+        <v>9.6487503865487323</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8949,17 +10064,16 @@
         <v>50</v>
       </c>
       <c r="B29">
-        <v>0.15290151341855299</v>
+        <v>8.7606114000460096</v>
       </c>
       <c r="C29">
-        <v>0.24298595276132601</v>
+        <v>13.922069574189171</v>
       </c>
       <c r="D29">
-        <v>0.188616467666125</v>
+        <v>10.806927543934719</v>
       </c>
       <c r="E29">
-        <f>SUM(B29:D29) / 3</f>
-        <v>0.1948346446153347</v>
+        <v>11.163202839389969</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8967,17 +10081,16 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>9.8560076810135705E-2</v>
+        <v>5.6470764297059937</v>
       </c>
       <c r="C30">
-        <v>0.26286133372432902</v>
+        <v>15.060845019583907</v>
       </c>
       <c r="D30">
-        <v>0.24356413354249201</v>
+        <v>13.95519689274556</v>
       </c>
       <c r="E30">
-        <f>SUM(B30:D30) / 3</f>
-        <v>0.20166184802565223</v>
+        <v>11.554372780678486</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8985,17 +10098,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.29159614975891102</v>
+        <v>16.707228703450298</v>
       </c>
       <c r="C31">
-        <v>0.29133131747289198</v>
+        <v>16.692054931182607</v>
       </c>
       <c r="D31">
-        <v>3.4580700295362102E-2</v>
+        <v>1.9813281795310478</v>
       </c>
       <c r="E31">
-        <f>SUM(B31:D31) / 3</f>
-        <v>0.20583605584238837</v>
+        <v>11.793537271387985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9003,17 +10115,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.16819822606655599</v>
+        <v>9.6370484752009684</v>
       </c>
       <c r="C32">
-        <v>0.26737186595878798</v>
+        <v>15.319279479976117</v>
       </c>
       <c r="D32">
-        <v>0.20756249457879999</v>
+        <v>11.89245492457227</v>
       </c>
       <c r="E32">
-        <f>SUM(B32:D32) / 3</f>
-        <v>0.21437752886804798</v>
+        <v>12.282927626583117</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9021,17 +10132,16 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.258110132106037</v>
+        <v>14.788621219240047</v>
       </c>
       <c r="C33">
-        <v>0.27595097695689502</v>
+        <v>15.810826332141918</v>
       </c>
       <c r="D33">
-        <v>0.109796555689871</v>
+        <v>6.2908792461027128</v>
       </c>
       <c r="E33">
-        <f>SUM(B33:D33) / 3</f>
-        <v>0.21461922158426769</v>
+        <v>12.29677559916156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9039,17 +10149,16 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>7.7253112427583606E-2</v>
+        <v>4.4262772963501904</v>
       </c>
       <c r="C34">
-        <v>0.30196094259784101</v>
+        <v>17.301087588648407</v>
       </c>
       <c r="D34">
-        <v>0.29191796211861498</v>
+        <v>16.725667193456481</v>
       </c>
       <c r="E34">
-        <f>SUM(B34:D34) / 3</f>
-        <v>0.22371067238134654</v>
+        <v>12.817677359485026</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9057,17 +10166,16 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>0.193348247204187</v>
+        <v>11.078038541052035</v>
       </c>
       <c r="C35">
-        <v>0.27888675052386402</v>
+        <v>15.979033767135309</v>
       </c>
       <c r="D35">
-        <v>0.20035461640205399</v>
+        <v>11.479473925800272</v>
       </c>
       <c r="E35">
-        <f>SUM(B35:D35) / 3</f>
-        <v>0.22419653804336834</v>
+        <v>12.845515411329206</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9075,17 +10183,16 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>0.123909383225261</v>
+        <v>7.0994847008765758</v>
       </c>
       <c r="C36">
-        <v>0.29203437299271401</v>
+        <v>16.732337045231784</v>
       </c>
       <c r="D36">
-        <v>0.26439120745510603</v>
+        <v>15.148500327545362</v>
       </c>
       <c r="E36">
-        <f>SUM(B36:D36) / 3</f>
-        <v>0.22677832122436037</v>
+        <v>12.993440691217909</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9093,17 +10200,16 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>0.24688866161589701</v>
+        <v>14.145678320224427</v>
       </c>
       <c r="C37">
-        <v>0.28773430175234899</v>
+        <v>16.485961111553284</v>
       </c>
       <c r="D37">
-        <v>0.147846183179939</v>
+        <v>8.470962313328565</v>
       </c>
       <c r="E37">
-        <f>SUM(B37:D37) / 3</f>
-        <v>0.22748971551606167</v>
+        <v>13.034200581702093</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9111,17 +10217,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.214882714471054</v>
+        <v>12.311872629506134</v>
       </c>
       <c r="C38">
-        <v>0.28337538305940801</v>
+        <v>16.236213467207087</v>
       </c>
       <c r="D38">
-        <v>0.184359307759838</v>
+        <v>10.563010248592166</v>
       </c>
       <c r="E38">
-        <f>SUM(B38:D38) / 3</f>
-        <v>0.22753913509676668</v>
+        <v>13.037032115101795</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9129,17 +10234,16 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.242914462611554</v>
+        <v>13.917973490330478</v>
       </c>
       <c r="C39">
-        <v>0.293884336426813</v>
+        <v>16.838332142259183</v>
       </c>
       <c r="D39">
-        <v>0.170015739317874</v>
+        <v>9.7411843137105905</v>
       </c>
       <c r="E39">
-        <f>SUM(B39:D39) / 3</f>
-        <v>0.23560484611874699</v>
+        <v>13.499163315433417</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9147,17 +10251,16 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>0.23128286703943601</v>
+        <v>13.25153215504506</v>
       </c>
       <c r="C40">
-        <v>0.30534264327565902</v>
+        <v>17.49484476506391</v>
       </c>
       <c r="D40">
-        <v>0.209546718062712</v>
+        <v>12.006142555811172</v>
       </c>
       <c r="E40">
-        <f>SUM(B40:D40) / 3</f>
-        <v>0.24872407612593564</v>
+        <v>14.250839825306711</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9165,17 +10268,16 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>0.216039771625544</v>
+        <v>12.378167121113828</v>
       </c>
       <c r="C41">
-        <v>0.310784984669217</v>
+        <v>17.806667957584128</v>
       </c>
       <c r="D41">
-        <v>0.22329857609460799</v>
+        <v>12.794065981501895</v>
       </c>
       <c r="E41">
-        <f>SUM(B41:D41) / 3</f>
-        <v>0.25004111079645636</v>
+        <v>14.326300353399951</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9183,17 +10285,16 @@
         <v>31</v>
       </c>
       <c r="B42">
-        <v>0.167131313163075</v>
+        <v>9.5759188687234591</v>
       </c>
       <c r="C42">
-        <v>0.31656823120362299</v>
+        <v>18.13802357588925</v>
       </c>
       <c r="D42">
-        <v>0.27034538822387</v>
+        <v>15.489649756053497</v>
       </c>
       <c r="E42">
-        <f>SUM(B42:D42) / 3</f>
-        <v>0.25134831086352266</v>
+        <v>14.401197400222069</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9201,17 +10302,16 @@
         <v>34</v>
       </c>
       <c r="B43">
-        <v>0.32078505465655399</v>
+        <v>18.37962976269398</v>
       </c>
       <c r="C43">
-        <v>0.33455041684435999</v>
+        <v>19.168326919524233</v>
       </c>
       <c r="D43">
-        <v>0.108127159858925</v>
+        <v>6.1952299106527722</v>
       </c>
       <c r="E43">
-        <f>SUM(B43:D43) / 3</f>
-        <v>0.25448754378661298</v>
+        <v>14.581062197623661</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9219,17 +10319,16 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>0.228786904505591</v>
+        <v>13.108524036032962</v>
       </c>
       <c r="C44">
-        <v>0.321287544273403</v>
+        <v>18.408420296988574</v>
       </c>
       <c r="D44">
-        <v>0.225068956141243</v>
+        <v>12.895501286308255</v>
       </c>
       <c r="E44">
-        <f>SUM(B44:D44) / 3</f>
-        <v>0.25838113497341236</v>
+        <v>14.804148539776598</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9237,17 +10336,16 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>0.31424584817048701</v>
+        <v>18.004960829677767</v>
       </c>
       <c r="C45">
-        <v>0.135753043747423</v>
+        <v>7.7780764627821668</v>
       </c>
       <c r="D45">
-        <v>0.33582661427002503</v>
+        <v>19.241447645840299</v>
       </c>
       <c r="E45">
-        <f>SUM(B45:D45) / 3</f>
-        <v>0.26194183539597832</v>
+        <v>15.008161646100076</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9255,17 +10353,16 @@
         <v>28</v>
       </c>
       <c r="B46">
-        <v>0.25617902336799397</v>
+        <v>14.677976838769347</v>
       </c>
       <c r="C46">
-        <v>0.34703512730541403</v>
+        <v>19.883648137385457</v>
       </c>
       <c r="D46">
-        <v>0.233515143905453</v>
+        <v>13.379432198172525</v>
       </c>
       <c r="E46">
-        <f>SUM(B46:D46) / 3</f>
-        <v>0.27890976485962032</v>
+        <v>15.980352391442443</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9273,17 +10370,16 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>0.319790218329562</v>
+        <v>18.322629839851043</v>
       </c>
       <c r="C47">
-        <v>0.36564931715135601</v>
+        <v>20.950162654613205</v>
       </c>
       <c r="D47">
-        <v>0.17628096565323001</v>
+        <v>10.100155340420704</v>
       </c>
       <c r="E47">
-        <f>SUM(B47:D47) / 3</f>
-        <v>0.287240167044716</v>
+        <v>16.457649278294983</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -9291,17 +10387,16 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.32130013957834302</v>
+        <v>18.409141954803317</v>
       </c>
       <c r="C48">
-        <v>0.25325499106434302</v>
+        <v>14.510442128610231</v>
       </c>
       <c r="D48">
-        <v>0.33475798981312199</v>
+        <v>19.180219974575294</v>
       </c>
       <c r="E48">
-        <f>SUM(B48:D48) / 3</f>
-        <v>0.30310437348526936</v>
+        <v>17.366601352662951</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9309,17 +10404,16 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>0.34574875527850901</v>
+        <v>19.80994444936011</v>
       </c>
       <c r="C49">
-        <v>0.40185611629226797</v>
+        <v>23.024659435065356</v>
       </c>
       <c r="D49">
-        <v>0.205591313462125</v>
+        <v>11.779514565930908</v>
       </c>
       <c r="E49">
-        <f>SUM(B49:D49) / 3</f>
-        <v>0.31773206167763401</v>
+        <v>18.204706150118792</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9327,17 +10421,16 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>0.21363980518192799</v>
+        <v>12.240659172921609</v>
       </c>
       <c r="C50">
-        <v>0.45062464983771799</v>
+        <v>25.818890580261819</v>
       </c>
       <c r="D50">
-        <v>0.395353600443624</v>
+        <v>22.652092720721125</v>
       </c>
       <c r="E50">
-        <f>SUM(B50:D50) / 3</f>
-        <v>0.35320601848775662</v>
+        <v>20.237214157968182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9345,17 +10438,16 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>0.27420464056208199</v>
+        <v>15.71076862710904</v>
       </c>
       <c r="C51">
-        <v>0.46780167059264799</v>
+        <v>26.803061374127925</v>
       </c>
       <c r="D51">
-        <v>0.37815204027779797</v>
+        <v>21.666515922178938</v>
       </c>
       <c r="E51">
-        <f>SUM(B51:D51) / 3</f>
-        <v>0.37338611714417597</v>
+        <v>21.393448641138633</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9363,17 +10455,16 @@
         <v>41</v>
       </c>
       <c r="B52">
-        <v>0.50456430143220399</v>
+        <v>28.909404965031968</v>
       </c>
       <c r="C52">
-        <v>0.169445604839324</v>
+        <v>9.708518014334782</v>
       </c>
       <c r="D52">
-        <v>0.47980279009076598</v>
+        <v>27.490674870802248</v>
       </c>
       <c r="E52">
-        <f>SUM(B52:D52) / 3</f>
-        <v>0.38460423212076461</v>
+        <v>22.036199283389664</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9381,17 +10472,16 @@
         <v>46</v>
       </c>
       <c r="B53">
-        <v>0.60159841243019796</v>
+        <v>34.469049994020985</v>
       </c>
       <c r="C53">
-        <v>6.2298860167010202E-2</v>
+        <v>3.5694617560453636</v>
       </c>
       <c r="D53">
-        <v>0.60164343165351997</v>
+        <v>34.471629405514292</v>
       </c>
       <c r="E53">
-        <f>SUM(B53:D53) / 3</f>
-        <v>0.42184690141690934</v>
+        <v>24.170047051860212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9399,17 +10489,16 @@
         <v>21</v>
       </c>
       <c r="B54">
-        <v>0.61559888504547799</v>
+        <v>35.271217986065018</v>
       </c>
       <c r="C54">
-        <v>0.20008680641600099</v>
+        <v>11.464129543887978</v>
       </c>
       <c r="D54">
-        <v>0.60068362841715806</v>
+        <v>34.416636730907761</v>
       </c>
       <c r="E54">
-        <f>SUM(B54:D54) / 3</f>
-        <v>0.47212310662621232</v>
+        <v>27.050661420286918</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9417,17 +10506,16 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0.56144638587108397</v>
+        <v>32.168508333286567</v>
       </c>
       <c r="C55">
-        <v>0.35368944834274602</v>
+        <v>20.264912648349696</v>
       </c>
       <c r="D55">
-        <v>0.56293994201440001</v>
+        <v>32.254082796764408</v>
       </c>
       <c r="E55">
-        <f>SUM(B55:D55) / 3</f>
-        <v>0.49269192540941004</v>
+        <v>28.22916792613356</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9435,17 +10523,16 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>0.72813606806641595</v>
+        <v>41.71912361145607</v>
       </c>
       <c r="C56">
-        <v>5.9118187479932902E-2</v>
+        <v>3.3872226350632992</v>
       </c>
       <c r="D56">
-        <v>0.72934353653198802</v>
+        <v>41.788306458428487</v>
       </c>
       <c r="E56">
-        <f>SUM(B56:D56) / 3</f>
-        <v>0.50553259735944567</v>
+        <v>28.964884234982623</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9453,17 +10540,16 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>0.74490406437344303</v>
+        <v>42.679859030739671</v>
       </c>
       <c r="C57">
-        <v>0.37735710981569698</v>
+        <v>21.620969761694166</v>
       </c>
       <c r="D57">
-        <v>0.81892301523560396</v>
+        <v>46.920832519127721</v>
       </c>
       <c r="E57">
-        <f>SUM(B57:D57) / 3</f>
-        <v>0.64706139647491467</v>
+        <v>37.073887103853856</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9471,20 +10557,22 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>0.80399353499798298</v>
+        <v>46.065436311188066</v>
       </c>
       <c r="C58">
-        <v>0.77505735797830999</v>
+        <v>44.407515492717366</v>
       </c>
       <c r="D58">
-        <v>0.40471685175412803</v>
+        <v>23.188567503333346</v>
       </c>
       <c r="E58">
-        <f>SUM(B58:D58) / 3</f>
-        <v>0.66125591491014035</v>
+        <v>37.88717310241293</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E58">
+    <sortCondition ref="E2:E58"/>
+  </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9496,15 +10584,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E46"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -9518,7 +10606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -9535,8 +10623,28 @@
         <f>SUM($B2:$D2) / 3</f>
         <v>8.4120877121770576E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="str">
+        <f>A2</f>
+        <v>P1020816</v>
+      </c>
+      <c r="H2">
+        <f>DEGREES(B2)</f>
+        <v>4.5569999300376303</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:K2" si="0">DEGREES(C2)</f>
+        <v>5.9963208284504264</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>3.905992925560116</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>4.8197712280160578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -9550,11 +10658,31 @@
         <v>4.7617036366567E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E46" si="0">SUM($B3:$D3) / 3</f>
+        <f t="shared" ref="E3:E46" si="1">SUM($B3:$D3) / 3</f>
         <v>5.5395002428573266E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G46" si="2">A3</f>
+        <v>P1020817</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H46" si="3">DEGREES(B3)</f>
+        <v>2.8539994420047594</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I46" si="4">DEGREES(C3)</f>
+        <v>3.9394448770925763</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J46" si="5">DEGREES(D3)</f>
+        <v>2.7282552167252456</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K46" si="6">DEGREES(E3)</f>
+        <v>3.1738998452741938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -9568,11 +10696,31 @@
         <v>3.9320281586367203E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7010991413917929E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020824</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.13453294649086753</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>2.2554282947891311</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>2.2528861841648062</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>1.5476158084816014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -9586,11 +10734,31 @@
         <v>2.4624596388798901E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3702586022179405E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020825</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.1966620499150127</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1.466626932643696</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>1.4108854452912651</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.3580581426166582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -9604,11 +10772,31 @@
         <v>3.4452715758804098E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7121608768756899E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020826</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.6426527641595876</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1.7640865636538721</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.9739952057433363</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>2.1269115111855985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -9622,11 +10810,31 @@
         <v>7.0896991546593804E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1609167936397804E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020828</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.72438646159210052</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>4.0844776634258588</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>4.0620983957945</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>2.9569875069374865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -9640,11 +10848,31 @@
         <v>3.6345379589552397E-2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0231399535582366E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020829</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2.9755371867890705</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>3.5761675352014719</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>2.0824368552822765</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>2.878047192424273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -9658,11 +10886,31 @@
         <v>4.0821173600871702E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2548448301048536E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020830</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.9376986611277673</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>3.0369599142134076</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2.3388809621008018</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>2.4378465124806592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -9676,11 +10924,31 @@
         <v>1.35598949424413E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.079668556533781E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020831</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.70602565632374648</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.37286313970459789</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.77692475084267687</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>0.61860451562367369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -9694,11 +10962,31 @@
         <v>1.6687115830062198E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7773344457064669E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020833</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1.9676204430765123</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1.8501645086735712</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.95610130930850945</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>1.5912954203528644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -9712,11 +11000,31 @@
         <v>0.15281354335702901</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23137284573049099</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020838</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>14.2773748909527</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>16.737116685115989</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>8.7555710867971808</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>13.256687554288623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9730,11 +11038,31 @@
         <v>2.1300782480842901E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7534010923042524E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020839</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.5269495469110983</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1.2664799880902653</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1.2204449364785015</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>1.0046248238266215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -9748,11 +11076,31 @@
         <v>9.1371480554876594E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15933415633481354</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020841</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>10.455750202551174</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>11.696573664580123</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>5.2352002036560981</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>9.1291746902624666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -9766,11 +11114,31 @@
         <v>3.4499965898401597E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4040504364069864E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020860</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>2.4378413387564217</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1.4365879195934923</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>1.976702439323677</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>1.9503772325578634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -9784,11 +11152,31 @@
         <v>7.8044610209516696E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3321166011694162E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020872</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>4.2775625817408098</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>5.5726641092471416</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>4.4716267787489219</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>4.7739511565789572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -9802,11 +11190,31 @@
         <v>0.28045727047354502</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54240738442632674</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020887</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>38.453997236120614</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>38.709946545061747</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>16.069017931893129</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>31.077653904358499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -9820,11 +11228,31 @@
         <v>1.98624759518717E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27379339255455326</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020912</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>22.951983235726946</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>22.971598277384146</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>1.1380360427223408</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>15.687205851944478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -9838,11 +11266,31 @@
         <v>0.246048409222137</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38608111143825269</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>P1020928</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>24.204192794938873</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>28.060726506120588</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>14.097535404336213</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>22.120818235131892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -9856,11 +11304,31 @@
         <v>0.222516841301163</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15933198568626958</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040788</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.7662181879611247</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>12.871656898686179</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>12.749275877138965</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>9.1290503212620902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9874,11 +11342,31 @@
         <v>0.26001913610746902</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22012286856840335</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040795</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>15.747907546302615</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>7.190427391949008</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>14.897999091595688</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>12.612111343282438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9892,11 +11380,31 @@
         <v>2.77862636805585E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9037315421000639E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040798</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>5.258644864834821</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>5.0159599054418438</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>1.5920356373336471</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>3.9555468025367708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9910,11 +11418,31 @@
         <v>0.21132351131677099</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1500580700813417</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040801</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1.4862989020556667</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>12.198838080225892</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>12.107945310336067</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>8.5976940975392093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -9928,11 +11456,31 @@
         <v>1.502457354727E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4116564056334797E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040811</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>4.18105867438031</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>4.2600488389092819</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.86084465324247106</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>3.1006507221773543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -9946,11 +11494,31 @@
         <v>1.41700338948361E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7233115864759036E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040812</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>4.4825051112784813</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>4.5432597132918691</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.81188313773143228</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>3.2792159874339277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -9964,11 +11532,31 @@
         <v>2.8021626834512099E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3698547839154667E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040813</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>3.146841617248763</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>2.7588645161454179</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>1.6055209527080763</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>2.5037423620340857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -9982,11 +11570,31 @@
         <v>9.3718509530645006E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8309938906800792E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040814</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>3.6905673508188968</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>6.1191179560720492</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>5.3696750583625406</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>5.0597867884178287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -10000,11 +11608,31 @@
         <v>0.104227241687222</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3897223497871654E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040826</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>4.3218773620190305</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>4.1272120368946883</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>5.9717810589678137</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>4.8069568192938439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -10018,11 +11646,31 @@
         <v>6.2211206314355297E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5646936735285488E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040829</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>3.0777409556647148</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>4.641696722787656</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>3.5644395602301757</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>3.7612924128941816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -10036,11 +11684,31 @@
         <v>8.9387449448156797E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1580283893649302E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040833</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>2.7379329507323957</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>4.4442879448123245</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>5.1215235948183837</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>4.1012481634543683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -10054,11 +11722,31 @@
         <v>6.0964568919749801E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.493752953045373E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040839</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>3.0403925027994489</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>4.6285341205679034</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>3.4930124989360958</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>3.7206463741011491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -10072,11 +11760,31 @@
         <v>5.3052920531999899E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0388220066583197E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040843</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>3.1785926467194936</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>4.1616693423212956</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>3.0397084373265444</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>3.4599901421224444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -10090,11 +11798,31 @@
         <v>1.3767689979070999E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5301801660428167E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040845</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0.80724999630765226</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>1.0341054365134505</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.78883052944532495</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0.87672865408880929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -10108,11 +11836,31 @@
         <v>5.2596445544446403E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.73195786402278E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040850</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0.41640204831153038</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>2.9848066524769137</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>3.0135543470864423</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>2.1382543492916288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -10126,11 +11874,31 @@
         <v>2.0917824872651099E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0122937473854203E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040853</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>2.7666577089308122</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>2.9314641460299167</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>1.1985030817966866</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>2.2988749789191387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -10144,11 +11912,31 @@
         <v>2.6010946830434201E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1697218301946837E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040860</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>2.6591341045143144</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>3.01777229937424</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>1.4903174745230654</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>2.3890746261372069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -10162,11 +11950,31 @@
         <v>2.66681319645053E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1478266016764797E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040862</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.91217940635197847</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1.2516911666435977</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>1.5279714090640786</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>1.2306139940198848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -10180,11 +11988,31 @@
         <v>2.99428254978816E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5398069147556865E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>P1040863</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>1.8801232841853159</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.76988569789867112</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>1.7155975277253235</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>1.4552021699364368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -10198,11 +12026,31 @@
         <v>7.0503060778810703E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13636216827519956</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080032</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>9.2789793281278925</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>10.120423028756917</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>4.0395278253801798</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>7.8129767274216633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -10216,11 +12064,31 @@
         <v>0.14511315060424099</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11640202057260374</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080033</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>3.0792105331427635</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>8.6144519022034647</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>8.3143710814693002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>6.6693445056051761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -10234,11 +12102,31 @@
         <v>0.13972750248047699</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1280070694228041</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080036</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>4.8003390563447974</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>9.1966592469145461</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>8.0057961740350727</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>7.334264825764806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -10252,11 +12140,31 @@
         <v>1.7607827210048801E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6981666542868466E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080047</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>4.3699660748006703</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>4.4156067472524372</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>1.0088541855314075</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>3.2648090025281715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -10270,11 +12178,31 @@
         <v>0.118479238875304</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1470832537099367E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080062</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>2.5694803198973601</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>6.3648372913965758</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>6.7883603474772292</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>5.2408926529237219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -10288,11 +12216,31 @@
         <v>4.0246811652738301E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3766839392427701E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080063</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>1.3456371417049053</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>2.1524825657818494</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>2.3059724465598461</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>1.9346973846822002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -10306,11 +12254,31 @@
         <v>8.8778941088413305E-2</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9931909265724637E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080078</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>2.494495459458606</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>4.4392556691882525</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>5.0866586340066533</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>4.0068032542178376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -10324,8 +12292,28 @@
         <v>3.3567861720004803E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1342073415278837E-2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>P1080092</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>1.2048576169200091</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>2.2591511628989247</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>1.9232968038350315</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>1.7957685278846554</v>
       </c>
     </row>
   </sheetData>
@@ -10341,7 +12329,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A2" sqref="A2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10385,37 +12373,36 @@
       </c>
       <c r="Q1">
         <f>MIN(B$2:B$46)</f>
-        <v>2.3480428686749899E-3</v>
+        <v>0.13453294649086753</v>
       </c>
       <c r="R1">
         <f t="shared" ref="R1:T1" si="0">MIN(C$2:C$46)</f>
-        <v>6.5076894471688303E-3</v>
+        <v>0.37286313970459789</v>
       </c>
       <c r="S1">
         <f t="shared" si="0"/>
-        <v>1.35598949424413E-2</v>
+        <v>0.77692475084267687</v>
       </c>
       <c r="T1">
         <f t="shared" si="0"/>
-        <v>1.079668556533781E-2</v>
+        <v>0.61860451562367369</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>7.9534652792307897E-2</v>
+        <v>0.70602565632374648</v>
       </c>
       <c r="C2">
-        <v>0.104655541462374</v>
+        <v>0.37286313970459789</v>
       </c>
       <c r="D2">
-        <v>6.8172437110629799E-2</v>
+        <v>0.77692475084267687</v>
       </c>
       <c r="E2">
-        <f>SUM($B2:$D2) / 3</f>
-        <v>8.4120877121770576E-2</v>
+        <v>0.61860451562367369</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -10450,53 +12437,52 @@
       </c>
       <c r="Q2">
         <f>MAX(B$2:B$46)</f>
-        <v>0.671148862323104</v>
+        <v>38.453997236120614</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:T2" si="1">MAX(C$2:C$46)</f>
-        <v>0.67561602048233105</v>
+        <v>38.709946545061747</v>
       </c>
       <c r="S2">
         <f t="shared" si="1"/>
-        <v>0.28045727047354502</v>
+        <v>16.069017931893129</v>
       </c>
       <c r="T2">
         <f t="shared" si="1"/>
-        <v>0.54240738442632674</v>
+        <v>31.077653904358499</v>
       </c>
       <c r="V2">
-        <f>Q$1 +Q$3 * $F2</f>
-        <v>2.3480428686749899E-3</v>
+        <f t="shared" ref="V2:Y9" si="2">Q$1 +Q$3 * $F2</f>
+        <v>0.13453294649086753</v>
       </c>
       <c r="W2">
-        <f>R$1 +R$3 * $F2</f>
-        <v>6.5076894471688303E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.37286313970459789</v>
       </c>
       <c r="X2">
-        <f>S$1 +S$3 * $F2</f>
-        <v>1.35598949424413E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.77692475084267687</v>
       </c>
       <c r="Y2">
-        <f>T$1 +T$3 * $F2</f>
-        <v>1.079668556533781E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.61860451562367369</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B3">
-        <v>4.9811687113064003E-2</v>
+        <v>0.80724999630765226</v>
       </c>
       <c r="C3">
-        <v>6.8756283806088794E-2</v>
+        <v>1.0341054365134505</v>
       </c>
       <c r="D3">
-        <v>4.7617036366567E-2</v>
+        <v>0.78883052944532495</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E46" si="2">SUM($B3:$D3) / 3</f>
-        <v>5.5395002428573266E-2</v>
+        <v>0.87672865408880929</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10524,53 +12510,52 @@
       </c>
       <c r="Q3">
         <f>(Q2 - Q1) /$P$1</f>
-        <v>9.5542974207775577E-2</v>
+        <v>5.4742091842328211</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:T3" si="3">(R2 - R1) /$P$1</f>
-        <v>9.5586904433594605E-2</v>
+        <v>5.4767262007653068</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>3.8128196504443386E-2</v>
+        <v>2.1845847401500644</v>
       </c>
       <c r="T3">
         <f t="shared" si="3"/>
-        <v>7.5944385551569835E-2</v>
+        <v>4.3512927698192607</v>
       </c>
       <c r="V3">
-        <f>Q$1 +Q$3 * $F3</f>
-        <v>9.7891017076450565E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.6087421307236882</v>
       </c>
       <c r="W3">
-        <f>R$1 +R$3 * $F3</f>
-        <v>0.10209459388076343</v>
+        <f t="shared" si="2"/>
+        <v>5.8495893404699046</v>
       </c>
       <c r="X3">
-        <f>S$1 +S$3 * $F3</f>
-        <v>5.1688091446884687E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9615094909927411</v>
       </c>
       <c r="Y3">
-        <f>T$1 +T$3 * $F3</f>
-        <v>8.6741071116907639E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9698972854429346</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>2.3480428686749899E-3</v>
+        <v>0.5269495469110983</v>
       </c>
       <c r="C4">
-        <v>3.93646497867116E-2</v>
+        <v>1.2664799880902653</v>
       </c>
       <c r="D4">
-        <v>3.9320281586367203E-2</v>
+        <v>1.2204449364785015</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>2.7010991413917929E-2</v>
+        <v>1.0046248238266215</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -10597,38 +12582,37 @@
         <v>14</v>
       </c>
       <c r="V4">
-        <f>Q$1 +Q$3 * $F4</f>
-        <v>0.19343399128422614</v>
+        <f t="shared" si="2"/>
+        <v>11.08295131495651</v>
       </c>
       <c r="W4">
-        <f>R$1 +R$3 * $F4</f>
-        <v>0.19768149831435805</v>
+        <f t="shared" si="2"/>
+        <v>11.326315541235212</v>
       </c>
       <c r="X4">
-        <f>S$1 +S$3 * $F4</f>
-        <v>8.9816287951328067E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.146094231142806</v>
       </c>
       <c r="Y4">
-        <f>T$1 +T$3 * $F4</f>
-        <v>0.16268545666847747</v>
+        <f t="shared" si="2"/>
+        <v>9.3211900552621945</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>2.0885692804681701E-2</v>
+        <v>0.91217940635197847</v>
       </c>
       <c r="C5">
-        <v>2.55974688730576E-2</v>
+        <v>1.2516911666435977</v>
       </c>
       <c r="D5">
-        <v>2.4624596388798901E-2</v>
+        <v>1.5279714090640786</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>2.3702586022179405E-2</v>
+        <v>1.2306139940198848</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -10655,38 +12639,37 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <f>Q$1 +Q$3 * $F5</f>
-        <v>0.28897696549200175</v>
+        <f t="shared" si="2"/>
+        <v>16.557160499189333</v>
       </c>
       <c r="W5">
-        <f>R$1 +R$3 * $F5</f>
-        <v>0.29326840274795263</v>
+        <f t="shared" si="2"/>
+        <v>16.80304174200052</v>
       </c>
       <c r="X5">
-        <f>S$1 +S$3 * $F5</f>
-        <v>0.12794448445577147</v>
+        <f t="shared" si="2"/>
+        <v>7.3306789712928699</v>
       </c>
       <c r="Y5">
-        <f>T$1 +T$3 * $F5</f>
-        <v>0.23862984222004729</v>
+        <f t="shared" si="2"/>
+        <v>13.672482825081456</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>4.6122991721514003E-2</v>
+        <v>1.1966620499150127</v>
       </c>
       <c r="C6">
-        <v>3.0789118825952599E-2</v>
+        <v>1.466626932643696</v>
       </c>
       <c r="D6">
-        <v>3.4452715758804098E-2</v>
+        <v>1.4108854452912651</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>3.7121608768756899E-2</v>
+        <v>1.3580581426166582</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10713,38 +12696,37 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <f>Q$1 +Q$3 * $F6</f>
-        <v>0.38451993969977732</v>
+        <f t="shared" si="2"/>
+        <v>22.031369683422152</v>
       </c>
       <c r="W6">
-        <f>R$1 +R$3 * $F6</f>
-        <v>0.38885530718154726</v>
+        <f t="shared" si="2"/>
+        <v>22.279767942765826</v>
       </c>
       <c r="X6">
-        <f>S$1 +S$3 * $F6</f>
-        <v>0.16607268096021485</v>
+        <f t="shared" si="2"/>
+        <v>9.5152637114429339</v>
       </c>
       <c r="Y6">
-        <f>T$1 +T$3 * $F6</f>
-        <v>0.31457422777161714</v>
+        <f t="shared" si="2"/>
+        <v>18.023775594900716</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>1.26429288116536E-2</v>
+        <v>1.8801232841853159</v>
       </c>
       <c r="C7">
-        <v>7.1287583450946004E-2</v>
+        <v>0.76988569789867112</v>
       </c>
       <c r="D7">
-        <v>7.0896991546593804E-2</v>
+        <v>1.7155975277253235</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>5.1609167936397804E-2</v>
+        <v>1.4552021699364368</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -10771,38 +12753,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <f>Q$1 +Q$3 * $F7</f>
-        <v>0.4800629139075529</v>
+        <f t="shared" si="2"/>
+        <v>27.505578867654972</v>
       </c>
       <c r="W7">
-        <f>R$1 +R$3 * $F7</f>
-        <v>0.48444221161514189</v>
+        <f t="shared" si="2"/>
+        <v>27.756494143531132</v>
       </c>
       <c r="X7">
-        <f>S$1 +S$3 * $F7</f>
-        <v>0.20420087746465823</v>
+        <f t="shared" si="2"/>
+        <v>11.699848451592999</v>
       </c>
       <c r="Y7">
-        <f>T$1 +T$3 * $F7</f>
-        <v>0.39051861332318699</v>
+        <f t="shared" si="2"/>
+        <v>22.375068364719976</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>5.19329209249988E-2</v>
+        <v>0.13453294649086753</v>
       </c>
       <c r="C8">
-        <v>6.2415898092195901E-2</v>
+        <v>2.2554282947891311</v>
       </c>
       <c r="D8">
-        <v>3.6345379589552397E-2</v>
+        <v>2.2528861841648062</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>5.0231399535582366E-2</v>
+        <v>1.5476158084816014</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -10829,38 +12810,37 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <f>Q$1 +Q$3 * $F8</f>
-        <v>0.57560588811532842</v>
+        <f t="shared" si="2"/>
+        <v>32.979788051887795</v>
       </c>
       <c r="W8">
-        <f>R$1 +R$3 * $F8</f>
-        <v>0.58002911604873642</v>
+        <f t="shared" si="2"/>
+        <v>33.233220344296441</v>
       </c>
       <c r="X8">
-        <f>S$1 +S$3 * $F8</f>
-        <v>0.24232907396910164</v>
+        <f t="shared" si="2"/>
+        <v>13.884433191743062</v>
       </c>
       <c r="Y8">
-        <f>T$1 +T$3 * $F8</f>
-        <v>0.46646299887475678</v>
+        <f t="shared" si="2"/>
+        <v>26.726361134539239</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>3.3819221548165398E-2</v>
+        <v>1.9676204430765123</v>
       </c>
       <c r="C9">
-        <v>5.30049497541085E-2</v>
+        <v>1.8501645086735712</v>
       </c>
       <c r="D9">
-        <v>4.0821173600871702E-2</v>
+        <v>0.95610130930850945</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>4.2548448301048536E-2</v>
+        <v>1.5912954203528644</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -10887,38 +12867,37 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <f>Q$1 +Q$3 * $F9</f>
-        <v>0.671148862323104</v>
+        <f t="shared" si="2"/>
+        <v>38.453997236120614</v>
       </c>
       <c r="W9">
-        <f>R$1 +R$3 * $F9</f>
-        <v>0.67561602048233105</v>
+        <f t="shared" si="2"/>
+        <v>38.709946545061747</v>
       </c>
       <c r="X9">
-        <f>S$1 +S$3 * $F9</f>
-        <v>0.28045727047354502</v>
+        <f t="shared" si="2"/>
+        <v>16.069017931893129</v>
       </c>
       <c r="Y9">
-        <f>T$1 +T$3 * $F9</f>
-        <v>0.54240738442632674</v>
+        <f t="shared" si="2"/>
+        <v>31.077653904358499</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>1.23224723064033E-2</v>
+        <v>1.2048576169200091</v>
       </c>
       <c r="C10">
-        <v>6.5076894471688303E-3</v>
+        <v>2.2591511628989247</v>
       </c>
       <c r="D10">
-        <v>1.35598949424413E-2</v>
+        <v>1.9232968038350315</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1.079668556533781E-2</v>
+        <v>1.7957685278846554</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -10944,344 +12923,325 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>3.4341455161234803E-2</v>
+        <v>1.3456371417049053</v>
       </c>
       <c r="C11">
-        <v>3.2291462379897003E-2</v>
+        <v>2.1524825657818494</v>
       </c>
       <c r="D11">
-        <v>1.6687115830062198E-2</v>
+        <v>2.3059724465598461</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>2.7773344457064669E-2</v>
+        <v>1.9346973846822002</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B12">
-        <v>0.24918720038869099</v>
+        <v>2.4378413387564217</v>
       </c>
       <c r="C12">
-        <v>0.292117793445753</v>
+        <v>1.4365879195934923</v>
       </c>
       <c r="D12">
-        <v>0.15281354335702901</v>
+        <v>1.976702439323677</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.23137284573049099</v>
+        <v>1.9503772325578634</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>9.1970045854909803E-3</v>
+        <v>2.6426527641595876</v>
       </c>
       <c r="C13">
-        <v>2.21042457027937E-2</v>
+        <v>1.7640865636538721</v>
       </c>
       <c r="D13">
-        <v>2.1300782480842901E-2</v>
+        <v>1.9739952057433363</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1.7534010923042524E-2</v>
+        <v>2.1269115111855985</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B14">
-        <v>0.182487266800582</v>
+        <v>0.41640204831153038</v>
       </c>
       <c r="C14">
-        <v>0.20414372164898201</v>
+        <v>2.9848066524769137</v>
       </c>
       <c r="D14">
-        <v>9.1371480554876594E-2</v>
+        <v>3.0135543470864423</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.15933415633481354</v>
+        <v>2.1382543492916288</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B15">
-        <v>4.2548358002526002E-2</v>
+        <v>2.7666577089308122</v>
       </c>
       <c r="C15">
-        <v>2.5073189191282E-2</v>
+        <v>2.9314641460299167</v>
       </c>
       <c r="D15">
-        <v>3.4499965898401597E-2</v>
+        <v>1.1985030817966866</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>3.4040504364069864E-2</v>
+        <v>2.2988749789191387</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B16">
-        <v>7.4657551011486203E-2</v>
+        <v>2.6591341045143144</v>
       </c>
       <c r="C16">
-        <v>9.7261336814079599E-2</v>
+        <v>3.01777229937424</v>
       </c>
       <c r="D16">
-        <v>7.8044610209516696E-2</v>
+        <v>1.4903174745230654</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>8.3321166011694162E-2</v>
+        <v>2.3890746261372069</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B17">
-        <v>0.671148862323104</v>
+        <v>1.9376986611277673</v>
       </c>
       <c r="C17">
-        <v>0.67561602048233105</v>
+        <v>3.0369599142134076</v>
       </c>
       <c r="D17">
-        <v>0.28045727047354502</v>
+        <v>2.3388809621008018</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.54240738442632674</v>
+        <v>2.4378465124806592</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B18">
-        <v>0.400587677325977</v>
+        <v>3.146841617248763</v>
       </c>
       <c r="C18">
-        <v>0.40093002438581099</v>
+        <v>2.7588645161454179</v>
       </c>
       <c r="D18">
-        <v>1.98624759518717E-2</v>
+        <v>1.6055209527080763</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.27379339255455326</v>
+        <v>2.5037423620340857</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>0.42244285705917201</v>
+        <v>2.9755371867890705</v>
       </c>
       <c r="C19">
-        <v>0.48975206803344901</v>
+        <v>3.5761675352014719</v>
       </c>
       <c r="D19">
-        <v>0.246048409222137</v>
+        <v>2.0824368552822765</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.38608111143825269</v>
+        <v>2.878047192424273</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>3.0826322688529698E-2</v>
+        <v>0.72438646159210052</v>
       </c>
       <c r="C20">
-        <v>0.22465279306911601</v>
+        <v>4.0844776634258588</v>
       </c>
       <c r="D20">
-        <v>0.222516841301163</v>
+        <v>4.0620983957945</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0.15933198568626958</v>
+        <v>2.9569875069374865</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21">
-        <v>0.27485283698264201</v>
+        <v>4.18105867438031</v>
       </c>
       <c r="C21">
-        <v>0.125496632615099</v>
+        <v>4.2600488389092819</v>
       </c>
       <c r="D21">
-        <v>0.26001913610746902</v>
+        <v>0.86084465324247106</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0.22012286856840335</v>
+        <v>3.1006507221773543</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>9.1780667084459797E-2</v>
+        <v>2.8539994420047594</v>
       </c>
       <c r="C22">
-        <v>8.7545015497983603E-2</v>
+        <v>3.9394448770925763</v>
       </c>
       <c r="D22">
-        <v>2.77862636805585E-2</v>
+        <v>2.7282552167252456</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>6.9037315421000639E-2</v>
+        <v>3.1738998452741938</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>2.59408095096481E-2</v>
+        <v>4.3699660748006703</v>
       </c>
       <c r="C23">
-        <v>0.212909889417606</v>
+        <v>4.4156067472524372</v>
       </c>
       <c r="D23">
-        <v>0.21132351131677099</v>
+        <v>1.0088541855314075</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0.1500580700813417</v>
+        <v>3.2648090025281715</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>7.2973240087005897E-2</v>
+        <v>4.4825051112784813</v>
       </c>
       <c r="C24">
-        <v>7.4351878534728494E-2</v>
+        <v>4.5432597132918691</v>
       </c>
       <c r="D24">
-        <v>1.502457354727E-2</v>
+        <v>0.81188313773143228</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>5.4116564056334797E-2</v>
+        <v>3.2792159874339277</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B25">
-        <v>7.8234472929284302E-2</v>
+        <v>3.1785926467194936</v>
       </c>
       <c r="C25">
-        <v>7.9294840770156694E-2</v>
+        <v>4.1616693423212956</v>
       </c>
       <c r="D25">
-        <v>1.41700338948361E-2</v>
+        <v>3.0397084373265444</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>5.7233115864759036E-2</v>
+        <v>3.4599901421224444</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B26">
-        <v>5.4922747259774099E-2</v>
+        <v>3.0403925027994489</v>
       </c>
       <c r="C26">
-        <v>4.8151269423177802E-2</v>
+        <v>4.6285341205679034</v>
       </c>
       <c r="D26">
-        <v>2.8021626834512099E-2</v>
+        <v>3.4930124989360958</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>4.3698547839154667E-2</v>
+        <v>3.7206463741011491</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B27">
-        <v>6.4412551538394397E-2</v>
+        <v>3.0777409556647148</v>
       </c>
       <c r="C27">
-        <v>0.106798755651363</v>
+        <v>4.641696722787656</v>
       </c>
       <c r="D27">
-        <v>9.3718509530645006E-2</v>
+        <v>3.5644395602301757</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>8.8309938906800792E-2</v>
+        <v>3.7612924128941816</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28">
-        <v>7.5430989834639001E-2</v>
+        <v>5.258644864834821</v>
       </c>
       <c r="C28">
-        <v>7.2033438971754002E-2</v>
+        <v>5.0159599054418438</v>
       </c>
       <c r="D28">
-        <v>0.104227241687222</v>
+        <v>1.5920356373336471</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>8.3897223497871654E-2</v>
+        <v>3.9555468025367708</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>5.3716713199826099E-2</v>
+        <v>2.494495459458606</v>
       </c>
       <c r="C29">
-        <v>8.1012890691675096E-2</v>
+        <v>4.4392556691882525</v>
       </c>
       <c r="D29">
-        <v>6.2211206314355297E-2</v>
+        <v>5.0866586340066533</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>6.5646936735285488E-2</v>
+        <v>4.0068032542178376</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11289,308 +13249,294 @@
         <v>94</v>
       </c>
       <c r="B30">
-        <v>4.7785944689123998E-2</v>
+        <v>2.7379329507323957</v>
       </c>
       <c r="C30">
-        <v>7.7567457543667104E-2</v>
+        <v>4.4442879448123245</v>
       </c>
       <c r="D30">
-        <v>8.9387449448156797E-2</v>
+        <v>5.1215235948183837</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>7.1580283893649302E-2</v>
+        <v>4.1012481634543683</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B31">
-        <v>5.3064859726801299E-2</v>
+        <v>4.2775625817408098</v>
       </c>
       <c r="C31">
-        <v>8.0783159944810098E-2</v>
+        <v>5.5726641092471416</v>
       </c>
       <c r="D31">
-        <v>6.0964568919749801E-2</v>
+        <v>4.4716267787489219</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>6.493752953045373E-2</v>
+        <v>4.7739511565789572</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32">
-        <v>5.54769072649361E-2</v>
+        <v>4.3218773620190305</v>
       </c>
       <c r="C32">
-        <v>7.2634832402813598E-2</v>
+        <v>4.1272120368946883</v>
       </c>
       <c r="D32">
-        <v>5.3052920531999899E-2</v>
+        <v>5.9717810589678137</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>6.0388220066583197E-2</v>
+        <v>4.8069568192938439</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B33">
-        <v>1.40891703222806E-2</v>
+        <v>4.5569999300376303</v>
       </c>
       <c r="C33">
-        <v>1.8048544679932901E-2</v>
+        <v>5.9963208284504264</v>
       </c>
       <c r="D33">
-        <v>1.3767689979070999E-2</v>
+        <v>3.905992925560116</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>1.5301801660428167E-2</v>
+        <v>4.8197712280160578</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B34">
-        <v>7.2675867550847E-3</v>
+        <v>3.6905673508188968</v>
       </c>
       <c r="C34">
-        <v>5.2094703621152302E-2</v>
+        <v>6.1191179560720492</v>
       </c>
       <c r="D34">
-        <v>5.2596445544446403E-2</v>
+        <v>5.3696750583625406</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>3.73195786402278E-2</v>
+        <v>5.0597867884178287</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>4.8287286296525601E-2</v>
+        <v>2.5694803198973601</v>
       </c>
       <c r="C35">
-        <v>5.1163701252385903E-2</v>
+        <v>6.3648372913965758</v>
       </c>
       <c r="D35">
-        <v>2.0917824872651099E-2</v>
+        <v>6.7883603474772292</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>4.0122937473854203E-2</v>
+        <v>5.2408926529237219</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>4.6410645375845799E-2</v>
+        <v>3.0792105331427635</v>
       </c>
       <c r="C36">
-        <v>5.2670062699560503E-2</v>
+        <v>8.6144519022034647</v>
       </c>
       <c r="D36">
-        <v>2.6010946830434201E-2</v>
+        <v>8.3143710814693002</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>4.1697218301946837E-2</v>
+        <v>6.6693445056051761</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>1.5920534009729301E-2</v>
+        <v>4.8003390563447974</v>
       </c>
       <c r="C37">
-        <v>2.1846132076059802E-2</v>
+        <v>9.1966592469145461</v>
       </c>
       <c r="D37">
-        <v>2.66681319645053E-2</v>
+        <v>8.0057961740350727</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>2.1478266016764797E-2</v>
+        <v>7.334264825764806</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38">
-        <v>3.2814341652442798E-2</v>
+        <v>9.2789793281278925</v>
       </c>
       <c r="C38">
-        <v>1.34370402923462E-2</v>
+        <v>10.120423028756917</v>
       </c>
       <c r="D38">
-        <v>2.99428254978816E-2</v>
+        <v>4.0395278253801798</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>2.5398069147556865E-2</v>
+        <v>7.8129767274216633</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>0.16194874050032301</v>
+        <v>1.4862989020556667</v>
       </c>
       <c r="C39">
-        <v>0.17663470354646499</v>
+        <v>12.198838080225892</v>
       </c>
       <c r="D39">
-        <v>7.0503060778810703E-2</v>
+        <v>12.107945310336067</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0.13636216827519956</v>
+        <v>8.5976940975392093</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>5.3742362165431198E-2</v>
+        <v>1.7662181879611247</v>
       </c>
       <c r="C40">
-        <v>0.15035054894813901</v>
+        <v>12.871656898686179</v>
       </c>
       <c r="D40">
-        <v>0.14511315060424099</v>
+        <v>12.749275877138965</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.11640202057260374</v>
+        <v>9.1290503212620902</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B41">
-        <v>8.3781721745294302E-2</v>
+        <v>10.455750202551174</v>
       </c>
       <c r="C41">
-        <v>0.160511984042641</v>
+        <v>11.696573664580123</v>
       </c>
       <c r="D41">
-        <v>0.13972750248047699</v>
+        <v>5.2352002036560981</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>0.1280070694228041</v>
+        <v>9.1291746902624666</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>7.6270296205724494E-2</v>
+        <v>15.747907546302615</v>
       </c>
       <c r="C42">
-        <v>7.7066876212832106E-2</v>
+        <v>7.190427391949008</v>
       </c>
       <c r="D42">
-        <v>1.7607827210048801E-2</v>
+        <v>14.897999091595688</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>5.6981666542868466E-2</v>
+        <v>12.612111343282438</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B43">
-        <v>4.48458916474061E-2</v>
+        <v>14.2773748909527</v>
       </c>
       <c r="C43">
-        <v>0.111087367088588</v>
+        <v>16.737116685115989</v>
       </c>
       <c r="D43">
-        <v>0.118479238875304</v>
+        <v>8.7555710867971808</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>9.1470832537099367E-2</v>
+        <v>13.256687554288623</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>2.34857986598761E-2</v>
+        <v>22.951983235726946</v>
       </c>
       <c r="C44">
-        <v>3.7567907864668702E-2</v>
+        <v>22.971598277384146</v>
       </c>
       <c r="D44">
-        <v>4.0246811652738301E-2</v>
+        <v>1.1380360427223408</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>3.3766839392427701E-2</v>
+        <v>15.687205851944478</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>4.3537158943601398E-2</v>
+        <v>24.204192794938873</v>
       </c>
       <c r="C45">
-        <v>7.7479627765159195E-2</v>
+        <v>28.060726506120588</v>
       </c>
       <c r="D45">
-        <v>8.8778941088413305E-2</v>
+        <v>14.097535404336213</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>6.9931909265724637E-2</v>
+        <v>22.120818235131892</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B46">
-        <v>2.10287324329867E-2</v>
+        <v>38.453997236120614</v>
       </c>
       <c r="C46">
-        <v>3.9429626092844998E-2</v>
+        <v>38.709946545061747</v>
       </c>
       <c r="D46">
-        <v>3.3567861720004803E-2</v>
+        <v>16.069017931893129</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>3.1342073415278837E-2</v>
+        <v>31.077653904358499</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E46">
+    <sortCondition ref="E2:E46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15315" windowHeight="5955" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15315" windowHeight="5955" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yudb_outdoor_raw" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="yudb_outdoor_interm" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="yudb_outdoor_forMe" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="yudb_outdoor_3axis" sheetId="5" r:id="rId3"/>
     <sheet name="yudb_outdoor_charts" sheetId="4" r:id="rId4"/>
     <sheet name="yudb_indoor_raw" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="yudb_indoor_charts" sheetId="6" r:id="rId6"/>
+    <sheet name="yudb_indoor_3axis" sheetId="7" r:id="rId6"/>
+    <sheet name="yudb_indoor_charts" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">yudb_indoor_charts!$A$2:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">yudb_indoor_3axis!$A$2:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">yudb_indoor_charts!$A$2:$E$46</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="114">
   <si>
     <t>P1020171</t>
   </si>
@@ -356,6 +358,15 @@
   <si>
     <t>P1080092</t>
   </si>
+  <si>
+    <t>ось X</t>
+  </si>
+  <si>
+    <t>ось Y</t>
+  </si>
+  <si>
+    <t>ось Z</t>
+  </si>
 </sst>
 </file>
 
@@ -1070,6 +1081,237 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean vs Z</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_charts!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77692475084267687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9615094909927411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.146094231142806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3306789712928699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5152637114429339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.699848451592999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.884433191743062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.069017931893129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean vs Z</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77692475084267687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9615094909927411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.146094231142806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3306789712928699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5152637114429339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.699848451592999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.884433191743062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.069017931893129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_charts!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="75421184"/>
+        <c:axId val="75422720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75421184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75422720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75422720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75421184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
@@ -2247,6 +2489,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Диаграмма распределения углов абсолютного отклонения осей координат</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от верных значений</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2256,51 +2521,51 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>yudb_outdoor_forMe!$G$1</c:f>
+              <c:f>yudb_outdoor_3axis!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x</c:v>
+                  <c:v>ось X</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$F$2:$F$10</c:f>
+              <c:f>yudb_outdoor_3axis!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
+                  <c:v>0.39419540124627744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
+                  <c:v>7.0408578466579126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
+                  <c:v>13.687520292069546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
+                  <c:v>20.334182737481182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
+                  <c:v>26.980845182892818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
+                  <c:v>33.62750762830445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
+                  <c:v>40.274170073716085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
+                  <c:v>46.920832519127721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$G$2:$G$10</c:f>
+              <c:f>yudb_outdoor_3axis!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2341,51 +2606,51 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>yudb_outdoor_forMe!$H$1</c:f>
+              <c:f>yudb_outdoor_3axis!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y</c:v>
+                  <c:v>ось Y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$F$2:$F$10</c:f>
+              <c:f>yudb_outdoor_3axis!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
+                  <c:v>0.39419540124627744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
+                  <c:v>7.0408578466579126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
+                  <c:v>13.687520292069546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
+                  <c:v>20.334182737481182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
+                  <c:v>26.980845182892818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
+                  <c:v>33.62750762830445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
+                  <c:v>40.274170073716085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
+                  <c:v>46.920832519127721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$H$2:$H$10</c:f>
+              <c:f>yudb_outdoor_3axis!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2426,51 +2691,51 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>yudb_outdoor_forMe!$I$1</c:f>
+              <c:f>yudb_outdoor_3axis!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>z</c:v>
+                  <c:v>ось Z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$F$2:$F$10</c:f>
+              <c:f>yudb_outdoor_3axis!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
+                  <c:v>0.39419540124627744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
+                  <c:v>7.0408578466579126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
+                  <c:v>13.687520292069546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
+                  <c:v>20.334182737481182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
+                  <c:v>26.980845182892818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
+                  <c:v>33.62750762830445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
+                  <c:v>40.274170073716085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
+                  <c:v>46.920832519127721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>yudb_outdoor_forMe!$I$2:$I$10</c:f>
+              <c:f>yudb_outdoor_3axis!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2506,91 +2771,9 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yudb_outdoor_forMe!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>yudb_outdoor_forMe!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6.8800076479676999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12288615158905859</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23889229553014948</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35489843947124039</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47090458341233127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5869107273534222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70291687129451308</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81892301523560396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>yudb_outdoor_forMe!$J$2:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="b"/>
+        </c:dLbls>
         <c:axId val="75056256"/>
         <c:axId val="75057792"/>
       </c:scatterChart>
@@ -2600,8 +2783,36 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:t>Абсолютная величина угла между вычисленным направлением оси и верным</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="75057792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2613,8 +2824,36 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:t>Количество изображений на интервале</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="75056256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2622,12 +2861,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3348,6 +3598,401 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Диаграмма распределения углов абсолютного отклонения осей координат</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от верных значений</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_3axis!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ось X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13453294649086753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6453063177152787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.156079688939691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666853060164105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.177626431388514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.688399802612924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.199173173837337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.709946545061747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_3axis!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ось Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13453294649086753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6453063177152787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.156079688939691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666853060164105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.177626431388514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.688399802612924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.199173173837337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.709946545061747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yudb_indoor_3axis!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ось Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13453294649086753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6453063177152787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.156079688939691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666853060164105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.177626431388514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.688399802612924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.199173173837337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.709946545061747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yudb_indoor_3axis!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="60462208"/>
+        <c:axId val="60463744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60462208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:t>Абсолютная величина угла между вычисленным направлением оси и верным</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60463744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60463744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:t>Количество изображений на интервале</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60462208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Mean vs X</a:t>
             </a:r>
@@ -3573,7 +4218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -3786,237 +4431,6 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="75365760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mean vs Z</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yudb_indoor_charts!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.77692475084267687</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9615094909927411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.146094231142806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3306789712928699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5152637114429339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.699848451592999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.884433191743062</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.069017931893129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>yudb_indoor_charts!$I$2:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Mean vs Z</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>yudb_indoor_charts!$X$2:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.77692475084267687</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9615094909927411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.146094231142806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3306789712928699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5152637114429339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.699848451592999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.884433191743062</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.069017931893129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>yudb_indoor_charts!$M$2:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="75421184"/>
-        <c:axId val="75422720"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="75421184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75422720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="75422720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75421184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4109,15 +4523,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>585106</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>176894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4236,6 +4650,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7911,8 +8360,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7928,13 +8377,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>62</v>
@@ -7944,7 +8393,7 @@
       </c>
       <c r="Q1">
         <f>MIN(B$2:E$58)</f>
-        <v>6.8800076479676999E-3</v>
+        <v>0.39419540124627744</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -7952,21 +8401,20 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.9565232164372101E-2</v>
+        <v>1.1210052282121303</v>
       </c>
       <c r="C2">
-        <v>2.0504633680462798E-2</v>
+        <v>1.1748289703523183</v>
       </c>
       <c r="D2">
-        <v>6.8800076479676999E-3</v>
+        <v>0.39419540124627744</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">SUM(B2:D2) / 3</f>
-        <v>1.5649957830934199E-2</v>
+        <v>0.89667653327024199</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">Q$1 +Q$3 * $L2</f>
-        <v>6.8800076479676999E-3</v>
+        <f t="shared" ref="F2:F9" si="0">Q$1 +Q$3 * $L2</f>
+        <v>0.39419540124627744</v>
       </c>
       <c r="G2">
         <f t="array" ref="G2:G10">FREQUENCY(B$2:B$58, $F$2:$F$9)</f>
@@ -7989,7 +8437,7 @@
       </c>
       <c r="Q2">
         <f>MAX(B$2:E$58)</f>
-        <v>0.81892301523560396</v>
+        <v>46.920832519127721</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -7997,21 +8445,20 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>2.39269954357046E-2</v>
+        <v>1.3709158548946578</v>
       </c>
       <c r="C3">
-        <v>2.46483419890372E-2</v>
+        <v>1.4122459679669244</v>
       </c>
       <c r="D3">
-        <v>2.0721057928858901E-2</v>
+        <v>1.1872291663697059</v>
       </c>
       <c r="E3">
+        <v>1.323463663077096</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>2.3098798451200234E-2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0.12288615158905859</v>
+        <v>7.0408578466579126</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -8030,7 +8477,7 @@
       </c>
       <c r="Q3">
         <f>(Q2 - Q1) /$P$1</f>
-        <v>0.11600614394109089</v>
+        <v>6.6466624454116348</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -8038,21 +8485,20 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>3.66924593685636E-2</v>
+        <v>2.1023230617739519</v>
       </c>
       <c r="C4">
-        <v>5.76146126172314E-2</v>
+        <v>3.3010741412485411</v>
       </c>
       <c r="D4">
-        <v>5.9233054651864403E-2</v>
+        <v>3.3938040392195781</v>
       </c>
       <c r="E4">
+        <v>2.9324004140806901</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>5.118004221255313E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.23889229553014948</v>
+        <v>13.687520292069546</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -8075,21 +8521,20 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.2261768078036599E-2</v>
+        <v>1.2755053553705593</v>
       </c>
       <c r="C5">
-        <v>7.2214911764759304E-2</v>
+        <v>4.1376096620303437</v>
       </c>
       <c r="D5">
-        <v>7.19410610097099E-2</v>
+        <v>4.1219191695495416</v>
       </c>
       <c r="E5">
+        <v>3.1783447289834816</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>5.5472580284168599E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.35489843947124039</v>
+        <v>20.334182737481182</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -8112,21 +8557,20 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>3.0082006759730998E-2</v>
+        <v>1.7235720266165993</v>
       </c>
       <c r="C6">
-        <v>6.6779006376605707E-2</v>
+        <v>3.826155225456719</v>
       </c>
       <c r="D6">
-        <v>7.0493720169324106E-2</v>
+        <v>4.0389926478785183</v>
       </c>
       <c r="E6">
+        <v>3.1962399666506123</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>5.5784911101886936E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.47090458341233127</v>
+        <v>26.980845182892818</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -8149,21 +8593,20 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.6814148090813202E-2</v>
+        <v>0.96337972171154729</v>
       </c>
       <c r="C7">
-        <v>8.0282017189908905E-2</v>
+        <v>4.5998207557785058</v>
       </c>
       <c r="D7">
-        <v>7.8877329818613007E-2</v>
+        <v>4.5193380978679247</v>
       </c>
       <c r="E7">
+        <v>3.3608461917859929</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>5.8657831699778375E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.5869107273534222</v>
+        <v>33.62750762830445</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8186,21 +8629,20 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>7.5683786828808802E-2</v>
+        <v>4.3363615628585528</v>
       </c>
       <c r="C8">
-        <v>8.4851547729877894E-2</v>
+        <v>4.8616355700748644</v>
       </c>
       <c r="D8">
-        <v>3.9390816672038698E-2</v>
+        <v>2.2569275468813763</v>
       </c>
       <c r="E8">
+        <v>3.8183082266049313</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>6.6642050410241793E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.70291687129451308</v>
+        <v>40.274170073716085</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8223,21 +8665,20 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>3.0169254574166401E-2</v>
+        <v>1.7285709581554884</v>
       </c>
       <c r="C9">
-        <v>8.3159783704202295E-2</v>
+        <v>4.7647046314715906</v>
       </c>
       <c r="D9">
-        <v>8.8365524456744005E-2</v>
+        <v>5.0629716058314882</v>
       </c>
       <c r="E9">
+        <v>3.8520823984861896</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>6.7231520911704243E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.81892301523560396</v>
+        <v>46.920832519127721</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8260,17 +8701,16 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>9.6167601568129105E-2</v>
+        <v>5.5099976957494752</v>
       </c>
       <c r="C10">
-        <v>9.5155288001719004E-2</v>
+        <v>5.4519964008503399</v>
       </c>
       <c r="D10">
-        <v>1.44371923784062E-2</v>
+        <v>0.82719019130111426</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6.858669398275144E-2</v>
+        <v>3.9297280959669765</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8290,17 +8730,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.0583456342337003E-2</v>
+        <v>2.3252607664693432</v>
       </c>
       <c r="C11">
-        <v>9.3526978512517803E-2</v>
+        <v>5.3587011393780077</v>
       </c>
       <c r="D11">
-        <v>8.8969693113070999E-2</v>
+        <v>5.0975879199531144</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>7.4360042655975275E-2</v>
+        <v>4.260516608600156</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -8308,17 +8747,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3.27457523597929E-2</v>
+        <v>1.8761934071966893</v>
       </c>
       <c r="C12">
-        <v>9.9795982111292203E-2</v>
+        <v>5.7178885873401057</v>
       </c>
       <c r="D12">
-        <v>9.4333494032757495E-2</v>
+        <v>5.4049110747995401</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>7.5625076167947544E-2</v>
+        <v>4.3329976897787787</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -8326,17 +8764,16 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>9.3622797858686796E-2</v>
+        <v>5.3641911835091944</v>
       </c>
       <c r="C13">
-        <v>6.3894294958753706E-2</v>
+        <v>3.6608734361005997</v>
       </c>
       <c r="D13">
-        <v>8.2641929238977202E-2</v>
+        <v>4.7350337562121894</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>8.005300735213923E-2</v>
+        <v>4.5866994586073275</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -8344,17 +8781,16 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>4.7488878854939097E-2</v>
+        <v>2.7209123321960678</v>
       </c>
       <c r="C14">
-        <v>0.104501879711214</v>
+        <v>5.9875166586363679</v>
       </c>
       <c r="D14">
-        <v>9.30709997573963E-2</v>
+        <v>5.3325754811619168</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>8.1687252774516467E-2</v>
+        <v>4.680334823998118</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -8362,17 +8798,16 @@
         <v>55</v>
       </c>
       <c r="B15">
-        <v>4.6248129902809E-2</v>
+        <v>2.6498226538037337</v>
       </c>
       <c r="C15">
-        <v>0.11057809641814099</v>
+        <v>6.3356582313501644</v>
       </c>
       <c r="D15">
-        <v>0.104229179761008</v>
+        <v>5.9718921024161364</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>8.7018468693985995E-2</v>
+        <v>4.9857909958566786</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -8380,17 +8815,16 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>8.7191311790792106E-2</v>
+        <v>4.9956941758216393</v>
       </c>
       <c r="C16">
-        <v>0.110418900996724</v>
+        <v>6.3265370055851644</v>
       </c>
       <c r="D16">
-        <v>6.8768314811834597E-2</v>
+        <v>3.9401342029451083</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>8.8792842533116909E-2</v>
+        <v>5.0874551281173046</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8398,17 +8832,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.122706228786875</v>
+        <v>7.0305490294546251</v>
       </c>
       <c r="C17">
-        <v>0.121454859724503</v>
+        <v>6.9588508635674664</v>
       </c>
       <c r="D17">
-        <v>3.7996491509359097E-2</v>
+        <v>2.1770385997909432</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>9.4052526673579037E-2</v>
+        <v>5.3888128309376784</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8416,17 +8849,16 @@
         <v>44</v>
       </c>
       <c r="B18">
-        <v>0.107348842734351</v>
+        <v>6.1506356242919242</v>
       </c>
       <c r="C18">
-        <v>0.12727564622609699</v>
+        <v>7.2923573635555217</v>
       </c>
       <c r="D18">
-        <v>6.8330619833880904E-2</v>
+        <v>3.9150561279942901</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.1009850362647763</v>
+        <v>5.7860163719472455</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8434,17 +8866,16 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>5.9514295458887402E-2</v>
+        <v>3.409917950488849</v>
       </c>
       <c r="C19">
-        <v>0.16218629449737401</v>
+        <v>9.2925901695653774</v>
       </c>
       <c r="D19">
-        <v>0.151039451347665</v>
+        <v>8.6539231021927385</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.12424668043464214</v>
+        <v>7.1188104074156557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8452,17 +8883,16 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>7.5709840070607506E-2</v>
+        <v>4.3378543036562531</v>
       </c>
       <c r="C20">
-        <v>0.15839073659813999</v>
+        <v>9.0751207210417277</v>
       </c>
       <c r="D20">
-        <v>0.13999091983613099</v>
+        <v>8.020888876764543</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.12469716550162617</v>
+        <v>7.1446213004875085</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8470,17 +8900,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.12621343014479899</v>
+        <v>7.2314968651662213</v>
       </c>
       <c r="C21">
-        <v>9.1855048421483398E-2</v>
+        <v>5.2629066015208137</v>
       </c>
       <c r="D21">
-        <v>0.15608016346148901</v>
+        <v>8.9427346320553216</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.12471621400925714</v>
+        <v>7.1457126995807858</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8488,17 +8917,16 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.14864168688182</v>
+        <v>8.5165413180333793</v>
       </c>
       <c r="C22">
-        <v>0.16165960480956501</v>
+        <v>9.2624130733408592</v>
       </c>
       <c r="D22">
-        <v>0.111345291278063</v>
+        <v>6.3796152588878261</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0.140548860989816</v>
+        <v>8.0528565500873555</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8506,17 +8934,16 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>0.115076885759176</v>
+        <v>6.5934198735099114</v>
       </c>
       <c r="C23">
-        <v>0.173090065815034</v>
+        <v>9.9173302468430968</v>
       </c>
       <c r="D23">
-        <v>0.13595621083047099</v>
+        <v>7.7897170791768007</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0.141374387468227</v>
+        <v>8.100155733176603</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8524,17 +8951,16 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>0.12155871504374</v>
+        <v>6.9648013350397298</v>
       </c>
       <c r="C24">
-        <v>0.176161646036017</v>
+        <v>10.093318829941282</v>
       </c>
       <c r="D24">
-        <v>0.127361747547523</v>
+        <v>7.297290605883731</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0.14169403620909332</v>
+        <v>8.1184702569549145</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8542,17 +8968,16 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.175035288820028</v>
+        <v>10.028783315241007</v>
       </c>
       <c r="C25">
-        <v>8.7620683330971602E-2</v>
+        <v>5.0202953529169569</v>
       </c>
       <c r="D25">
-        <v>0.18549753299198199</v>
+        <v>10.628225750529314</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0.14938450171432718</v>
+        <v>8.5591014728957582</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8560,17 +8985,16 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>0.165511964699155</v>
+        <v>9.4831370361798495</v>
       </c>
       <c r="C26">
-        <v>0.18654840809932799</v>
+        <v>10.688436458975596</v>
       </c>
       <c r="D26">
-        <v>9.8985878863429605E-2</v>
+        <v>5.6714730902677388</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0.15034875055397087</v>
+        <v>8.6143488618077289</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8578,17 +9002,16 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>8.8041174508344394E-2</v>
+        <v>5.0443877227029041</v>
       </c>
       <c r="C27">
-        <v>0.207943627654575</v>
+        <v>11.914292241247017</v>
       </c>
       <c r="D27">
-        <v>0.18893162605986799</v>
+        <v>10.824984789774314</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0.16163880940759578</v>
+        <v>9.261221584574745</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8596,17 +9019,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>9.5266877484380896E-2</v>
+        <v>5.4583900072449145</v>
       </c>
       <c r="C28">
-        <v>0.21538556760368799</v>
+        <v>12.340683991720994</v>
       </c>
       <c r="D28">
-        <v>0.19455494375698401</v>
+        <v>11.147177160680288</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0.16840246294835096</v>
+        <v>9.6487503865487323</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8614,17 +9036,16 @@
         <v>50</v>
       </c>
       <c r="B29">
-        <v>0.15290151341855299</v>
+        <v>8.7606114000460096</v>
       </c>
       <c r="C29">
-        <v>0.24298595276132601</v>
+        <v>13.922069574189171</v>
       </c>
       <c r="D29">
-        <v>0.188616467666125</v>
+        <v>10.806927543934719</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0.1948346446153347</v>
+        <v>11.163202839389969</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8632,17 +9053,16 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>9.8560076810135705E-2</v>
+        <v>5.6470764297059937</v>
       </c>
       <c r="C30">
-        <v>0.26286133372432902</v>
+        <v>15.060845019583907</v>
       </c>
       <c r="D30">
-        <v>0.24356413354249201</v>
+        <v>13.95519689274556</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0.20166184802565223</v>
+        <v>11.554372780678486</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8650,17 +9070,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.29159614975891102</v>
+        <v>16.707228703450298</v>
       </c>
       <c r="C31">
-        <v>0.29133131747289198</v>
+        <v>16.692054931182607</v>
       </c>
       <c r="D31">
-        <v>3.4580700295362102E-2</v>
+        <v>1.9813281795310478</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.20583605584238837</v>
+        <v>11.793537271387985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8668,17 +9087,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.16819822606655599</v>
+        <v>9.6370484752009684</v>
       </c>
       <c r="C32">
-        <v>0.26737186595878798</v>
+        <v>15.319279479976117</v>
       </c>
       <c r="D32">
-        <v>0.20756249457879999</v>
+        <v>11.89245492457227</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0.21437752886804798</v>
+        <v>12.282927626583117</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8686,17 +9104,16 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.258110132106037</v>
+        <v>14.788621219240047</v>
       </c>
       <c r="C33">
-        <v>0.27595097695689502</v>
+        <v>15.810826332141918</v>
       </c>
       <c r="D33">
-        <v>0.109796555689871</v>
+        <v>6.2908792461027128</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0.21461922158426769</v>
+        <v>12.29677559916156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8704,17 +9121,16 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>7.7253112427583606E-2</v>
+        <v>4.4262772963501904</v>
       </c>
       <c r="C34">
-        <v>0.30196094259784101</v>
+        <v>17.301087588648407</v>
       </c>
       <c r="D34">
-        <v>0.29191796211861498</v>
+        <v>16.725667193456481</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="2">SUM(B34:D34) / 3</f>
-        <v>0.22371067238134654</v>
+        <v>12.817677359485026</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8722,17 +9138,16 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>0.193348247204187</v>
+        <v>11.078038541052035</v>
       </c>
       <c r="C35">
-        <v>0.27888675052386402</v>
+        <v>15.979033767135309</v>
       </c>
       <c r="D35">
-        <v>0.20035461640205399</v>
+        <v>11.479473925800272</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0.22419653804336834</v>
+        <v>12.845515411329206</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8740,17 +9155,16 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>0.123909383225261</v>
+        <v>7.0994847008765758</v>
       </c>
       <c r="C36">
-        <v>0.29203437299271401</v>
+        <v>16.732337045231784</v>
       </c>
       <c r="D36">
-        <v>0.26439120745510603</v>
+        <v>15.148500327545362</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>0.22677832122436037</v>
+        <v>12.993440691217909</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8758,17 +9172,16 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>0.24688866161589701</v>
+        <v>14.145678320224427</v>
       </c>
       <c r="C37">
-        <v>0.28773430175234899</v>
+        <v>16.485961111553284</v>
       </c>
       <c r="D37">
-        <v>0.147846183179939</v>
+        <v>8.470962313328565</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>0.22748971551606167</v>
+        <v>13.034200581702093</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8776,17 +9189,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.214882714471054</v>
+        <v>12.311872629506134</v>
       </c>
       <c r="C38">
-        <v>0.28337538305940801</v>
+        <v>16.236213467207087</v>
       </c>
       <c r="D38">
-        <v>0.184359307759838</v>
+        <v>10.563010248592166</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>0.22753913509676668</v>
+        <v>13.037032115101795</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8794,17 +9206,16 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.242914462611554</v>
+        <v>13.917973490330478</v>
       </c>
       <c r="C39">
-        <v>0.293884336426813</v>
+        <v>16.838332142259183</v>
       </c>
       <c r="D39">
-        <v>0.170015739317874</v>
+        <v>9.7411843137105905</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0.23560484611874699</v>
+        <v>13.499163315433417</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8812,17 +9223,16 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>0.23128286703943601</v>
+        <v>13.25153215504506</v>
       </c>
       <c r="C40">
-        <v>0.30534264327565902</v>
+        <v>17.49484476506391</v>
       </c>
       <c r="D40">
-        <v>0.209546718062712</v>
+        <v>12.006142555811172</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.24872407612593564</v>
+        <v>14.250839825306711</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8830,17 +9240,16 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>0.216039771625544</v>
+        <v>12.378167121113828</v>
       </c>
       <c r="C41">
-        <v>0.310784984669217</v>
+        <v>17.806667957584128</v>
       </c>
       <c r="D41">
-        <v>0.22329857609460799</v>
+        <v>12.794065981501895</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>0.25004111079645636</v>
+        <v>14.326300353399951</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -8848,17 +9257,16 @@
         <v>31</v>
       </c>
       <c r="B42">
-        <v>0.167131313163075</v>
+        <v>9.5759188687234591</v>
       </c>
       <c r="C42">
-        <v>0.31656823120362299</v>
+        <v>18.13802357588925</v>
       </c>
       <c r="D42">
-        <v>0.27034538822387</v>
+        <v>15.489649756053497</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>0.25134831086352266</v>
+        <v>14.401197400222069</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8866,17 +9274,16 @@
         <v>34</v>
       </c>
       <c r="B43">
-        <v>0.32078505465655399</v>
+        <v>18.37962976269398</v>
       </c>
       <c r="C43">
-        <v>0.33455041684435999</v>
+        <v>19.168326919524233</v>
       </c>
       <c r="D43">
-        <v>0.108127159858925</v>
+        <v>6.1952299106527722</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>0.25448754378661298</v>
+        <v>14.581062197623661</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8884,17 +9291,16 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>0.228786904505591</v>
+        <v>13.108524036032962</v>
       </c>
       <c r="C44">
-        <v>0.321287544273403</v>
+        <v>18.408420296988574</v>
       </c>
       <c r="D44">
-        <v>0.225068956141243</v>
+        <v>12.895501286308255</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>0.25838113497341236</v>
+        <v>14.804148539776598</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8902,17 +9308,16 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>0.31424584817048701</v>
+        <v>18.004960829677767</v>
       </c>
       <c r="C45">
-        <v>0.135753043747423</v>
+        <v>7.7780764627821668</v>
       </c>
       <c r="D45">
-        <v>0.33582661427002503</v>
+        <v>19.241447645840299</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>0.26194183539597832</v>
+        <v>15.008161646100076</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8920,17 +9325,16 @@
         <v>28</v>
       </c>
       <c r="B46">
-        <v>0.25617902336799397</v>
+        <v>14.677976838769347</v>
       </c>
       <c r="C46">
-        <v>0.34703512730541403</v>
+        <v>19.883648137385457</v>
       </c>
       <c r="D46">
-        <v>0.233515143905453</v>
+        <v>13.379432198172525</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>0.27890976485962032</v>
+        <v>15.980352391442443</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -8938,17 +9342,16 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>0.319790218329562</v>
+        <v>18.322629839851043</v>
       </c>
       <c r="C47">
-        <v>0.36564931715135601</v>
+        <v>20.950162654613205</v>
       </c>
       <c r="D47">
-        <v>0.17628096565323001</v>
+        <v>10.100155340420704</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
-        <v>0.287240167044716</v>
+        <v>16.457649278294983</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -8956,17 +9359,16 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.32130013957834302</v>
+        <v>18.409141954803317</v>
       </c>
       <c r="C48">
-        <v>0.25325499106434302</v>
+        <v>14.510442128610231</v>
       </c>
       <c r="D48">
-        <v>0.33475798981312199</v>
+        <v>19.180219974575294</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
-        <v>0.30310437348526936</v>
+        <v>17.366601352662951</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8974,17 +9376,16 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>0.34574875527850901</v>
+        <v>19.80994444936011</v>
       </c>
       <c r="C49">
-        <v>0.40185611629226797</v>
+        <v>23.024659435065356</v>
       </c>
       <c r="D49">
-        <v>0.205591313462125</v>
+        <v>11.779514565930908</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
-        <v>0.31773206167763401</v>
+        <v>18.204706150118792</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8992,17 +9393,16 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>0.21363980518192799</v>
+        <v>12.240659172921609</v>
       </c>
       <c r="C50">
-        <v>0.45062464983771799</v>
+        <v>25.818890580261819</v>
       </c>
       <c r="D50">
-        <v>0.395353600443624</v>
+        <v>22.652092720721125</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
-        <v>0.35320601848775662</v>
+        <v>20.237214157968182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9010,17 +9410,16 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>0.27420464056208199</v>
+        <v>15.71076862710904</v>
       </c>
       <c r="C51">
-        <v>0.46780167059264799</v>
+        <v>26.803061374127925</v>
       </c>
       <c r="D51">
-        <v>0.37815204027779797</v>
+        <v>21.666515922178938</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
-        <v>0.37338611714417597</v>
+        <v>21.393448641138633</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9028,17 +9427,16 @@
         <v>41</v>
       </c>
       <c r="B52">
-        <v>0.50456430143220399</v>
+        <v>28.909404965031968</v>
       </c>
       <c r="C52">
-        <v>0.169445604839324</v>
+        <v>9.708518014334782</v>
       </c>
       <c r="D52">
-        <v>0.47980279009076598</v>
+        <v>27.490674870802248</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
-        <v>0.38460423212076461</v>
+        <v>22.036199283389664</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9046,17 +9444,16 @@
         <v>46</v>
       </c>
       <c r="B53">
-        <v>0.60159841243019796</v>
+        <v>34.469049994020985</v>
       </c>
       <c r="C53">
-        <v>6.2298860167010202E-2</v>
+        <v>3.5694617560453636</v>
       </c>
       <c r="D53">
-        <v>0.60164343165351997</v>
+        <v>34.471629405514292</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
-        <v>0.42184690141690934</v>
+        <v>24.170047051860212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9064,17 +9461,16 @@
         <v>21</v>
       </c>
       <c r="B54">
-        <v>0.61559888504547799</v>
+        <v>35.271217986065018</v>
       </c>
       <c r="C54">
-        <v>0.20008680641600099</v>
+        <v>11.464129543887978</v>
       </c>
       <c r="D54">
-        <v>0.60068362841715806</v>
+        <v>34.416636730907761</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
-        <v>0.47212310662621232</v>
+        <v>27.050661420286918</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9082,17 +9478,16 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0.56144638587108397</v>
+        <v>32.168508333286567</v>
       </c>
       <c r="C55">
-        <v>0.35368944834274602</v>
+        <v>20.264912648349696</v>
       </c>
       <c r="D55">
-        <v>0.56293994201440001</v>
+        <v>32.254082796764408</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>0.49269192540941004</v>
+        <v>28.22916792613356</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9100,17 +9495,16 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>0.72813606806641595</v>
+        <v>41.71912361145607</v>
       </c>
       <c r="C56">
-        <v>5.9118187479932902E-2</v>
+        <v>3.3872226350632992</v>
       </c>
       <c r="D56">
-        <v>0.72934353653198802</v>
+        <v>41.788306458428487</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>0.50553259735944567</v>
+        <v>28.964884234982623</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9118,17 +9512,16 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>0.74490406437344303</v>
+        <v>42.679859030739671</v>
       </c>
       <c r="C57">
-        <v>0.37735710981569698</v>
+        <v>21.620969761694166</v>
       </c>
       <c r="D57">
-        <v>0.81892301523560396</v>
+        <v>46.920832519127721</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
-        <v>0.64706139647491467</v>
+        <v>37.073887103853856</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9136,17 +9529,16 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>0.80399353499798298</v>
+        <v>46.065436311188066</v>
       </c>
       <c r="C58">
-        <v>0.77505735797830999</v>
+        <v>44.407515492717366</v>
       </c>
       <c r="D58">
-        <v>0.40471685175412803</v>
+        <v>23.188567503333346</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
-        <v>0.66125591491014035</v>
+        <v>37.88717310241293</v>
       </c>
     </row>
   </sheetData>
@@ -9163,8 +9555,8 @@
   </sheetPr>
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12326,10 +12718,1003 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <f>MIN($B$2:$D$46)</f>
+        <v>0.13453294649086753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>0.70602565632374648</v>
+      </c>
+      <c r="C2">
+        <v>0.37286313970459789</v>
+      </c>
+      <c r="D2">
+        <v>0.77692475084267687</v>
+      </c>
+      <c r="E2">
+        <v>0.61860451562367369</v>
+      </c>
+      <c r="F2">
+        <f>Q$1 +Q$3 * $M2</f>
+        <v>0.13453294649086753</v>
+      </c>
+      <c r="G2">
+        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$46, $F$2:$F$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$46, $F$2:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$46, $F$2:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$46, $F$2:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>MAX($B$2:$D$46)</f>
+        <v>38.709946545061747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>0.80724999630765226</v>
+      </c>
+      <c r="C3">
+        <v>1.0341054365134505</v>
+      </c>
+      <c r="D3">
+        <v>0.78883052944532495</v>
+      </c>
+      <c r="E3">
+        <v>0.87672865408880929</v>
+      </c>
+      <c r="F3">
+        <f>Q$1 +Q$3 * $M3</f>
+        <v>5.6453063177152787</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>(Q2 - Q1) /$P$1</f>
+        <v>5.5107733712244116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0.5269495469110983</v>
+      </c>
+      <c r="C4">
+        <v>1.2664799880902653</v>
+      </c>
+      <c r="D4">
+        <v>1.2204449364785015</v>
+      </c>
+      <c r="E4">
+        <v>1.0046248238266215</v>
+      </c>
+      <c r="F4">
+        <f>Q$1 +Q$3 * $M4</f>
+        <v>11.156079688939691</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>0.91217940635197847</v>
+      </c>
+      <c r="C5">
+        <v>1.2516911666435977</v>
+      </c>
+      <c r="D5">
+        <v>1.5279714090640786</v>
+      </c>
+      <c r="E5">
+        <v>1.2306139940198848</v>
+      </c>
+      <c r="F5">
+        <f>Q$1 +Q$3 * $M5</f>
+        <v>16.666853060164105</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>1.1966620499150127</v>
+      </c>
+      <c r="C6">
+        <v>1.466626932643696</v>
+      </c>
+      <c r="D6">
+        <v>1.4108854452912651</v>
+      </c>
+      <c r="E6">
+        <v>1.3580581426166582</v>
+      </c>
+      <c r="F6">
+        <f>Q$1 +Q$3 * $M6</f>
+        <v>22.177626431388514</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1.8801232841853159</v>
+      </c>
+      <c r="C7">
+        <v>0.76988569789867112</v>
+      </c>
+      <c r="D7">
+        <v>1.7155975277253235</v>
+      </c>
+      <c r="E7">
+        <v>1.4552021699364368</v>
+      </c>
+      <c r="F7">
+        <f>Q$1 +Q$3 * $M7</f>
+        <v>27.688399802612924</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0.13453294649086753</v>
+      </c>
+      <c r="C8">
+        <v>2.2554282947891311</v>
+      </c>
+      <c r="D8">
+        <v>2.2528861841648062</v>
+      </c>
+      <c r="E8">
+        <v>1.5476158084816014</v>
+      </c>
+      <c r="F8">
+        <f>Q$1 +Q$3 * $M8</f>
+        <v>33.199173173837337</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>1.9676204430765123</v>
+      </c>
+      <c r="C9">
+        <v>1.8501645086735712</v>
+      </c>
+      <c r="D9">
+        <v>0.95610130930850945</v>
+      </c>
+      <c r="E9">
+        <v>1.5912954203528644</v>
+      </c>
+      <c r="F9">
+        <f>Q$1 +Q$3 * $M9</f>
+        <v>38.709946545061747</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>1.2048576169200091</v>
+      </c>
+      <c r="C10">
+        <v>2.2591511628989247</v>
+      </c>
+      <c r="D10">
+        <v>1.9232968038350315</v>
+      </c>
+      <c r="E10">
+        <v>1.7957685278846554</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>1.3456371417049053</v>
+      </c>
+      <c r="C11">
+        <v>2.1524825657818494</v>
+      </c>
+      <c r="D11">
+        <v>2.3059724465598461</v>
+      </c>
+      <c r="E11">
+        <v>1.9346973846822002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>2.4378413387564217</v>
+      </c>
+      <c r="C12">
+        <v>1.4365879195934923</v>
+      </c>
+      <c r="D12">
+        <v>1.976702439323677</v>
+      </c>
+      <c r="E12">
+        <v>1.9503772325578634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>2.6426527641595876</v>
+      </c>
+      <c r="C13">
+        <v>1.7640865636538721</v>
+      </c>
+      <c r="D13">
+        <v>1.9739952057433363</v>
+      </c>
+      <c r="E13">
+        <v>2.1269115111855985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>0.41640204831153038</v>
+      </c>
+      <c r="C14">
+        <v>2.9848066524769137</v>
+      </c>
+      <c r="D14">
+        <v>3.0135543470864423</v>
+      </c>
+      <c r="E14">
+        <v>2.1382543492916288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>2.7666577089308122</v>
+      </c>
+      <c r="C15">
+        <v>2.9314641460299167</v>
+      </c>
+      <c r="D15">
+        <v>1.1985030817966866</v>
+      </c>
+      <c r="E15">
+        <v>2.2988749789191387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>2.6591341045143144</v>
+      </c>
+      <c r="C16">
+        <v>3.01777229937424</v>
+      </c>
+      <c r="D16">
+        <v>1.4903174745230654</v>
+      </c>
+      <c r="E16">
+        <v>2.3890746261372069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>1.9376986611277673</v>
+      </c>
+      <c r="C17">
+        <v>3.0369599142134076</v>
+      </c>
+      <c r="D17">
+        <v>2.3388809621008018</v>
+      </c>
+      <c r="E17">
+        <v>2.4378465124806592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>3.146841617248763</v>
+      </c>
+      <c r="C18">
+        <v>2.7588645161454179</v>
+      </c>
+      <c r="D18">
+        <v>1.6055209527080763</v>
+      </c>
+      <c r="E18">
+        <v>2.5037423620340857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>2.9755371867890705</v>
+      </c>
+      <c r="C19">
+        <v>3.5761675352014719</v>
+      </c>
+      <c r="D19">
+        <v>2.0824368552822765</v>
+      </c>
+      <c r="E19">
+        <v>2.878047192424273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>0.72438646159210052</v>
+      </c>
+      <c r="C20">
+        <v>4.0844776634258588</v>
+      </c>
+      <c r="D20">
+        <v>4.0620983957945</v>
+      </c>
+      <c r="E20">
+        <v>2.9569875069374865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>4.18105867438031</v>
+      </c>
+      <c r="C21">
+        <v>4.2600488389092819</v>
+      </c>
+      <c r="D21">
+        <v>0.86084465324247106</v>
+      </c>
+      <c r="E21">
+        <v>3.1006507221773543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>2.8539994420047594</v>
+      </c>
+      <c r="C22">
+        <v>3.9394448770925763</v>
+      </c>
+      <c r="D22">
+        <v>2.7282552167252456</v>
+      </c>
+      <c r="E22">
+        <v>3.1738998452741938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>4.3699660748006703</v>
+      </c>
+      <c r="C23">
+        <v>4.4156067472524372</v>
+      </c>
+      <c r="D23">
+        <v>1.0088541855314075</v>
+      </c>
+      <c r="E23">
+        <v>3.2648090025281715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>4.4825051112784813</v>
+      </c>
+      <c r="C24">
+        <v>4.5432597132918691</v>
+      </c>
+      <c r="D24">
+        <v>0.81188313773143228</v>
+      </c>
+      <c r="E24">
+        <v>3.2792159874339277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>3.1785926467194936</v>
+      </c>
+      <c r="C25">
+        <v>4.1616693423212956</v>
+      </c>
+      <c r="D25">
+        <v>3.0397084373265444</v>
+      </c>
+      <c r="E25">
+        <v>3.4599901421224444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>3.0403925027994489</v>
+      </c>
+      <c r="C26">
+        <v>4.6285341205679034</v>
+      </c>
+      <c r="D26">
+        <v>3.4930124989360958</v>
+      </c>
+      <c r="E26">
+        <v>3.7206463741011491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>3.0777409556647148</v>
+      </c>
+      <c r="C27">
+        <v>4.641696722787656</v>
+      </c>
+      <c r="D27">
+        <v>3.5644395602301757</v>
+      </c>
+      <c r="E27">
+        <v>3.7612924128941816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>5.258644864834821</v>
+      </c>
+      <c r="C28">
+        <v>5.0159599054418438</v>
+      </c>
+      <c r="D28">
+        <v>1.5920356373336471</v>
+      </c>
+      <c r="E28">
+        <v>3.9555468025367708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>2.494495459458606</v>
+      </c>
+      <c r="C29">
+        <v>4.4392556691882525</v>
+      </c>
+      <c r="D29">
+        <v>5.0866586340066533</v>
+      </c>
+      <c r="E29">
+        <v>4.0068032542178376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>2.7379329507323957</v>
+      </c>
+      <c r="C30">
+        <v>4.4442879448123245</v>
+      </c>
+      <c r="D30">
+        <v>5.1215235948183837</v>
+      </c>
+      <c r="E30">
+        <v>4.1012481634543683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>4.2775625817408098</v>
+      </c>
+      <c r="C31">
+        <v>5.5726641092471416</v>
+      </c>
+      <c r="D31">
+        <v>4.4716267787489219</v>
+      </c>
+      <c r="E31">
+        <v>4.7739511565789572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>4.3218773620190305</v>
+      </c>
+      <c r="C32">
+        <v>4.1272120368946883</v>
+      </c>
+      <c r="D32">
+        <v>5.9717810589678137</v>
+      </c>
+      <c r="E32">
+        <v>4.8069568192938439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>4.5569999300376303</v>
+      </c>
+      <c r="C33">
+        <v>5.9963208284504264</v>
+      </c>
+      <c r="D33">
+        <v>3.905992925560116</v>
+      </c>
+      <c r="E33">
+        <v>4.8197712280160578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>3.6905673508188968</v>
+      </c>
+      <c r="C34">
+        <v>6.1191179560720492</v>
+      </c>
+      <c r="D34">
+        <v>5.3696750583625406</v>
+      </c>
+      <c r="E34">
+        <v>5.0597867884178287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <v>2.5694803198973601</v>
+      </c>
+      <c r="C35">
+        <v>6.3648372913965758</v>
+      </c>
+      <c r="D35">
+        <v>6.7883603474772292</v>
+      </c>
+      <c r="E35">
+        <v>5.2408926529237219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>3.0792105331427635</v>
+      </c>
+      <c r="C36">
+        <v>8.6144519022034647</v>
+      </c>
+      <c r="D36">
+        <v>8.3143710814693002</v>
+      </c>
+      <c r="E36">
+        <v>6.6693445056051761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>4.8003390563447974</v>
+      </c>
+      <c r="C37">
+        <v>9.1966592469145461</v>
+      </c>
+      <c r="D37">
+        <v>8.0057961740350727</v>
+      </c>
+      <c r="E37">
+        <v>7.334264825764806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>9.2789793281278925</v>
+      </c>
+      <c r="C38">
+        <v>10.120423028756917</v>
+      </c>
+      <c r="D38">
+        <v>4.0395278253801798</v>
+      </c>
+      <c r="E38">
+        <v>7.8129767274216633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39">
+        <v>1.4862989020556667</v>
+      </c>
+      <c r="C39">
+        <v>12.198838080225892</v>
+      </c>
+      <c r="D39">
+        <v>12.107945310336067</v>
+      </c>
+      <c r="E39">
+        <v>8.5976940975392093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>1.7662181879611247</v>
+      </c>
+      <c r="C40">
+        <v>12.871656898686179</v>
+      </c>
+      <c r="D40">
+        <v>12.749275877138965</v>
+      </c>
+      <c r="E40">
+        <v>9.1290503212620902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>10.455750202551174</v>
+      </c>
+      <c r="C41">
+        <v>11.696573664580123</v>
+      </c>
+      <c r="D41">
+        <v>5.2352002036560981</v>
+      </c>
+      <c r="E41">
+        <v>9.1291746902624666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42">
+        <v>15.747907546302615</v>
+      </c>
+      <c r="C42">
+        <v>7.190427391949008</v>
+      </c>
+      <c r="D42">
+        <v>14.897999091595688</v>
+      </c>
+      <c r="E42">
+        <v>12.612111343282438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>14.2773748909527</v>
+      </c>
+      <c r="C43">
+        <v>16.737116685115989</v>
+      </c>
+      <c r="D43">
+        <v>8.7555710867971808</v>
+      </c>
+      <c r="E43">
+        <v>13.256687554288623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44">
+        <v>22.951983235726946</v>
+      </c>
+      <c r="C44">
+        <v>22.971598277384146</v>
+      </c>
+      <c r="D44">
+        <v>1.1380360427223408</v>
+      </c>
+      <c r="E44">
+        <v>15.687205851944478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45">
+        <v>24.204192794938873</v>
+      </c>
+      <c r="C45">
+        <v>28.060726506120588</v>
+      </c>
+      <c r="D45">
+        <v>14.097535404336213</v>
+      </c>
+      <c r="E45">
+        <v>22.120818235131892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>38.453997236120614</v>
+      </c>
+      <c r="C46">
+        <v>38.709946545061747</v>
+      </c>
+      <c r="D46">
+        <v>16.069017931893129</v>
+      </c>
+      <c r="E46">
+        <v>31.077653904358499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E46"/>
+      <selection sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15315" windowHeight="5955" firstSheet="2" activeTab="2"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">yudb_indoor_3axis!$A$2:$E$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">yudb_indoor_charts!$A$2:$E$46</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -371,8 +371,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,28 +407,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -626,6 +654,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -832,6 +861,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1038,40 +1068,57 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66437120"/>
-        <c:axId val="66438656"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="155088512"/>
+        <c:axId val="155089088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66437120"/>
+        <c:axId val="155088512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66438656"/>
+        <c:crossAx val="155089088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66438656"/>
+        <c:axId val="155089088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66437120"/>
+        <c:crossAx val="155088512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1083,7 +1130,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1101,12 +1158,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1269,40 +1328,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75421184"/>
-        <c:axId val="75422720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63044928"/>
+        <c:axId val="63553536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75421184"/>
+        <c:axId val="63044928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75422720"/>
+        <c:crossAx val="63553536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75422720"/>
+        <c:axId val="63553536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75421184"/>
+        <c:crossAx val="63044928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1314,12 +1389,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1693,6 +1780,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2067,6 +2155,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2441,41 +2530,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74995200"/>
-        <c:axId val="74996736"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="61981248"/>
+        <c:axId val="61981824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74995200"/>
+        <c:axId val="61981248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74996736"/>
+        <c:crossAx val="61981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74996736"/>
+        <c:axId val="61981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74995200"/>
+        <c:crossAx val="61981248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2487,7 +2593,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2499,23 +2615,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Диаграмма распределения углов абсолютного отклонения осей координат</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Диаграмма плотности распределения углов абсолютного отклонения осей координат от верных значений</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> от верных значений</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2567,31 +2686,31 @@
             <c:numRef>
               <c:f>yudb_outdoor_3axis!$G$2:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0.43859649122807015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>0.24561403508771928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2652,22 +2771,22 @@
             <c:numRef>
               <c:f>yudb_outdoor_3axis!$H$2:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0.35087719298245612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8.771929824561403E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2676,7 +2795,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2737,31 +2856,31 @@
             <c:numRef>
               <c:f>yudb_outdoor_3axis!$I$2:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.35087719298245612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2772,16 +2891,22 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75056256"/>
-        <c:axId val="75057792"/>
+        <c:axId val="61984128"/>
+        <c:axId val="61984704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75056256"/>
+        <c:axId val="61984128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2793,15 +2918,35 @@
                   <a:defRPr sz="1600" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Абсолютная величина угла между вычисленным направлением оси и верным</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>град</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2810,18 +2955,19 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75057792"/>
+        <c:crossAx val="61984704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75057792"/>
+        <c:axId val="61984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2834,15 +2980,23 @@
                   <a:defRPr sz="1600" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
-                  <a:t>Количество изображений на интервале</a:t>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Количество изображений на интервале, %</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2851,10 +3005,10 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75056256"/>
+        <c:crossAx val="61984128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2862,6 +3016,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2869,11 +3024,13 @@
           <a:pPr>
             <a:defRPr sz="1400"/>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2885,7 +3042,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2904,11 +3071,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3079,31 +3249,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75156480"/>
-        <c:axId val="75174656"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="61987008"/>
+        <c:axId val="61987584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75156480"/>
+        <c:axId val="61987008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75174656"/>
+        <c:crossAx val="61987584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75174656"/>
+        <c:axId val="61987584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75156480"/>
+        <c:crossAx val="61987008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3111,8 +3295,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3124,7 +3311,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3143,11 +3340,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3310,31 +3510,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75146752"/>
-        <c:axId val="75148288"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62178432"/>
+        <c:axId val="62179008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75146752"/>
+        <c:axId val="62178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75148288"/>
+        <c:crossAx val="62179008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75148288"/>
+        <c:axId val="62179008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75146752"/>
+        <c:crossAx val="62178432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3342,8 +3556,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3355,7 +3572,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3374,11 +3601,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3541,31 +3771,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75217920"/>
-        <c:axId val="75232000"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62181312"/>
+        <c:axId val="62181888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75217920"/>
+        <c:axId val="62181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75232000"/>
+        <c:crossAx val="62181888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75232000"/>
+        <c:axId val="62181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75217920"/>
+        <c:crossAx val="62181312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3573,8 +3817,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3586,7 +3833,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3598,23 +3855,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Диаграмма распределения углов абсолютного отклонения осей координат</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Диаграмма плотности распределения углов абсолютного отклонения осей координат от верных значений</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> от верных значений</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3666,31 +3926,31 @@
             <c:numRef>
               <c:f>yudb_indoor_3axis!$G$2:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3751,31 +4011,31 @@
             <c:numRef>
               <c:f>yudb_indoor_3axis!$H$2:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>0.68888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0.15555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3836,19 +4096,19 @@
             <c:numRef>
               <c:f>yudb_indoor_3axis!$I$2:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3870,14 +4130,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60462208"/>
-        <c:axId val="60463744"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62184192"/>
+        <c:axId val="62184768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60462208"/>
+        <c:axId val="62184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3889,15 +4158,35 @@
                   <a:defRPr sz="1600" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Абсолютная величина угла между вычисленным направлением оси и верным</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>град</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3906,18 +4195,19 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60463744"/>
+        <c:crossAx val="62184768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60463744"/>
+        <c:axId val="62184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3930,15 +4220,23 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600" b="0"/>
-                  <a:t>Количество изображений на интервале</a:t>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Количество изображений на интервале, %</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3947,10 +4245,10 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60462208"/>
+        <c:crossAx val="62184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3958,6 +4256,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3965,11 +4264,13 @@
           <a:pPr>
             <a:defRPr sz="1400"/>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3981,7 +4282,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3999,12 +4310,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4175,40 +4488,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75351552"/>
-        <c:axId val="75353088"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63039168"/>
+        <c:axId val="63039744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75351552"/>
+        <c:axId val="63039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75353088"/>
+        <c:crossAx val="63039744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75353088"/>
+        <c:axId val="63039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75351552"/>
+        <c:crossAx val="63039168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4220,7 +4549,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4238,12 +4577,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4406,40 +4747,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75365760"/>
-        <c:axId val="75388032"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63042048"/>
+        <c:axId val="63042624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75365760"/>
+        <c:axId val="63042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75388032"/>
+        <c:crossAx val="63042624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75388032"/>
+        <c:axId val="63042624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75365760"/>
+        <c:crossAx val="63042048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4523,16 +4880,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4653,16 +5010,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>517073</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>217716</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4780,9 +5137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4820,7 +5177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4854,6 +5211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4888,9 +5246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5063,7 +5422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5073,9 +5432,9 @@
       <selection activeCell="K58" sqref="G2:K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -5086,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +5483,7 @@
         <v>28.22916792613356</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5142,7 +5501,7 @@
         <v>0.35320601848775662</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G60" si="2">A3</f>
+        <f t="shared" ref="G3:G58" si="2">A3</f>
         <v>P1020177</v>
       </c>
       <c r="H3">
@@ -5162,7 +5521,7 @@
         <v>20.237214157968182</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5200,7 +5559,7 @@
         <v>3.9297280959669765</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5238,7 +5597,7 @@
         <v>8.0528565500873555</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5276,7 +5635,7 @@
         <v>3.8520823984861896</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5314,7 +5673,7 @@
         <v>3.8183082266049313</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5352,7 +5711,7 @@
         <v>18.204706150118792</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5749,7 @@
         <v>0.89667653327024199</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5428,7 +5787,7 @@
         <v>28.964884234982623</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +5825,7 @@
         <v>4.5866994586073275</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5504,7 +5863,7 @@
         <v>3.1783447289834816</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5901,7 @@
         <v>37.073887103853856</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5580,7 +5939,7 @@
         <v>14.326300353399951</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5618,7 +5977,7 @@
         <v>12.845515411329206</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5656,7 +6015,7 @@
         <v>37.88717310241293</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5694,7 +6053,7 @@
         <v>8.100155733176603</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5732,7 +6091,7 @@
         <v>4.3329976897787787</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5770,7 +6129,7 @@
         <v>5.3888128309376784</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5808,7 +6167,7 @@
         <v>15.008161646100076</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5846,7 +6205,7 @@
         <v>13.034200581702093</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5884,7 +6243,7 @@
         <v>3.3608461917859929</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5922,7 +6281,7 @@
         <v>27.050661420286918</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5960,7 +6319,7 @@
         <v>7.1457126995807858</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5998,7 +6357,7 @@
         <v>4.260516608600156</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6036,7 +6395,7 @@
         <v>3.1962399666506123</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6074,7 +6433,7 @@
         <v>12.817677359485026</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6112,7 +6471,7 @@
         <v>8.5591014728957582</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6150,7 +6509,7 @@
         <v>12.282927626583117</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6188,7 +6547,7 @@
         <v>15.980352391442443</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6226,7 +6585,7 @@
         <v>21.393448641138633</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6264,7 +6623,7 @@
         <v>11.793537271387985</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6302,7 +6661,7 @@
         <v>14.401197400222069</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6316,7 +6675,7 @@
         <v>0.19455494375698401</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="7">SUM(B34:D34) / 3</f>
+        <f t="shared" ref="E34:E58" si="7">SUM(B34:D34) / 3</f>
         <v>0.16840246294835096</v>
       </c>
       <c r="G34" t="str">
@@ -6340,7 +6699,7 @@
         <v>9.6487503865487323</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6378,7 +6737,7 @@
         <v>7.1446213004875085</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6416,7 +6775,7 @@
         <v>14.581062197623661</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6454,7 +6813,7 @@
         <v>5.0874551281173046</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6492,7 +6851,7 @@
         <v>9.261221584574745</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6530,7 +6889,7 @@
         <v>13.037032115101795</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6568,7 +6927,7 @@
         <v>16.457649278294983</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6606,7 +6965,7 @@
         <v>12.29677559916156</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6644,7 +7003,7 @@
         <v>8.1184702569549145</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -6682,7 +7041,7 @@
         <v>22.036199283389664</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6720,7 +7079,7 @@
         <v>8.6143488618077289</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6758,7 +7117,7 @@
         <v>11.554372780678486</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6796,7 +7155,7 @@
         <v>5.7860163719472455</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6834,7 +7193,7 @@
         <v>1.323463663077096</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6872,7 +7231,7 @@
         <v>24.170047051860212</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6910,7 +7269,7 @@
         <v>2.9324004140806901</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6948,7 +7307,7 @@
         <v>7.1188104074156557</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6986,7 +7345,7 @@
         <v>4.680334823998118</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7024,7 +7383,7 @@
         <v>11.163202839389969</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -7062,7 +7421,7 @@
         <v>14.804148539776598</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -7100,7 +7459,7 @@
         <v>12.993440691217909</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -7138,7 +7497,7 @@
         <v>17.366601352662951</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7176,7 +7535,7 @@
         <v>13.499163315433417</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7214,7 +7573,7 @@
         <v>4.9857909958566786</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7252,7 +7611,7 @@
         <v>14.250839825306711</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7270,7 +7629,7 @@
         <v>0.21038943202655067</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7295,7 +7654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -7305,9 +7664,9 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7318,7 +7677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7695,7 @@
         <v>1.5649957830934199E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -7354,7 +7713,7 @@
         <v>2.3098798451200234E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -7372,7 +7731,7 @@
         <v>5.118004221255313E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7390,7 +7749,7 @@
         <v>5.5472580284168599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -7408,7 +7767,7 @@
         <v>5.5784911101886936E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +7785,7 @@
         <v>5.8657831699778375E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7444,7 +7803,7 @@
         <v>6.6642050410241793E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7462,7 +7821,7 @@
         <v>6.7231520911704243E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7480,7 +7839,7 @@
         <v>6.858669398275144E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -7498,7 +7857,7 @@
         <v>7.4360042655975275E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7516,7 +7875,7 @@
         <v>7.5625076167947544E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7534,7 +7893,7 @@
         <v>8.005300735213923E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -7552,7 +7911,7 @@
         <v>8.1687252774516467E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -7570,7 +7929,7 @@
         <v>8.7018468693985995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7588,7 +7947,7 @@
         <v>8.8792842533116909E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7606,7 +7965,7 @@
         <v>9.4052526673579037E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -7624,7 +7983,7 @@
         <v>0.1009850362647763</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -7642,7 +8001,7 @@
         <v>0.12424668043464214</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -7660,7 +8019,7 @@
         <v>0.12469716550162617</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7678,7 +8037,7 @@
         <v>0.12471621400925714</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +8055,7 @@
         <v>0.140548860989816</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -7714,7 +8073,7 @@
         <v>0.141374387468227</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -7732,7 +8091,7 @@
         <v>0.14169403620909332</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -7750,7 +8109,7 @@
         <v>0.14938450171432718</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -7768,7 +8127,7 @@
         <v>0.15034875055397087</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7786,7 +8145,7 @@
         <v>0.16163880940759578</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -7804,7 +8163,7 @@
         <v>0.16840246294835096</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -7822,7 +8181,7 @@
         <v>0.1948346446153347</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -7840,7 +8199,7 @@
         <v>0.20166184802565223</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7858,7 +8217,7 @@
         <v>0.20583605584238837</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -7876,7 +8235,7 @@
         <v>0.21437752886804798</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -7894,7 +8253,7 @@
         <v>0.21461922158426769</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7908,11 +8267,11 @@
         <v>0.29191796211861498</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">SUM(B34:D34) / 3</f>
+        <f t="shared" ref="E34:E58" si="1">SUM(B34:D34) / 3</f>
         <v>0.22371067238134654</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -7930,7 +8289,7 @@
         <v>0.22419653804336834</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -7948,7 +8307,7 @@
         <v>0.22677832122436037</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -7966,7 +8325,7 @@
         <v>0.22748971551606167</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -7984,7 +8343,7 @@
         <v>0.22753913509676668</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -8002,7 +8361,7 @@
         <v>0.23560484611874699</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -8020,7 +8379,7 @@
         <v>0.24872407612593564</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -8038,7 +8397,7 @@
         <v>0.25004111079645636</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -8056,7 +8415,7 @@
         <v>0.25134831086352266</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -8074,7 +8433,7 @@
         <v>0.25448754378661298</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8092,7 +8451,7 @@
         <v>0.25838113497341236</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -8110,7 +8469,7 @@
         <v>0.26194183539597832</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -8128,7 +8487,7 @@
         <v>0.27890976485962032</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -8146,7 +8505,7 @@
         <v>0.287240167044716</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -8164,7 +8523,7 @@
         <v>0.30310437348526936</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8182,7 +8541,7 @@
         <v>0.31773206167763401</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -8200,7 +8559,7 @@
         <v>0.35320601848775662</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -8218,7 +8577,7 @@
         <v>0.37338611714417597</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -8236,7 +8595,7 @@
         <v>0.38460423212076461</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -8254,7 +8613,7 @@
         <v>0.42184690141690934</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -8272,7 +8631,7 @@
         <v>0.47212310662621232</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8649,7 @@
         <v>0.49269192540941004</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -8308,7 +8667,7 @@
         <v>0.50553259735944567</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -8326,7 +8685,7 @@
         <v>0.64706139647491467</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -8354,19 +8713,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="G2" sqref="G2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -8396,7 +8755,7 @@
         <v>0.39419540124627744</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8416,20 +8775,20 @@
         <f t="shared" ref="F2:F9" si="0">Q$1 +Q$3 * $L2</f>
         <v>0.39419540124627744</v>
       </c>
-      <c r="G2">
-        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$58, $F$2:$F$9)</f>
+      <c r="G2" s="1">
+        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$58, $F$2:$F$9) * 100% / 57</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$58, $F$2:$F$9)</f>
+      <c r="H2" s="1">
+        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$58, $F$2:$F$9) * 100% / 57</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$58, $F$2:$F$9)</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$58, $F$2:$F$9)</f>
+      <c r="I2" s="1">
+        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$58, $F$2:$F$9) * 100% / 57</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$58, $F$2:$F$9) * 100% / 57</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -8440,7 +8799,7 @@
         <v>46.920832519127721</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8460,17 +8819,17 @@
         <f t="shared" si="0"/>
         <v>7.0408578466579126</v>
       </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>17</v>
+      <c r="G3" s="1">
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2982456140350877</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -8480,7 +8839,7 @@
         <v>6.6466624454116348</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8500,23 +8859,23 @@
         <f t="shared" si="0"/>
         <v>13.687520292069546</v>
       </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>21</v>
+      <c r="G4" s="1">
+        <v>0.24561403508771928</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.36842105263157893</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8536,23 +8895,23 @@
         <f t="shared" si="0"/>
         <v>20.334182737481182</v>
       </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
+      <c r="G5" s="1">
+        <v>0.19298245614035087</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.19298245614035087</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8572,23 +8931,23 @@
         <f t="shared" si="0"/>
         <v>26.980845182892818</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="H6" s="1">
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8608,23 +8967,23 @@
         <f t="shared" si="0"/>
         <v>33.62750762830445</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="I7" s="1">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -8644,23 +9003,23 @@
         <f t="shared" si="0"/>
         <v>40.274170073716085</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
+      <c r="I8" s="1">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -8680,23 +9039,23 @@
         <f t="shared" si="0"/>
         <v>46.920832519127721</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="1">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -8712,20 +9071,20 @@
       <c r="E10">
         <v>3.9297280959669765</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8742,7 +9101,7 @@
         <v>4.260516608600156</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8759,7 +9118,7 @@
         <v>4.3329976897787787</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8776,7 +9135,7 @@
         <v>4.5866994586073275</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -8793,7 +9152,7 @@
         <v>4.680334823998118</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -8810,7 +9169,7 @@
         <v>4.9857909958566786</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -8827,7 +9186,7 @@
         <v>5.0874551281173046</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +9203,7 @@
         <v>5.3888128309376784</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8861,7 +9220,7 @@
         <v>5.7860163719472455</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -8878,7 +9237,7 @@
         <v>7.1188104074156557</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8895,7 +9254,7 @@
         <v>7.1446213004875085</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8912,7 +9271,7 @@
         <v>7.1457126995807858</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -8929,7 +9288,7 @@
         <v>8.0528565500873555</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -8946,7 +9305,7 @@
         <v>8.100155733176603</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -8963,7 +9322,7 @@
         <v>8.1184702569549145</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -8980,7 +9339,7 @@
         <v>8.5591014728957582</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -8997,7 +9356,7 @@
         <v>8.6143488618077289</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -9014,7 +9373,7 @@
         <v>9.261221584574745</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -9031,7 +9390,7 @@
         <v>9.6487503865487323</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9048,7 +9407,7 @@
         <v>11.163202839389969</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -9065,7 +9424,7 @@
         <v>11.554372780678486</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9082,7 +9441,7 @@
         <v>11.793537271387985</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9099,7 +9458,7 @@
         <v>12.282927626583117</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -9116,7 +9475,7 @@
         <v>12.29677559916156</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9133,7 +9492,7 @@
         <v>12.817677359485026</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -9150,7 +9509,7 @@
         <v>12.845515411329206</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -9167,7 +9526,7 @@
         <v>12.993440691217909</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9184,7 +9543,7 @@
         <v>13.034200581702093</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9201,7 +9560,7 @@
         <v>13.037032115101795</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -9218,7 +9577,7 @@
         <v>13.499163315433417</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -9235,7 +9594,7 @@
         <v>14.250839825306711</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -9252,7 +9611,7 @@
         <v>14.326300353399951</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -9269,7 +9628,7 @@
         <v>14.401197400222069</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -9286,7 +9645,7 @@
         <v>14.581062197623661</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -9303,7 +9662,7 @@
         <v>14.804148539776598</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -9320,7 +9679,7 @@
         <v>15.008161646100076</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -9337,7 +9696,7 @@
         <v>15.980352391442443</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -9354,7 +9713,7 @@
         <v>16.457649278294983</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9371,7 +9730,7 @@
         <v>17.366601352662951</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -9388,7 +9747,7 @@
         <v>18.204706150118792</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -9405,7 +9764,7 @@
         <v>20.237214157968182</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -9422,7 +9781,7 @@
         <v>21.393448641138633</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -9439,7 +9798,7 @@
         <v>22.036199283389664</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -9456,7 +9815,7 @@
         <v>24.170047051860212</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -9473,7 +9832,7 @@
         <v>27.050661420286918</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +9849,7 @@
         <v>28.22916792613356</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -9507,7 +9866,7 @@
         <v>28.964884234982623</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -9524,7 +9883,7 @@
         <v>37.073887103853856</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -9549,19 +9908,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -9612,7 +9971,7 @@
         <v>0.89667653327024199</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9692,7 +10051,7 @@
         <v>0.89667653327024199</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -9765,7 +10124,7 @@
         <v>6.1810331860049121</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -9822,7 +10181,7 @@
         <v>11.465389838739581</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9879,7 +10238,7 @@
         <v>16.749746491474252</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -9936,7 +10295,7 @@
         <v>22.03410314420892</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9993,7 +10352,7 @@
         <v>27.318459796943589</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -10050,7 +10409,7 @@
         <v>32.602816449678265</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -10107,7 +10466,7 @@
         <v>37.88717310241293</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -10145,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -10162,7 +10521,7 @@
         <v>4.260516608600156</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -10179,7 +10538,7 @@
         <v>4.3329976897787787</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -10196,7 +10555,7 @@
         <v>4.5866994586073275</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -10213,7 +10572,7 @@
         <v>4.680334823998118</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -10230,7 +10589,7 @@
         <v>4.9857909958566786</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -10247,7 +10606,7 @@
         <v>5.0874551281173046</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -10264,7 +10623,7 @@
         <v>5.3888128309376784</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -10281,7 +10640,7 @@
         <v>5.7860163719472455</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -10298,7 +10657,7 @@
         <v>7.1188104074156557</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -10315,7 +10674,7 @@
         <v>7.1446213004875085</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -10332,7 +10691,7 @@
         <v>7.1457126995807858</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -10349,7 +10708,7 @@
         <v>8.0528565500873555</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -10366,7 +10725,7 @@
         <v>8.100155733176603</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -10383,7 +10742,7 @@
         <v>8.1184702569549145</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -10400,7 +10759,7 @@
         <v>8.5591014728957582</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -10417,7 +10776,7 @@
         <v>8.6143488618077289</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -10434,7 +10793,7 @@
         <v>9.261221584574745</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -10451,7 +10810,7 @@
         <v>9.6487503865487323</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -10468,7 +10827,7 @@
         <v>11.163202839389969</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -10485,7 +10844,7 @@
         <v>11.554372780678486</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10502,7 +10861,7 @@
         <v>11.793537271387985</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -10519,7 +10878,7 @@
         <v>12.282927626583117</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -10536,7 +10895,7 @@
         <v>12.29677559916156</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -10553,7 +10912,7 @@
         <v>12.817677359485026</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -10570,7 +10929,7 @@
         <v>12.845515411329206</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -10587,7 +10946,7 @@
         <v>12.993440691217909</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -10604,7 +10963,7 @@
         <v>13.034200581702093</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10621,7 +10980,7 @@
         <v>13.037032115101795</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -10638,7 +10997,7 @@
         <v>13.499163315433417</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -10655,7 +11014,7 @@
         <v>14.250839825306711</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -10672,7 +11031,7 @@
         <v>14.326300353399951</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -10689,7 +11048,7 @@
         <v>14.401197400222069</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -10706,7 +11065,7 @@
         <v>14.581062197623661</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -10723,7 +11082,7 @@
         <v>14.804148539776598</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -10740,7 +11099,7 @@
         <v>15.008161646100076</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -10757,7 +11116,7 @@
         <v>15.980352391442443</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -10774,7 +11133,7 @@
         <v>16.457649278294983</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -10791,7 +11150,7 @@
         <v>17.366601352662951</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -10808,7 +11167,7 @@
         <v>18.204706150118792</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -10825,7 +11184,7 @@
         <v>20.237214157968182</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -10842,7 +11201,7 @@
         <v>21.393448641138633</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -10859,7 +11218,7 @@
         <v>22.036199283389664</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -10876,7 +11235,7 @@
         <v>24.170047051860212</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -10893,7 +11252,7 @@
         <v>27.050661420286918</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -10910,7 +11269,7 @@
         <v>28.22916792613356</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -10927,7 +11286,7 @@
         <v>28.964884234982623</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -10944,7 +11303,7 @@
         <v>37.073887103853856</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -10972,7 +11331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10982,9 +11341,9 @@
       <selection activeCell="G2" sqref="G2:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -10998,7 +11357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11036,7 +11395,7 @@
         <v>4.8197712280160578</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -11074,7 +11433,7 @@
         <v>3.1738998452741938</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -11112,7 +11471,7 @@
         <v>1.5476158084816014</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -11150,7 +11509,7 @@
         <v>1.3580581426166582</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -11188,7 +11547,7 @@
         <v>2.1269115111855985</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -11226,7 +11585,7 @@
         <v>2.9569875069374865</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -11264,7 +11623,7 @@
         <v>2.878047192424273</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -11302,7 +11661,7 @@
         <v>2.4378465124806592</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -11340,7 +11699,7 @@
         <v>0.61860451562367369</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -11378,7 +11737,7 @@
         <v>1.5912954203528644</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -11416,7 +11775,7 @@
         <v>13.256687554288623</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -11454,7 +11813,7 @@
         <v>1.0046248238266215</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -11492,7 +11851,7 @@
         <v>9.1291746902624666</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -11530,7 +11889,7 @@
         <v>1.9503772325578634</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -11568,7 +11927,7 @@
         <v>4.7739511565789572</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -11606,7 +11965,7 @@
         <v>31.077653904358499</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -11644,7 +12003,7 @@
         <v>15.687205851944478</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -11682,7 +12041,7 @@
         <v>22.120818235131892</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -11720,7 +12079,7 @@
         <v>9.1290503212620902</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -11758,7 +12117,7 @@
         <v>12.612111343282438</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -11796,7 +12155,7 @@
         <v>3.9555468025367708</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -11834,7 +12193,7 @@
         <v>8.5976940975392093</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -11872,7 +12231,7 @@
         <v>3.1006507221773543</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -11910,7 +12269,7 @@
         <v>3.2792159874339277</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -11948,7 +12307,7 @@
         <v>2.5037423620340857</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -11986,7 +12345,7 @@
         <v>5.0597867884178287</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -12024,7 +12383,7 @@
         <v>4.8069568192938439</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -12062,7 +12421,7 @@
         <v>3.7612924128941816</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -12100,7 +12459,7 @@
         <v>4.1012481634543683</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -12138,7 +12497,7 @@
         <v>3.7206463741011491</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -12176,7 +12535,7 @@
         <v>3.4599901421224444</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -12214,7 +12573,7 @@
         <v>0.87672865408880929</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -12252,7 +12611,7 @@
         <v>2.1382543492916288</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -12290,7 +12649,7 @@
         <v>2.2988749789191387</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -12328,7 +12687,7 @@
         <v>2.3890746261372069</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -12366,7 +12725,7 @@
         <v>1.2306139940198848</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -12404,7 +12763,7 @@
         <v>1.4552021699364368</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -12442,7 +12801,7 @@
         <v>7.8129767274216633</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -12480,7 +12839,7 @@
         <v>6.6693445056051761</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -12518,7 +12877,7 @@
         <v>7.334264825764806</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -12556,7 +12915,7 @@
         <v>3.2648090025281715</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -12594,7 +12953,7 @@
         <v>5.2408926529237219</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -12632,7 +12991,7 @@
         <v>1.9346973846822002</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -12670,7 +13029,7 @@
         <v>4.0068032542178376</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -12714,19 +13073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -12759,7 +13118,7 @@
         <v>0.13453294649086753</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12776,23 +13135,23 @@
         <v>0.61860451562367369</v>
       </c>
       <c r="F2">
-        <f>Q$1 +Q$3 * $M2</f>
+        <f t="shared" ref="F2:F9" si="0">Q$1 +Q$3 * $M2</f>
         <v>0.13453294649086753</v>
       </c>
-      <c r="G2">
-        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$46, $F$2:$F$9)</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$46, $F$2:$F$9)</f>
+      <c r="G2" s="1">
+        <f t="array" ref="G2:G10">FREQUENCY(B$2:B$46, $F$2:$F$9) *100%/45</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="array" ref="H2:H10">FREQUENCY(C$2:C$46, $F$2:$F$9) *100%/45</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$46, $F$2:$F$9)</f>
+      <c r="I2" s="1">
+        <f t="array" ref="I2:I10">FREQUENCY(D$2:D$46, $F$2:$F$9) *100%/45</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$46, $F$2:$F$9)</f>
+      <c r="J2" s="1">
+        <f t="array" ref="J2:J10">FREQUENCY(E$2:E$46, $F$2:$F$9) *100%/45</f>
         <v>0</v>
       </c>
       <c r="M2">
@@ -12803,7 +13162,7 @@
         <v>38.709946545061747</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -12820,20 +13179,20 @@
         <v>0.87672865408880929</v>
       </c>
       <c r="F3">
-        <f>Q$1 +Q$3 * $M3</f>
+        <f t="shared" si="0"/>
         <v>5.6453063177152787</v>
       </c>
-      <c r="G3">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>35</v>
-      </c>
-      <c r="J3">
-        <v>34</v>
+      <c r="G3" s="1">
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.75555555555555554</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -12843,7 +13202,7 @@
         <v>5.5107733712244116</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -12860,26 +13219,26 @@
         <v>1.0046248238266215</v>
       </c>
       <c r="F4">
-        <f>Q$1 +Q$3 * $M4</f>
+        <f t="shared" si="0"/>
         <v>11.156079688939691</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
+      <c r="G4" s="1">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.13333333333333333</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -12896,26 +13255,26 @@
         <v>1.2306139940198848</v>
       </c>
       <c r="F5">
-        <f>Q$1 +Q$3 * $M5</f>
+        <f t="shared" si="0"/>
         <v>16.666853060164105</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="G5" s="1">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -12932,26 +13291,26 @@
         <v>1.3580581426166582</v>
       </c>
       <c r="F6">
-        <f>Q$1 +Q$3 * $M6</f>
+        <f t="shared" si="0"/>
         <v>22.177626431388514</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="J6" s="1">
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -12968,26 +13327,26 @@
         <v>1.4552021699364368</v>
       </c>
       <c r="F7">
-        <f>Q$1 +Q$3 * $M7</f>
+        <f t="shared" si="0"/>
         <v>27.688399802612924</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="1">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -13004,26 +13363,26 @@
         <v>1.5476158084816014</v>
       </c>
       <c r="F8">
-        <f>Q$1 +Q$3 * $M8</f>
+        <f t="shared" si="0"/>
         <v>33.199173173837337</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" s="1">
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="M8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -13040,26 +13399,26 @@
         <v>1.5912954203528644</v>
       </c>
       <c r="F9">
-        <f>Q$1 +Q$3 * $M9</f>
+        <f t="shared" si="0"/>
         <v>38.709946545061747</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -13075,20 +13434,20 @@
       <c r="E10">
         <v>1.7957685278846554</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -13105,7 +13464,7 @@
         <v>1.9346973846822002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -13122,7 +13481,7 @@
         <v>1.9503772325578634</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -13139,7 +13498,7 @@
         <v>2.1269115111855985</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -13156,7 +13515,7 @@
         <v>2.1382543492916288</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -13173,7 +13532,7 @@
         <v>2.2988749789191387</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -13190,7 +13549,7 @@
         <v>2.3890746261372069</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -13207,7 +13566,7 @@
         <v>2.4378465124806592</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -13224,7 +13583,7 @@
         <v>2.5037423620340857</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -13241,7 +13600,7 @@
         <v>2.878047192424273</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -13258,7 +13617,7 @@
         <v>2.9569875069374865</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -13275,7 +13634,7 @@
         <v>3.1006507221773543</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -13292,7 +13651,7 @@
         <v>3.1738998452741938</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -13309,7 +13668,7 @@
         <v>3.2648090025281715</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -13326,7 +13685,7 @@
         <v>3.2792159874339277</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -13343,7 +13702,7 @@
         <v>3.4599901421224444</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -13360,7 +13719,7 @@
         <v>3.7206463741011491</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -13377,7 +13736,7 @@
         <v>3.7612924128941816</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -13394,7 +13753,7 @@
         <v>3.9555468025367708</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -13411,7 +13770,7 @@
         <v>4.0068032542178376</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -13428,7 +13787,7 @@
         <v>4.1012481634543683</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -13445,7 +13804,7 @@
         <v>4.7739511565789572</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -13462,7 +13821,7 @@
         <v>4.8069568192938439</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -13479,7 +13838,7 @@
         <v>4.8197712280160578</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -13496,7 +13855,7 @@
         <v>5.0597867884178287</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -13513,7 +13872,7 @@
         <v>5.2408926529237219</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -13530,7 +13889,7 @@
         <v>6.6693445056051761</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -13547,7 +13906,7 @@
         <v>7.334264825764806</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13564,7 +13923,7 @@
         <v>7.8129767274216633</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -13581,7 +13940,7 @@
         <v>8.5976940975392093</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -13598,7 +13957,7 @@
         <v>9.1290503212620902</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -13615,7 +13974,7 @@
         <v>9.1291746902624666</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -13632,7 +13991,7 @@
         <v>12.612111343282438</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -13649,7 +14008,7 @@
         <v>13.256687554288623</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -13666,7 +14025,7 @@
         <v>15.687205851944478</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -13683,7 +14042,7 @@
         <v>22.120818235131892</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -13707,7 +14066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13717,9 +14076,9 @@
       <selection sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -13773,7 +14132,7 @@
         <v>0.61860451562367369</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -13853,7 +14212,7 @@
         <v>0.61860451562367369</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -13926,7 +14285,7 @@
         <v>4.9698972854429346</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -13983,7 +14342,7 @@
         <v>9.3211900552621945</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -14040,7 +14399,7 @@
         <v>13.672482825081456</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -14097,7 +14456,7 @@
         <v>18.023775594900716</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -14154,7 +14513,7 @@
         <v>22.375068364719976</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -14211,7 +14570,7 @@
         <v>26.726361134539239</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -14268,7 +14627,7 @@
         <v>31.077653904358499</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -14306,7 +14665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -14323,7 +14682,7 @@
         <v>1.9346973846822002</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -14340,7 +14699,7 @@
         <v>1.9503772325578634</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -14357,7 +14716,7 @@
         <v>2.1269115111855985</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -14374,7 +14733,7 @@
         <v>2.1382543492916288</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -14391,7 +14750,7 @@
         <v>2.2988749789191387</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -14408,7 +14767,7 @@
         <v>2.3890746261372069</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -14425,7 +14784,7 @@
         <v>2.4378465124806592</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -14442,7 +14801,7 @@
         <v>2.5037423620340857</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -14459,7 +14818,7 @@
         <v>2.878047192424273</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -14476,7 +14835,7 @@
         <v>2.9569875069374865</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -14493,7 +14852,7 @@
         <v>3.1006507221773543</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -14510,7 +14869,7 @@
         <v>3.1738998452741938</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -14527,7 +14886,7 @@
         <v>3.2648090025281715</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -14544,7 +14903,7 @@
         <v>3.2792159874339277</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -14561,7 +14920,7 @@
         <v>3.4599901421224444</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -14578,7 +14937,7 @@
         <v>3.7206463741011491</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -14595,7 +14954,7 @@
         <v>3.7612924128941816</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -14612,7 +14971,7 @@
         <v>3.9555468025367708</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -14629,7 +14988,7 @@
         <v>4.0068032542178376</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -14646,7 +15005,7 @@
         <v>4.1012481634543683</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -14663,7 +15022,7 @@
         <v>4.7739511565789572</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -14680,7 +15039,7 @@
         <v>4.8069568192938439</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -14697,7 +15056,7 @@
         <v>4.8197712280160578</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -14714,7 +15073,7 @@
         <v>5.0597867884178287</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -14731,7 +15090,7 @@
         <v>5.2408926529237219</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -14748,7 +15107,7 @@
         <v>6.6693445056051761</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -14765,7 +15124,7 @@
         <v>7.334264825764806</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -14782,7 +15141,7 @@
         <v>7.8129767274216633</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -14799,7 +15158,7 @@
         <v>8.5976940975392093</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -14816,7 +15175,7 @@
         <v>9.1290503212620902</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14833,7 +15192,7 @@
         <v>9.1291746902624666</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -14850,7 +15209,7 @@
         <v>12.612111343282438</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -14867,7 +15226,7 @@
         <v>13.256687554288623</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -14884,7 +15243,7 @@
         <v>15.687205851944478</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -14901,7 +15260,7 @@
         <v>22.120818235131892</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
